--- a/jpcore-r4/develop/StructureDefinition-jp-coverage.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-coverage.xlsx
@@ -1796,46 +1796,46 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="53.5703125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="53.57421875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="24.98828125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="81.07421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="144.8984375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="52.83984375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="52.84375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="42.79296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="42.796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="46.52734375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="46.53125" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="59.4453125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="51.26953125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="59.44921875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="51.2734375" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="62.85546875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-coverage.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-coverage.xlsx
@@ -1162,7 +1162,7 @@
   </si>
   <si>
     <t>Needed to identify the category associated with the amount for the patient.
-患者さんの金額に関連するカテゴリーを特定する必要がありました。</t>
+患者の金額に関連するカテゴリーを特定する必要がありました。</t>
   </si>
   <si>
     <t>The types of services to which patient copayments are specified.</t>
@@ -1369,7 +1369,7 @@
   </si>
   <si>
     <t>The amount due from the patient for the cost category.
-費用区分の患者さんからの支払額。</t>
+費用区分の患者からの支払額。</t>
   </si>
   <si>
     <t>Amount may be expressed as a percentage of the service/product cost or a fixed amount of currency.

--- a/jpcore-r4/develop/StructureDefinition-jp-coverage.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-coverage.xlsx
@@ -447,7 +447,7 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>InsuredPersonSymbol</t>
+    <t>insuredPersonSymbol</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_Coverage_InsuredPersonSymbol}
@@ -528,7 +528,7 @@
     <t>Extension.value[x]</t>
   </si>
   <si>
-    <t>InsuredPersonNumber</t>
+    <t>insuredPersonNumber</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_Coverage_InsuredPersonNumber}
@@ -554,7 +554,7 @@
 被保険者番号</t>
   </si>
   <si>
-    <t>InsuredPersonSubNumber</t>
+    <t>insuredPersonSubNumber</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_Coverage_InsuredPersonSubNumber}
@@ -1797,7 +1797,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="53.57421875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="24.98828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="24.95703125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-coverage.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-coverage.xlsx
@@ -619,11 +619,11 @@
   </si>
   <si>
     <t>The main (and possibly only) identifier for the coverage - often referred to as a Member Id, Certificate number, Personal Health Number or Case ID. May be constructed as the concatenation of the Coverage.SubscriberID and the Coverage.dependant.
-カバレッジのメイン（および場合によっては唯一の）識別子-多くの場合、メンバーID、証明書番号、個人の健康番号、またはケースIDと呼ばれます。 Coverage.SubscriberIDとCoverage.dependantの連結として構築できます</t>
+カバレッジのメイン（および場合によっては唯一の）識別子-多くの場合、メンバーID、証明書番号、個人の健康番号、またはケースIDと呼ばれる。 Coverage.SubscriberIDとCoverage.dependantの連結として構築できる。</t>
   </si>
   <si>
     <t>Allows coverages to be distinguished and referenced.
-カバレッジを区別して参照できるようにします。</t>
+カバレッジを区別して参照できるようにする。</t>
   </si>
   <si>
     <t>Event.identifier</t>
@@ -655,11 +655,11 @@
   </si>
   <si>
     <t>This element is labeled as a modifier because the status contains the code entered-in-error that marks the coverage as not currently valid.
-ステータスには、カバレッジが現在無効であることを示すエラー入力されたコードが含まれているため、この要素は修飾子としてラベル付けされます。</t>
+ステータスには、カバレッジが現在無効であることを示すエラー入力されたコードが含まれているため、この要素は修飾子としてラベル付けされる。</t>
   </si>
   <si>
     <t>Need to track the status of the resource as 'draft' resources may undergo further edits while 'active' resources are immutable and may only have their status changed to 'cancelled'.
-「ドラフト」リソースはさらに編集される可能性があり、「アクティブ」リソースは不変であり、ステータスが「キャンセル」に変更されるだけである可能性があるため、リソースのステータスを追跡する必要があります。</t>
+「ドラフト」リソースはさらに編集される可能性があり、「アクティブ」リソースは不変であり、ステータスが「キャンセル」に変更されるだけである可能性があるため、リソースのステータスを追跡する必要がある。</t>
   </si>
   <si>
     <t>required</t>
@@ -701,7 +701,7 @@
   </si>
   <si>
     <t>The order of application of coverages is dependent on the types of coverage.
-カバレッジの適用順序は、カバレッジのタイプによって異なります。</t>
+カバレッジの適用順序は、カバレッジのタイプによって異なる。</t>
   </si>
   <si>
     <t>The type of insurance: public health, worker compensation; private accident, auto, private health, etc.) or a direct payment by an individual or organization.</t>
@@ -731,11 +731,11 @@
   </si>
   <si>
     <t>For example: may be an individual, corporation or the subscriber's employer.
-例：個人、企業、または加入者の雇用主である可能性があります。</t>
+例：個人、企業、または加入者の雇用主である可能性がある。</t>
   </si>
   <si>
     <t>This provides employer information in the case of Worker's Compensation and other policies.
-これは、労働者災害補償およびその他のポリシーの場合に雇用者情報を提供します。</t>
+これは、労働者災害補償およびその他のポリシーの場合に雇用者情報を提供する。</t>
   </si>
   <si>
     <t>FiveWs.subject</t>
@@ -765,11 +765,11 @@
   </si>
   <si>
     <t>May be self or a parent in the case of dependants.
-扶養家族の場合、自己または親である可能性があります。</t>
+扶養家族の場合、自己または親である可能性がある。</t>
   </si>
   <si>
     <t>This is the party who is entitled to the benfits under the policy.
-これは、ポリシーに基づいて給付を受ける権利を有する当事者です。
+これは、ポリシーに基づいて給付を受ける権利を有する当事者である。
 【JP-CORE】
 公費情報で本リソースを使用する場合には、この要素に公費受給者番号を設定する。</t>
   </si>
@@ -786,7 +786,7 @@
   <si>
     <t>The insurer requires this identifier on correspondance and claims (digital and otherwise).
 保険者は、連絡や請求（デジタルおよびその他）でこの識別子を要求する。
-保険会社は、通信および請求（デジタルおよびその他）でこの識別子を要求します。
+保険会社は、通信および請求（デジタルおよびその他）でこの識別子を要求する。
 -----SWG3コメント--------
 被保険者番号を全角で格納する</t>
   </si>
@@ -812,7 +812,7 @@
   </si>
   <si>
     <t>This is the party who receives treatment for which the costs are reimbursed under the coverage.
-これは、補償の下で費用が償還される治療を受ける側のことです。</t>
+これは、補償の下で費用が償還される治療を受ける側のことである。</t>
   </si>
   <si>
     <t>Event.subject</t>
@@ -856,7 +856,7 @@
   </si>
   <si>
     <t>Typically, an individual uses policies which are theirs (relationship='self') before policies owned by others.
-一般的に、個人は、他人が所有するポリシーよりも、自分のポリシー（relationship='self'）を使用します。</t>
+一般的に、個人は、他人が所有するポリシーよりも、自分のポリシー（relationship='self'）を使用する。</t>
   </si>
   <si>
     <t>To determine relationship between the patient and the subscriber to determine coordination of benefits.
@@ -890,22 +890,22 @@
   </si>
   <si>
     <t>Time period during which the coverage is in force. A missing start date indicates the start date isn't known, a missing end date means the coverage is continuing to be in force.
-補償範囲が有効である期間。開始日が欠落している場合は、開始日が不明であることを示します。終了日が欠落している場合は、補償範囲が引き続き有効であることを意味します。</t>
+補償範囲が有効である期間。開始日が欠落している場合は、開始日が不明であることを示す。終了日が欠落している場合は、補償範囲が引き続き有効であることを意味する。</t>
   </si>
   <si>
     <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
 Period is not used for a duration (a measure of elapsed time). See [Duration](datatypes.html#Duration).
-Period（期間）は時間の範囲を指定します。使用状況は、範囲全体が適用されるか（たとえば、「患者はこの時間範囲で入院していた」）、範囲から1つの値が適用されるか（たとえば、「この2回の間に患者に投与する」）を指定する。
+Period（期間）は時間の範囲を指定する。使用状況は、範囲全体が適用されるか（たとえば、「患者はこの時間範囲で入院していた」）、範囲から1つの値が適用されるか（たとえば、「この2回の間に患者に投与する」）を指定する。
 Period（期間）は、Duration（時間区間＝経過時間の測定値）には使用されない。 [Duration]（datatypes.html＃Duration）を参照のこと。
 This is not a duration - that's a measure of time (a separate type), but a duration that occurs at a fixed value of time. A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times"). If duration is required, specify the type as Interval|Duration.
-これはDuration（時間区間）ではない-　Durationは時間の尺度（別のタイプ）だが、時間の固定値で発生する時間区間です。Period（期間）は時間の範囲を指定します。使用状況は、範囲全体が適用されるか（たとえば、「患者はこの時間範囲で入院していた」）、範囲から1つの値が適用されるか（たとえば、「この2回の間に患者に投与する」）を指定する。もし、Duration（時間区間）が必要な場合は、タイプをInterval | Durationとして指定する。
-これは期間ではありません-これは時間の尺度（別のタイプ）ですが、時間の固定値で発生する期間です。期間は時間の範囲を指定します。使用状況は、範囲全体が適用されるか（たとえば、「患者はこの時間範囲で入院していた」）、または範囲から1つの値が適用されるか（たとえば、「これら2回の間に患者に与える」）を指定します。期間が必要な場合は、タイプをInterval | Durationとして指定します。
+これはDuration（時間区間）ではない-　Durationは時間の尺度（別のタイプ）だが、時間の固定値で発生する時間区間です。Period（期間）は時間の範囲を指定する。使用状況は、範囲全体が適用されるか（たとえば、「患者はこの時間範囲で入院していた」）、範囲から1つの値が適用されるか（たとえば、「この2回の間に患者に投与する」）を指定する。もし、Duration（時間区間）が必要な場合は、タイプをInterval | Durationとして指定する。
+これは期間ではありません-これは時間の尺度（別のタイプ）ですが、時間の固定値で発生する期間です。期間は時間の範囲を指定する。使用状況は、範囲全体が適用されるか（たとえば、「患者はこの時間範囲で入院していた」）、または範囲から1つの値が適用されるか（たとえば、「これら2回の間に患者に与える」）を指定する。期間が必要な場合は、タイプをInterval | Durationとして指定する。
 【JP-CORE】
 医療保険、公費で本リソースを使用する場合には、保険証または公費の有効期間の開始日、終了日をstart とendに yyyy-mm-dd形式で設定する。</t>
   </si>
   <si>
     <t>Some insurers require the submission of the coverage term.
-保険会社によっては、補償期間の提出を義務付けているところもあります。</t>
+保険会社によっては、補償期間の提出を義務付けているところもある。</t>
   </si>
   <si>
     <t>Event.occurrence[x]</t>
@@ -940,7 +940,7 @@
   </si>
   <si>
     <t>Need to identify the issuer to target for claim processing and for coordination of benefit processing.
-請求処理および給付処理の調整の対象となる発行者を特定する必要があります。
+請求処理および給付処理の調整の対象となる発行者を特定する必要がある。
 【JP-CORE】
 医療保険で本リソースを使用する場合には、保険者組織Organizationリソースへの参照。自費の場合には、患者Patientリソースへの参照。公費の場合には、公費負担者組織Organizationリソースへの参照。</t>
   </si>
@@ -972,7 +972,7 @@
   </si>
   <si>
     <t>For example may be used to identify a class of coverage or employer group, Policy, Plan.
-例えば、保険の種類または雇用者グループ、保険契約、Planを識別するために使用することができます。</t>
+例えば、保険の種類または雇用者グループ、保険契約、Planを識別するために使用することができる。</t>
   </si>
   <si>
     <t>The codes provided on the health card which identify or confirm the specific policy for the insurer.
@@ -1015,7 +1015,7 @@
   </si>
   <si>
     <t>The type of classification for which an insurer-specific class label or number and optional name is provided, for example may be used to identify a class of coverage or employer group, Policy, Plan.
-保険者固有のクラスラベルまたは番号、任意の名前が提供されている分類のタイプを表す。例えば、保険のクラスまたは雇用者グループ、保険契約、Planを識別するために使用することができます。</t>
+保険者固有のクラスラベルまたは番号、任意の名前が提供されている分類のタイプを表す。例えば、保険のクラスまたは雇用者グループ、保険契約、Planを識別するために使用することができる。</t>
   </si>
   <si>
     <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.
@@ -1070,7 +1070,7 @@
   </si>
   <si>
     <t>Used to provide a meaningful description in correspondence to the patient.
-患者に対応するのに意味のある説明をするために使用します。</t>
+患者に対応するのに意味のある説明をするために使用する。</t>
   </si>
   <si>
     <t>Coverage.order</t>
@@ -1084,15 +1084,15 @@
   </si>
   <si>
     <t>The order of applicability of this coverage relative to other coverages which are currently in force. Note, there may be gaps in the numbering and this does not imply primary, secondary etc. as the specific positioning of coverages depends upon the episode of care.
-現在適用されている他の保障と比較して、この保障の適用可能性が高い順に記載されています。なお、ナンバリングにギャップがある場合があり、カバーの具体的な位置づけはケアのエピソードに依存するため、一次、二次などを意味するものではありません。</t>
+現在適用されている他の保障と比較して、この保障の適用可能性が高い順に記載されている。なお、ナンバリングにギャップがある場合があり、カバーの具体的な位置づけはケアのエピソードに依存するため、一次、二次などを意味するものではありません。</t>
   </si>
   <si>
     <t>32 bit number; for values larger than this, use decimal
-32 ビットの数値、これより大きい値の場合は 10 進数を使用します。</t>
+32 ビットの数値、これより大きい値の場合は 10 進数を使用する。</t>
   </si>
   <si>
     <t>Used in managing the coordination of benefits.
-保険給付の調整管理に使用します。
+保険給付の調整管理に使用する。
 【JP-CORE】
 公費情報で本リソースを使用する場合で、複数の公費負担情報がある場合に、その適用順序番号を示す１，２，３．．．を設定する。</t>
   </si>
@@ -1108,7 +1108,7 @@
   </si>
   <si>
     <t>Used in referral for treatment and in claims processing.
-治療のための紹介や請求処理の際に使用します。</t>
+治療のための紹介や請求処理の際に使用する。</t>
   </si>
   <si>
     <t>D10</t>
@@ -1373,7 +1373,7 @@
   </si>
   <si>
     <t>Amount may be expressed as a percentage of the service/product cost or a fixed amount of currency.
-金額は、サービス/製品のコストに対する割合で表現される場合と、通貨の固定額で表現される場合があります。</t>
+金額は、サービス/製品のコストに対する割合で表現される場合と、通貨の固定額で表現される場合がある。</t>
   </si>
   <si>
     <t>Needed to identify the amount for the patient associated with the category.

--- a/jpcore-r4/develop/StructureDefinition-jp-coverage.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-coverage.xlsx
@@ -787,7 +787,6 @@
     <t>The insurer requires this identifier on correspondance and claims (digital and otherwise).
 保険者は、連絡や請求（デジタルおよびその他）でこの識別子を要求する。
 保険会社は、通信および請求（デジタルおよびその他）でこの識別子を要求する。
------SWG3コメント--------
 被保険者番号を全角で格納する</t>
   </si>
   <si>
@@ -898,8 +897,8 @@
 Period（期間）は時間の範囲を指定する。使用状況は、範囲全体が適用されるか（たとえば、「患者はこの時間範囲で入院していた」）、範囲から1つの値が適用されるか（たとえば、「この2回の間に患者に投与する」）を指定する。
 Period（期間）は、Duration（時間区間＝経過時間の測定値）には使用されない。 [Duration]（datatypes.html＃Duration）を参照のこと。
 This is not a duration - that's a measure of time (a separate type), but a duration that occurs at a fixed value of time. A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times"). If duration is required, specify the type as Interval|Duration.
-これはDuration（時間区間）ではない-　Durationは時間の尺度（別のタイプ）だが、時間の固定値で発生する時間区間です。Period（期間）は時間の範囲を指定する。使用状況は、範囲全体が適用されるか（たとえば、「患者はこの時間範囲で入院していた」）、範囲から1つの値が適用されるか（たとえば、「この2回の間に患者に投与する」）を指定する。もし、Duration（時間区間）が必要な場合は、タイプをInterval | Durationとして指定する。
-これは期間ではありません-これは時間の尺度（別のタイプ）ですが、時間の固定値で発生する期間です。期間は時間の範囲を指定する。使用状況は、範囲全体が適用されるか（たとえば、「患者はこの時間範囲で入院していた」）、または範囲から1つの値が適用されるか（たとえば、「これら2回の間に患者に与える」）を指定する。期間が必要な場合は、タイプをInterval | Durationとして指定する。
+これはDuration（時間区間）ではない-　Durationは時間の尺度（別のタイプ）だが、時間の固定値で発生する時間区間である。Period（期間）は時間の範囲を指定する。使用状況は、範囲全体が適用されるか（たとえば、「患者はこの時間範囲で入院していた」）、範囲から1つの値が適用されるか（たとえば、「この2回の間に患者に投与する」）を指定する。もし、Duration（時間区間）が必要な場合は、タイプをInterval | Durationとして指定する。
+これは期間ではなく-これは時間の尺度（別のタイプ）あるが、時間の固定値で発生する期間である。期間は時間の範囲を指定する。使用状況は、範囲全体が適用されるか（たとえば、「患者はこの時間範囲で入院していた」）、または範囲から1つの値が適用されるか（たとえば、「これら2回の間に患者に与える」）を指定する。期間が必要な場合は、タイプをInterval | Durationとして指定する。
 【JP-CORE】
 医療保険、公費で本リソースを使用する場合には、保険証または公費の有効期間の開始日、終了日をstart とendに yyyy-mm-dd形式で設定する。</t>
   </si>
@@ -1047,7 +1046,7 @@
   </si>
   <si>
     <t>The insurer issued label and value are necessary to identify the specific policy.
-保険者が発行したラベルと値は、特定の保険契約を識別するために必要なものです。</t>
+保険者が発行したラベルと値は、特定の保険契約を識別するために必要なものである。</t>
   </si>
   <si>
     <t>C11 (Division,Section)</t>
@@ -1084,7 +1083,7 @@
   </si>
   <si>
     <t>The order of applicability of this coverage relative to other coverages which are currently in force. Note, there may be gaps in the numbering and this does not imply primary, secondary etc. as the specific positioning of coverages depends upon the episode of care.
-現在適用されている他の保障と比較して、この保障の適用可能性が高い順に記載されている。なお、ナンバリングにギャップがある場合があり、カバーの具体的な位置づけはケアのエピソードに依存するため、一次、二次などを意味するものではありません。</t>
+現在適用されている他の保障と比較して、この保障の適用可能性が高い順に記載されている。なお、ナンバリングにギャップがある場合があり、カバーの具体的な位置づけはケアのエピソードに依存するため、一次、二次などを意味するものではない。</t>
   </si>
   <si>
     <t>32 bit number; for values larger than this, use decimal

--- a/jpcore-r4/develop/StructureDefinition-jp-coverage.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-coverage.xlsx
@@ -461,7 +461,6 @@
   </si>
   <si>
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.
-【JP-CORE】
 健康保険における被保険者証記号を示す拡張</t>
   </si>
   <si>
@@ -521,7 +520,6 @@
   </si>
   <si>
     <t>A stream of bytes, base64 encoded
-【JP-CORE】
 被保険者記号の文字列。</t>
   </si>
   <si>
@@ -542,7 +540,6 @@
   </si>
   <si>
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.
-【JP-CORE】
 健康保険における被保険者証番号を示す拡張</t>
   </si>
   <si>
@@ -550,7 +547,6 @@
   </si>
   <si>
     <t>A stream of bytes, base64 encoded
-【JP-CORE】
 被保険者番号</t>
   </si>
   <si>
@@ -568,7 +564,6 @@
   </si>
   <si>
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.
-【JP-CORE】
 健康保険における被保険者証番号の枝番を示す拡張
 枝番号は2桁。</t>
   </si>
@@ -577,7 +572,6 @@
   </si>
   <si>
     <t>A stream of bytes, base64 encoded
-【JP-CORE】
 2桁の半角数字文字列。一桁の場合には先頭に０をつけて2桁にする。</t>
   </si>
   <si>
@@ -1220,7 +1214,6 @@
   </si>
   <si>
     <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.
-【JP-CORE】
 保険や公費における自己負担率の種別を識別するコード体系のコード。
 "http://terminology.hl7.org/CodeSystem/coverage-copay-type"</t>
   </si>
@@ -1268,7 +1261,6 @@
   </si>
   <si>
     <t>Note that FHIR strings SHALL NOT exceed 1MB in size
-【JP-CORE】
 自己負担率を表すコード　"copaypct"</t>
   </si>
   <si>

--- a/jpcore-r4/develop/StructureDefinition-jp-coverage.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-coverage.xlsx
@@ -1446,7 +1446,7 @@
   </si>
   <si>
     <t>See definition for when to be used.
-使用時期については定義を参照してください。</t>
+使用時期については定義を参照すること。</t>
   </si>
   <si>
     <t>Coverage.contract</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-coverage.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-coverage.xlsx
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>Japan</t>
+    <t>JP</t>
   </si>
   <si>
     <t>Description</t>
@@ -269,8 +269,8 @@
 Coverageには、保険証レベルの情報が含まれている。これは、保険金請求やプロバイダーと保険会社間のその他の通信で提供するのが通例である。</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+    <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -289,13 +289,13 @@
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+    <t>このアーティファクトの論理ID / Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>リソースのURLで使用されるリソースの論理ID。割り当てられたら、この値は変更されません。 / The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>リソースにIDがないのは、IDが作成操作を使用してサーバーに送信されている場合です。 / The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -308,16 +308,16 @@
 </t>
   </si>
   <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+    <t>リソースに関するメタデータ / Metadata about the resource</t>
+  </si>
+  <si>
+    <t>リソースに関するメタデータ。これは、インフラストラクチャによって維持されるコンテンツです。コンテンツの変更は、常にリソースのバージョンの変更に関連付けられているとは限りません。 / The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
   </si>
   <si>
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
@@ -328,13 +328,13 @@
 </t>
   </si>
   <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+    <t>このコンテンツが作成されたルールのセット / A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>リソースが構築されたときに従った一連のルールへの参照。コンテンツの処理時に理解する必要があります。多くの場合、これは他のプロファイルなどとともに特別なルールを定義する実装ガイドへの参照です。 / A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>このルールセットを主張することは、コンテンツが限られた取引パートナーのセットによってのみ理解されることを制限します。これにより、本質的に長期的にデータの有用性が制限されます。ただし、既存の健康エコシステムは非常に破壊されており、一般的に計算可能な意味でデータを定義、収集、交換する準備ができていません。可能な限り、実装者や仕様ライターはこの要素の使用を避ける必要があります。多くの場合、使用する場合、URLは、これらの特別なルールを他のプロファイル、バリューセットなどとともに叙述(Narative)の一部として定義する実装ガイドへの参照です。 / Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
   </si>
   <si>
     <t>Resource.implicitRules</t>
@@ -347,19 +347,19 @@
 </t>
   </si>
   <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+    <t>リソースコンテンツの言語 / Language of the resource content</t>
+  </si>
+  <si>
+    <t>リソースが書かれている基本言語。 / The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>言語は、インデックス作成とアクセシビリティをサポートするために提供されます（通常、テキストから音声までのサービスなどのサービスが言語タグを使用します）。叙述(Narative)のHTML言語タグは、叙述(Narative)に適用されます。リソース上の言語タグを使用して、リソース内のデータから生成された他のプレゼンテーションの言語を指定できます。すべてのコンテンツが基本言語である必要はありません。リソース。言語は、叙述(Narative)に自動的に適用されると想定されるべきではありません。言語が指定されている場合、HTMLのDIV要素にも指定されている場合（XML：LangとHTML Lang属性の関係については、HTML5のルールを参照してください）。 / Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
   </si>
   <si>
     <t>preferred</t>
   </si>
   <si>
-    <t>A human language.</t>
+    <t>人間の言語。 / A human language.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -379,13 +379,13 @@
 </t>
   </si>
   <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>人間の解釈のためのリソースのテキスト概要 / Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>リソースの概要を含み、人間へのリソースの内容を表すために使用できる人間の読み取り可能な叙述(Narative)。叙述(Narative)はすべての構造化されたデータをエンコードする必要はありませんが、人間が叙述(Narative)を読むだけで「臨床的に安全」にするために十分な詳細を含める必要があります。リソースの定義は、臨床的安全を確保するために、叙述(Narative)で表現するコンテンツを定義する場合があります。 / A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>含まれるリソースには叙述(Narative)がありません。含まれていないリソースには叙述(Narative)が必要です。場合によっては、リソースには、追加の個別のデータがほとんどまたはまったくないテキストのみがあります（すべてのMinoccur = 1要素が満たされている限り）。これは、情報がtext blob (バイナリー ラージ オブジェクト)としてキャプチャされるレガシーシステムからのデータ、またはテキストが生またはナレーションされ、エンコードされた情報が後で追加される場合に必要になる場合があります。 / Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
   </si>
   <si>
     <t>DomainResource.text</t>
@@ -405,13 +405,13 @@
 </t>
   </si>
   <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+    <t>インラインリソースが含まれています / Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>これらのリソースには、それらを含むリソースを除いて独立した存在はありません - 独立して特定することはできず、独自の独立したトランザクションスコープを持つこともできません。 / These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>識別が失われると、コンテンツを適切に識別できる場合は、これを行うべきではありません。含まれるリソースには、メタ要素にプロファイルとタグがある場合がありますが、セキュリティラベルはありません。 / This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
@@ -443,8 +443,8 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:両方ではなく、拡張または値[x]が必要です / Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>insuredPersonSymbol</t>
@@ -471,10 +471,10 @@
     <t>Coverage.extension.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+    <t>要素間参照のための一意のID / Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>リソース内の要素の一意のID（内部参照用）。これは、スペースを含まない文字列値である場合があります。 / Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
     <t>Element.id</t>
@@ -495,13 +495,13 @@
     <t>Coverage.extension.url</t>
   </si>
   <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+    <t>拡張機能の意味を識別します / identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>拡張コードの定義のソース - 論理名またはURL。 / Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>定義は、拡張性コードの計算可能または人間が読み取る可能性のある定義を直接指している場合があります。または、他の仕様で宣言されているように、論理的なURIである場合があります。定義は、拡張機能を定義する構造定義のURIでなければなりません。 / The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_Coverage_InsuredPersonSymbol</t>
@@ -513,10 +513,10 @@
     <t>Coverage.extension.value[x]</t>
   </si>
   <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+    <t>拡張値の値 / Value of extension</t>
+  </si>
+  <si>
+    <t>拡張値の値 - データ型の制約付きセットの1つでなければなりません（リストの[拡張性]（拡張性]（拡張性。html）を参照）。 / Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
   </si>
   <si>
     <t>A stream of bytes, base64 encoded
@@ -582,17 +582,18 @@
 user content</t>
   </si>
   <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>無視できない拡張機能 / Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>リソースの基本的な定義の一部ではなく、それを含む要素の理解および/または含有要素の子孫の理解を変更するために使用される場合があります。通常、修飾子要素は否定または資格を提供します。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義することが許可されていますが、拡張機能の定義の一部として満たされる一連の要件があります。アプリケーションの処理リソースは、修飾子拡張機能をチェックする必要があります。
+モディファイア拡張は、リソースまたはdomainResource上の要素の意味を変更してはなりません（修飾軸自体の意味を変更することはできません）。 / May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+    <t>拡張機能を使用または定義する機関や管轄権に関係なく、アプリケーション、プロジェクト、または標準による拡張機能の使用に関連するスティグマはありません。拡張機能の使用は、FHIR仕様がすべての人にコアレベルのシンプルさを保持できるようにするものです。 / There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>修飾子拡張機能により、安全に無視できる大部分の拡張機能と明確に区別できるように、安全に無視できない拡張機能が可能になります。これにより、実装者が拡張の存在を禁止する必要性を排除することにより、相互運用性が促進されます。詳細については、[修飾子拡張の定義]（拡張性.html＃modifierextension）を参照してください。 / Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -641,7 +642,7 @@
     <t>Coverage.status</t>
   </si>
   <si>
-    <t>active | cancelled | draft | entered-in-error</t>
+    <t>アクティブ|キャンセル|ドラフト|エラーに入った / active | cancelled | draft | entered-in-error</t>
   </si>
   <si>
     <t>The status of the resource instance.
@@ -659,7 +660,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>A code specifying the state of the resource instance.</t>
+    <t>リソースインスタンスの状態を指定するコード。 / A code specifying the state of the resource instance.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/fm-status|4.0.1</t>
@@ -698,7 +699,7 @@
 カバレッジの適用順序は、カバレッジのタイプによって異なる。</t>
   </si>
   <si>
-    <t>The type of insurance: public health, worker compensation; private accident, auto, private health, etc.) or a direct payment by an individual or organization.</t>
+    <t>保険の種類：公衆衛生、労働者補償。個人的な事故、自動車、民間の健康など）または個人または組織による直接支払い。 / The type of insurance: public health, worker compensation; private accident, auto, private health, etc.) or a direct payment by an individual or organization.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/coverage-type</t>
@@ -791,7 +792,7 @@
 </t>
   </si>
   <si>
-    <t>Plan beneficiary</t>
+    <t>受益者を計画します / Plan beneficiary</t>
   </si>
   <si>
     <t>The party who benefits from the insurance coverage; the patient when products and/or services are provided.
@@ -814,7 +815,7 @@
     <t>Coverage.dependent</t>
   </si>
   <si>
-    <t>Dependent number</t>
+    <t>従属番号 / Dependent number</t>
   </si>
   <si>
     <t>A unique identifier for a dependent under the coverage.
@@ -863,7 +864,7 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>The relationship between the Subscriber and the Beneficiary (insured/covered party/patient).</t>
+    <t>加入者と受益者（被保険者/対象当事者/患者）の関係。 / The relationship between the Subscriber and the Beneficiary (insured/covered party/patient).</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/subscriber-relationship</t>
@@ -879,7 +880,7 @@
 </t>
   </si>
   <si>
-    <t>Coverage start and end dates</t>
+    <t>カバレッジの開始日と終了日 / Coverage start and end dates</t>
   </si>
   <si>
     <t>Time period during which the coverage is in force. A missing start date indicates the start date isn't known, a missing end date means the coverage is continuing to be in force.
@@ -920,7 +921,7 @@
 </t>
   </si>
   <si>
-    <t>Issuer of the policy</t>
+    <t>ポリシーの発行者 / Issuer of the policy</t>
   </si>
   <si>
     <t>The program or plan underwriter or payor including both insurance and non-insurance agreements, such as patient-pay agreements.
@@ -957,7 +958,7 @@
 </t>
   </si>
   <si>
-    <t>Additional coverage classifications</t>
+    <t>追加のカバレッジ分類 / Additional coverage classifications</t>
   </si>
   <si>
     <t>A suite of underwriter specific classifiers.
@@ -978,10 +979,10 @@
     <t>Coverage.class.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>実装で定義された追加のコンテンツ / Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>要素の基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Coverage.class.modifierExtension</t>
@@ -991,10 +992,11 @@
 user contentmodifiers</t>
   </si>
   <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>認識されていなくても無視できない拡張機能 / Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>要素の基本的な定義の一部ではなく、それが含まれている要素の理解、および/または含まれる要素の子孫の理解を変更するために使用される場合があります。通常、修飾子要素は否定または資格を提供します。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。アプリケーションの処理リソースは、修飾子拡張機能をチェックする必要があります。
+モディファイア拡張は、リソースまたはdomainResource上の要素の意味を変更してはなりません（修飾軸自体の意味を変更することはできません）。 / May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
@@ -1004,7 +1006,7 @@
     <t>Coverage.class.type</t>
   </si>
   <si>
-    <t>Type of class such as 'group' or 'plan'</t>
+    <t>「グループ」や「計画」などのクラスのタイプ / Type of class such as 'group' or 'plan'</t>
   </si>
   <si>
     <t>The type of classification for which an insurer-specific class label or number and optional name is provided, for example may be used to identify a class of coverage or employer group, Policy, Plan.
@@ -1019,7 +1021,7 @@
 保険者が発行した特定の健康カード番号のラベル。</t>
   </si>
   <si>
-    <t>The policy classifications, eg. Group, Plan, Class, etc.</t>
+    <t>ポリシー分類、例。グループ、プラン、クラスなど / The policy classifications, eg. Group, Plan, Class, etc.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/coverage-class</t>
@@ -1028,7 +1030,7 @@
     <t>Coverage.class.value</t>
   </si>
   <si>
-    <t>Value associated with the type</t>
+    <t>タイプに関連付けられた値 / Value associated with the type</t>
   </si>
   <si>
     <t>The alphanumeric string value associated with the insurer issued label.
@@ -1055,7 +1057,7 @@
     <t>Coverage.class.name</t>
   </si>
   <si>
-    <t>Human readable description of the type and value</t>
+    <t>タイプと価値の人間の読み取り可能な説明 / Human readable description of the type and value</t>
   </si>
   <si>
     <t>A short description for the class.
@@ -1073,7 +1075,7 @@
 </t>
   </si>
   <si>
-    <t>Relative order of the coverage</t>
+    <t>カバレッジの相対順序 / Relative order of the coverage</t>
   </si>
   <si>
     <t>The order of applicability of this coverage relative to other coverages which are currently in force. Note, there may be gaps in the numbering and this does not imply primary, secondary etc. as the specific positioning of coverages depends upon the episode of care.
@@ -1093,7 +1095,7 @@
     <t>Coverage.network</t>
   </si>
   <si>
-    <t>Insurer network</t>
+    <t>保険会社ネットワーク / Insurer network</t>
   </si>
   <si>
     <t>The insurer-specific identifier for the insurer-defined network of providers to which the beneficiary may seek treatment which will be covered at the 'in-network' rate, otherwise 'out of network' terms and conditions apply.
@@ -1143,7 +1145,7 @@
     <t>Coverage.costToBeneficiary.type</t>
   </si>
   <si>
-    <t>Cost category</t>
+    <t>コストカテゴリ / Cost category</t>
   </si>
   <si>
     <t>The category of patient centric costs associated with treatment.
@@ -1158,7 +1160,7 @@
 患者の金額に関連するカテゴリーを特定する必要がありました。</t>
   </si>
   <si>
-    <t>The types of services to which patient copayments are specified.</t>
+    <t>患者の自己負担が指定されているサービスの種類。 / The types of services to which patient copayments are specified.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/coverage-copay-type</t>
@@ -1177,16 +1179,16 @@
 </t>
   </si>
   <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+    <t>用語システムによって定義されたコード / Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>用語システムによって定義されたコードへの参照。 / A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>コードは、列挙されたCTなどの非常に正式な定義まで、列挙またはコードリストで非常にさりげなく定義される場合があります。詳細については、HL7 V3コアプリンシップを参照してください。コーディングの順序付けは未定義であり、意味を推測するために使用されません。一般に、せいぜい、コーディング値の1つのみがuserselected = trueとしてラベル付けされます。 / Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>コードシステム内の代替エンコーディング、および他のコードシステムへの翻訳が可能になります。 / Allows for alternative encodings within a code system, and translations to other code systems.</t>
   </si>
   <si>
     <t>CodeableConcept.coding</t>
@@ -1207,10 +1209,10 @@
     <t>Coverage.costToBeneficiary.type.coding.system</t>
   </si>
   <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+    <t>用語システムのアイデンティティ / Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>コード内のシンボルの意味を定義するコードシステムの識別。 / The identification of the code system that defines the meaning of the symbol in the code.</t>
   </si>
   <si>
     <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.
@@ -1218,7 +1220,7 @@
 "http://terminology.hl7.org/CodeSystem/coverage-copay-type"</t>
   </si>
   <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+    <t>シンボルの定義のソースについて明確である必要があります。 / Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
     <t>Coding.system</t>
@@ -1233,13 +1235,13 @@
     <t>Coverage.costToBeneficiary.type.coding.version</t>
   </si>
   <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+    <t>システムのバージョン - 関連する場合 / Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>このコードを選択するときに使用されたコードシステムのバージョン。コードの意味がバージョン全体で一貫しているため、適切にメンテナンスしたコードシステムでは報告されたバージョンを必要としないことに注意してください。ただし、これは一貫して保証することはできず、意味が一貫していることが保証されていない場合、バージョンを交換する必要があります。 / The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>用語がコードシステムバージョンを識別するために使用する文字列を明確に定義していない場合、推奨は、そのバージョンがバージョンの日付として公式に公開された日付（FHIR日付形式で表現）を使用することです。 / Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
   </si>
   <si>
     <t>Coding.version</t>
@@ -1254,17 +1256,17 @@
     <t>Coverage.costToBeneficiary.type.coding.code</t>
   </si>
   <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+    <t>システムによって定義された構文のシンボル / Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>システムによって定義された構文のシンボル。シンボルは、定義されたコードまたはコーディングシステムによって定義された構文の式（例：調整後）である場合があります。 / A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
   </si>
   <si>
     <t>Note that FHIR strings SHALL NOT exceed 1MB in size
 自己負担率を表すコード　"copaypct"</t>
   </si>
   <si>
-    <t>Need to refer to a particular code in the system.</t>
+    <t>システム内の特定のコードを参照する必要があります。 / Need to refer to a particular code in the system.</t>
   </si>
   <si>
     <t>Coding.code</t>
@@ -1279,13 +1281,13 @@
     <t>Coverage.costToBeneficiary.type.coding.display</t>
   </si>
   <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+    <t>システムによって定義された表現 / Representation defined by the system</t>
+  </si>
+  <si>
+    <t>システムのルールに従って、システム内のコードの意味の表現。 / A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>システムを知らない読者のために、コードの人間の読み取り可能な意味を持ち込むことができる必要があります。 / Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
   </si>
   <si>
     <t>Coding.display</t>
@@ -1304,16 +1306,16 @@
 </t>
   </si>
   <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+    <t>このコーディングがユーザーによって直接選択された場合 / If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>このコーディングがユーザーによって直接選択されたことを示します。利用可能なアイテムのピックリスト（コードまたはディスプレイ）。 / Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>一連の代替案の中で、直接選択されたコードが新しい翻訳の最も適切な出発点です。この要素の使用とその結果をより完全に明確にするためには、「直接選択された」ことについては曖昧さがあり、取引パートナー契約が必要になる場合があります。 / Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>これは、臨床安全基準として特定されています - この正確なシステム/コードペアは、いくつかのルールまたは言語処理に基づいてシステムによって推測されるのではなく、明示的に選択されたことです。 / This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
   </si>
   <si>
     <t>Coding.userSelected</t>
@@ -1328,16 +1330,16 @@
     <t>Coverage.costToBeneficiary.type.text</t>
   </si>
   <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+    <t>コンセプトの単純なテキスト表現 / Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>データを入力したユーザー、および/またはユーザーの意図された意味を表すユーザーによって見られる/選択/発言された概念の人間の言語表現。 / A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>多くの場合、テキストはコーディングの1つの表示名と同じです。 / Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>用語からのコードは、それらを使用する人間のすべてのニュアンスを使用して、常に正しい意味をキャプチャするとは限りません。または、適切なコードがまったくない場合があります。これらの場合、テキストはソースの完全な意味をキャプチャするために使用されます。 / The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
   </si>
   <si>
     <t>CodeableConcept.text</t>
@@ -1356,7 +1358,7 @@
 Money</t>
   </si>
   <si>
-    <t>The amount or percentage due from the beneficiary</t>
+    <t>受益者からの金額または割合 / The amount or percentage due from the beneficiary</t>
   </si>
   <si>
     <t>The amount due from the patient for the cost category.
@@ -1374,7 +1376,7 @@
     <t>Coverage.costToBeneficiary.exception</t>
   </si>
   <si>
-    <t>Exceptions for patient payments</t>
+    <t>患者の支払いの例外 / Exceptions for patient payments</t>
   </si>
   <si>
     <t>A suite of codes indicating exceptions or reductions to patient costs and their effective periods.
@@ -1397,7 +1399,7 @@
     <t>Coverage.costToBeneficiary.exception.type</t>
   </si>
   <si>
-    <t>Exception category</t>
+    <t>例外カテゴリ / Exception category</t>
   </si>
   <si>
     <t>The code for the specific exception.
@@ -1411,7 +1413,7 @@
     <t>example</t>
   </si>
   <si>
-    <t>The types of exceptions from the part or full value of financial obligations such as copays.</t>
+    <t>部品からの例外の種類またはCopaysなどの財務義務の完全な価値。 / The types of exceptions from the part or full value of financial obligations such as copays.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/coverage-financial-exception</t>
@@ -1420,7 +1422,7 @@
     <t>Coverage.costToBeneficiary.exception.period</t>
   </si>
   <si>
-    <t>The effective period of the exception</t>
+    <t>例外の有効期間 / The effective period of the exception</t>
   </si>
   <si>
     <t>The timeframe during when the exception is in force.
@@ -1810,7 +1812,7 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="144.8984375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="207.19140625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="52.84375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-coverage.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-coverage.xlsx
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>JP</t>
+    <t>Japan</t>
   </si>
   <si>
     <t>Description</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-coverage.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-coverage.xlsx
@@ -269,8 +269,8 @@
 Coverageには、保険証レベルの情報が含まれている。これは、保険金請求やプロバイダーと保険会社間のその他の通信で提供するのが通例である。</t>
   </si>
   <si>
-    <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -289,13 +289,13 @@
 </t>
   </si>
   <si>
-    <t>このアーティファクトの論理ID / Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>リソースのURLで使用されるリソースの論理ID。割り当てられたら、この値は変更されません。 / The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>リソースにIDがないのは、IDが作成操作を使用してサーバーに送信されている場合です。 / The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -308,16 +308,16 @@
 </t>
   </si>
   <si>
-    <t>リソースに関するメタデータ / Metadata about the resource</t>
-  </si>
-  <si>
-    <t>リソースに関するメタデータ。これは、インフラストラクチャによって維持されるコンテンツです。コンテンツの変更は、常にリソースのバージョンの変更に関連付けられているとは限りません。 / The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
   </si>
   <si>
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
@@ -328,13 +328,13 @@
 </t>
   </si>
   <si>
-    <t>このコンテンツが作成されたルールのセット / A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>リソースが構築されたときに従った一連のルールへの参照。コンテンツの処理時に理解する必要があります。多くの場合、これは他のプロファイルなどとともに特別なルールを定義する実装ガイドへの参照です。 / A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>このルールセットを主張することは、コンテンツが限られた取引パートナーのセットによってのみ理解されることを制限します。これにより、本質的に長期的にデータの有用性が制限されます。ただし、既存の健康エコシステムは非常に破壊されており、一般的に計算可能な意味でデータを定義、収集、交換する準備ができていません。可能な限り、実装者や仕様ライターはこの要素の使用を避ける必要があります。多くの場合、使用する場合、URLは、これらの特別なルールを他のプロファイル、バリューセットなどとともに叙述(Narative)の一部として定義する実装ガイドへの参照です。 / Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
   </si>
   <si>
     <t>Resource.implicitRules</t>
@@ -347,19 +347,19 @@
 </t>
   </si>
   <si>
-    <t>リソースコンテンツの言語 / Language of the resource content</t>
-  </si>
-  <si>
-    <t>リソースが書かれている基本言語。 / The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>言語は、インデックス作成とアクセシビリティをサポートするために提供されます（通常、テキストから音声までのサービスなどのサービスが言語タグを使用します）。叙述(Narative)のHTML言語タグは、叙述(Narative)に適用されます。リソース上の言語タグを使用して、リソース内のデータから生成された他のプレゼンテーションの言語を指定できます。すべてのコンテンツが基本言語である必要はありません。リソース。言語は、叙述(Narative)に自動的に適用されると想定されるべきではありません。言語が指定されている場合、HTMLのDIV要素にも指定されている場合（XML：LangとHTML Lang属性の関係については、HTML5のルールを参照してください）。 / Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
   </si>
   <si>
     <t>preferred</t>
   </si>
   <si>
-    <t>人間の言語。 / A human language.</t>
+    <t>A human language.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -379,13 +379,13 @@
 </t>
   </si>
   <si>
-    <t>人間の解釈のためのリソースのテキスト概要 / Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>リソースの概要を含み、人間へのリソースの内容を表すために使用できる人間の読み取り可能な叙述(Narative)。叙述(Narative)はすべての構造化されたデータをエンコードする必要はありませんが、人間が叙述(Narative)を読むだけで「臨床的に安全」にするために十分な詳細を含める必要があります。リソースの定義は、臨床的安全を確保するために、叙述(Narative)で表現するコンテンツを定義する場合があります。 / A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>含まれるリソースには叙述(Narative)がありません。含まれていないリソースには叙述(Narative)が必要です。場合によっては、リソースには、追加の個別のデータがほとんどまたはまったくないテキストのみがあります（すべてのMinoccur = 1要素が満たされている限り）。これは、情報がtext blob (バイナリー ラージ オブジェクト)としてキャプチャされるレガシーシステムからのデータ、またはテキストが生またはナレーションされ、エンコードされた情報が後で追加される場合に必要になる場合があります。 / Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
   </si>
   <si>
     <t>DomainResource.text</t>
@@ -405,13 +405,13 @@
 </t>
   </si>
   <si>
-    <t>インラインリソースが含まれています / Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>これらのリソースには、それらを含むリソースを除いて独立した存在はありません - 独立して特定することはできず、独自の独立したトランザクションスコープを持つこともできません。 / These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>識別が失われると、コンテンツを適切に識別できる場合は、これを行うべきではありません。含まれるリソースには、メタ要素にプロファイルとタグがある場合がありますが、セキュリティラベルはありません。 / This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
@@ -443,8 +443,8 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
-    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:両方ではなく、拡張または値[x]が必要です / Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>insuredPersonSymbol</t>
@@ -471,10 +471,10 @@
     <t>Coverage.extension.id</t>
   </si>
   <si>
-    <t>要素間参照のための一意のID / Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>リソース内の要素の一意のID（内部参照用）。これは、スペースを含まない文字列値である場合があります。 / Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
     <t>Element.id</t>
@@ -495,13 +495,13 @@
     <t>Coverage.extension.url</t>
   </si>
   <si>
-    <t>拡張機能の意味を識別します / identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>拡張コードの定義のソース - 論理名またはURL。 / Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>定義は、拡張性コードの計算可能または人間が読み取る可能性のある定義を直接指している場合があります。または、他の仕様で宣言されているように、論理的なURIである場合があります。定義は、拡張機能を定義する構造定義のURIでなければなりません。 / The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_Coverage_InsuredPersonSymbol</t>
@@ -513,10 +513,10 @@
     <t>Coverage.extension.value[x]</t>
   </si>
   <si>
-    <t>拡張値の値 / Value of extension</t>
-  </si>
-  <si>
-    <t>拡張値の値 - データ型の制約付きセットの1つでなければなりません（リストの[拡張性]（拡張性]（拡張性。html）を参照）。 / Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
   </si>
   <si>
     <t>A stream of bytes, base64 encoded
@@ -582,18 +582,17 @@
 user content</t>
   </si>
   <si>
-    <t>無視できない拡張機能 / Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>リソースの基本的な定義の一部ではなく、それを含む要素の理解および/または含有要素の子孫の理解を変更するために使用される場合があります。通常、修飾子要素は否定または資格を提供します。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義することが許可されていますが、拡張機能の定義の一部として満たされる一連の要件があります。アプリケーションの処理リソースは、修飾子拡張機能をチェックする必要があります。
-モディファイア拡張は、リソースまたはdomainResource上の要素の意味を変更してはなりません（修飾軸自体の意味を変更することはできません）。 / May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>拡張機能を使用または定義する機関や管轄権に関係なく、アプリケーション、プロジェクト、または標準による拡張機能の使用に関連するスティグマはありません。拡張機能の使用は、FHIR仕様がすべての人にコアレベルのシンプルさを保持できるようにするものです。 / There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>修飾子拡張機能により、安全に無視できる大部分の拡張機能と明確に区別できるように、安全に無視できない拡張機能が可能になります。これにより、実装者が拡張の存在を禁止する必要性を排除することにより、相互運用性が促進されます。詳細については、[修飾子拡張の定義]（拡張性.html＃modifierextension）を参照してください。 / Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -642,7 +641,7 @@
     <t>Coverage.status</t>
   </si>
   <si>
-    <t>アクティブ|キャンセル|ドラフト|エラーに入った / active | cancelled | draft | entered-in-error</t>
+    <t>active | cancelled | draft | entered-in-error</t>
   </si>
   <si>
     <t>The status of the resource instance.
@@ -660,7 +659,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>リソースインスタンスの状態を指定するコード。 / A code specifying the state of the resource instance.</t>
+    <t>A code specifying the state of the resource instance.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/fm-status|4.0.1</t>
@@ -699,7 +698,7 @@
 カバレッジの適用順序は、カバレッジのタイプによって異なる。</t>
   </si>
   <si>
-    <t>保険の種類：公衆衛生、労働者補償。個人的な事故、自動車、民間の健康など）または個人または組織による直接支払い。 / The type of insurance: public health, worker compensation; private accident, auto, private health, etc.) or a direct payment by an individual or organization.</t>
+    <t>The type of insurance: public health, worker compensation; private accident, auto, private health, etc.) or a direct payment by an individual or organization.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/coverage-type</t>
@@ -792,7 +791,7 @@
 </t>
   </si>
   <si>
-    <t>受益者を計画します / Plan beneficiary</t>
+    <t>Plan beneficiary</t>
   </si>
   <si>
     <t>The party who benefits from the insurance coverage; the patient when products and/or services are provided.
@@ -815,7 +814,7 @@
     <t>Coverage.dependent</t>
   </si>
   <si>
-    <t>従属番号 / Dependent number</t>
+    <t>Dependent number</t>
   </si>
   <si>
     <t>A unique identifier for a dependent under the coverage.
@@ -864,7 +863,7 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>加入者と受益者（被保険者/対象当事者/患者）の関係。 / The relationship between the Subscriber and the Beneficiary (insured/covered party/patient).</t>
+    <t>The relationship between the Subscriber and the Beneficiary (insured/covered party/patient).</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/subscriber-relationship</t>
@@ -880,7 +879,7 @@
 </t>
   </si>
   <si>
-    <t>カバレッジの開始日と終了日 / Coverage start and end dates</t>
+    <t>Coverage start and end dates</t>
   </si>
   <si>
     <t>Time period during which the coverage is in force. A missing start date indicates the start date isn't known, a missing end date means the coverage is continuing to be in force.
@@ -921,7 +920,7 @@
 </t>
   </si>
   <si>
-    <t>ポリシーの発行者 / Issuer of the policy</t>
+    <t>Issuer of the policy</t>
   </si>
   <si>
     <t>The program or plan underwriter or payor including both insurance and non-insurance agreements, such as patient-pay agreements.
@@ -958,7 +957,7 @@
 </t>
   </si>
   <si>
-    <t>追加のカバレッジ分類 / Additional coverage classifications</t>
+    <t>Additional coverage classifications</t>
   </si>
   <si>
     <t>A suite of underwriter specific classifiers.
@@ -979,10 +978,10 @@
     <t>Coverage.class.extension</t>
   </si>
   <si>
-    <t>実装で定義された追加のコンテンツ / Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>要素の基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Coverage.class.modifierExtension</t>
@@ -992,11 +991,10 @@
 user contentmodifiers</t>
   </si>
   <si>
-    <t>認識されていなくても無視できない拡張機能 / Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>要素の基本的な定義の一部ではなく、それが含まれている要素の理解、および/または含まれる要素の子孫の理解を変更するために使用される場合があります。通常、修飾子要素は否定または資格を提供します。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。アプリケーションの処理リソースは、修飾子拡張機能をチェックする必要があります。
-モディファイア拡張は、リソースまたはdomainResource上の要素の意味を変更してはなりません（修飾軸自体の意味を変更することはできません）。 / May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
@@ -1006,7 +1004,7 @@
     <t>Coverage.class.type</t>
   </si>
   <si>
-    <t>「グループ」や「計画」などのクラスのタイプ / Type of class such as 'group' or 'plan'</t>
+    <t>Type of class such as 'group' or 'plan'</t>
   </si>
   <si>
     <t>The type of classification for which an insurer-specific class label or number and optional name is provided, for example may be used to identify a class of coverage or employer group, Policy, Plan.
@@ -1021,7 +1019,7 @@
 保険者が発行した特定の健康カード番号のラベル。</t>
   </si>
   <si>
-    <t>ポリシー分類、例。グループ、プラン、クラスなど / The policy classifications, eg. Group, Plan, Class, etc.</t>
+    <t>The policy classifications, eg. Group, Plan, Class, etc.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/coverage-class</t>
@@ -1030,7 +1028,7 @@
     <t>Coverage.class.value</t>
   </si>
   <si>
-    <t>タイプに関連付けられた値 / Value associated with the type</t>
+    <t>Value associated with the type</t>
   </si>
   <si>
     <t>The alphanumeric string value associated with the insurer issued label.
@@ -1057,7 +1055,7 @@
     <t>Coverage.class.name</t>
   </si>
   <si>
-    <t>タイプと価値の人間の読み取り可能な説明 / Human readable description of the type and value</t>
+    <t>Human readable description of the type and value</t>
   </si>
   <si>
     <t>A short description for the class.
@@ -1075,7 +1073,7 @@
 </t>
   </si>
   <si>
-    <t>カバレッジの相対順序 / Relative order of the coverage</t>
+    <t>Relative order of the coverage</t>
   </si>
   <si>
     <t>The order of applicability of this coverage relative to other coverages which are currently in force. Note, there may be gaps in the numbering and this does not imply primary, secondary etc. as the specific positioning of coverages depends upon the episode of care.
@@ -1095,7 +1093,7 @@
     <t>Coverage.network</t>
   </si>
   <si>
-    <t>保険会社ネットワーク / Insurer network</t>
+    <t>Insurer network</t>
   </si>
   <si>
     <t>The insurer-specific identifier for the insurer-defined network of providers to which the beneficiary may seek treatment which will be covered at the 'in-network' rate, otherwise 'out of network' terms and conditions apply.
@@ -1145,7 +1143,7 @@
     <t>Coverage.costToBeneficiary.type</t>
   </si>
   <si>
-    <t>コストカテゴリ / Cost category</t>
+    <t>Cost category</t>
   </si>
   <si>
     <t>The category of patient centric costs associated with treatment.
@@ -1160,7 +1158,7 @@
 患者の金額に関連するカテゴリーを特定する必要がありました。</t>
   </si>
   <si>
-    <t>患者の自己負担が指定されているサービスの種類。 / The types of services to which patient copayments are specified.</t>
+    <t>The types of services to which patient copayments are specified.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/coverage-copay-type</t>
@@ -1179,16 +1177,16 @@
 </t>
   </si>
   <si>
-    <t>用語システムによって定義されたコード / Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>用語システムによって定義されたコードへの参照。 / A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>コードは、列挙されたCTなどの非常に正式な定義まで、列挙またはコードリストで非常にさりげなく定義される場合があります。詳細については、HL7 V3コアプリンシップを参照してください。コーディングの順序付けは未定義であり、意味を推測するために使用されません。一般に、せいぜい、コーディング値の1つのみがuserselected = trueとしてラベル付けされます。 / Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>コードシステム内の代替エンコーディング、および他のコードシステムへの翻訳が可能になります。 / Allows for alternative encodings within a code system, and translations to other code systems.</t>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
   </si>
   <si>
     <t>CodeableConcept.coding</t>
@@ -1209,10 +1207,10 @@
     <t>Coverage.costToBeneficiary.type.coding.system</t>
   </si>
   <si>
-    <t>用語システムのアイデンティティ / Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>コード内のシンボルの意味を定義するコードシステムの識別。 / The identification of the code system that defines the meaning of the symbol in the code.</t>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
   </si>
   <si>
     <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.
@@ -1220,7 +1218,7 @@
 "http://terminology.hl7.org/CodeSystem/coverage-copay-type"</t>
   </si>
   <si>
-    <t>シンボルの定義のソースについて明確である必要があります。 / Need to be unambiguous about the source of the definition of the symbol.</t>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
     <t>Coding.system</t>
@@ -1235,13 +1233,13 @@
     <t>Coverage.costToBeneficiary.type.coding.version</t>
   </si>
   <si>
-    <t>システムのバージョン - 関連する場合 / Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>このコードを選択するときに使用されたコードシステムのバージョン。コードの意味がバージョン全体で一貫しているため、適切にメンテナンスしたコードシステムでは報告されたバージョンを必要としないことに注意してください。ただし、これは一貫して保証することはできず、意味が一貫していることが保証されていない場合、バージョンを交換する必要があります。 / The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>用語がコードシステムバージョンを識別するために使用する文字列を明確に定義していない場合、推奨は、そのバージョンがバージョンの日付として公式に公開された日付（FHIR日付形式で表現）を使用することです。 / Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
   </si>
   <si>
     <t>Coding.version</t>
@@ -1256,17 +1254,17 @@
     <t>Coverage.costToBeneficiary.type.coding.code</t>
   </si>
   <si>
-    <t>システムによって定義された構文のシンボル / Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>システムによって定義された構文のシンボル。シンボルは、定義されたコードまたはコーディングシステムによって定義された構文の式（例：調整後）である場合があります。 / A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
   </si>
   <si>
     <t>Note that FHIR strings SHALL NOT exceed 1MB in size
 自己負担率を表すコード　"copaypct"</t>
   </si>
   <si>
-    <t>システム内の特定のコードを参照する必要があります。 / Need to refer to a particular code in the system.</t>
+    <t>Need to refer to a particular code in the system.</t>
   </si>
   <si>
     <t>Coding.code</t>
@@ -1281,13 +1279,13 @@
     <t>Coverage.costToBeneficiary.type.coding.display</t>
   </si>
   <si>
-    <t>システムによって定義された表現 / Representation defined by the system</t>
-  </si>
-  <si>
-    <t>システムのルールに従って、システム内のコードの意味の表現。 / A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>システムを知らない読者のために、コードの人間の読み取り可能な意味を持ち込むことができる必要があります。 / Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
   </si>
   <si>
     <t>Coding.display</t>
@@ -1306,16 +1304,16 @@
 </t>
   </si>
   <si>
-    <t>このコーディングがユーザーによって直接選択された場合 / If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>このコーディングがユーザーによって直接選択されたことを示します。利用可能なアイテムのピックリスト（コードまたはディスプレイ）。 / Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>一連の代替案の中で、直接選択されたコードが新しい翻訳の最も適切な出発点です。この要素の使用とその結果をより完全に明確にするためには、「直接選択された」ことについては曖昧さがあり、取引パートナー契約が必要になる場合があります。 / Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>これは、臨床安全基準として特定されています - この正確なシステム/コードペアは、いくつかのルールまたは言語処理に基づいてシステムによって推測されるのではなく、明示的に選択されたことです。 / This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
   </si>
   <si>
     <t>Coding.userSelected</t>
@@ -1330,16 +1328,16 @@
     <t>Coverage.costToBeneficiary.type.text</t>
   </si>
   <si>
-    <t>コンセプトの単純なテキスト表現 / Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>データを入力したユーザー、および/またはユーザーの意図された意味を表すユーザーによって見られる/選択/発言された概念の人間の言語表現。 / A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>多くの場合、テキストはコーディングの1つの表示名と同じです。 / Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>用語からのコードは、それらを使用する人間のすべてのニュアンスを使用して、常に正しい意味をキャプチャするとは限りません。または、適切なコードがまったくない場合があります。これらの場合、テキストはソースの完全な意味をキャプチャするために使用されます。 / The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
   </si>
   <si>
     <t>CodeableConcept.text</t>
@@ -1358,7 +1356,7 @@
 Money</t>
   </si>
   <si>
-    <t>受益者からの金額または割合 / The amount or percentage due from the beneficiary</t>
+    <t>The amount or percentage due from the beneficiary</t>
   </si>
   <si>
     <t>The amount due from the patient for the cost category.
@@ -1376,7 +1374,7 @@
     <t>Coverage.costToBeneficiary.exception</t>
   </si>
   <si>
-    <t>患者の支払いの例外 / Exceptions for patient payments</t>
+    <t>Exceptions for patient payments</t>
   </si>
   <si>
     <t>A suite of codes indicating exceptions or reductions to patient costs and their effective periods.
@@ -1399,7 +1397,7 @@
     <t>Coverage.costToBeneficiary.exception.type</t>
   </si>
   <si>
-    <t>例外カテゴリ / Exception category</t>
+    <t>Exception category</t>
   </si>
   <si>
     <t>The code for the specific exception.
@@ -1413,7 +1411,7 @@
     <t>example</t>
   </si>
   <si>
-    <t>部品からの例外の種類またはCopaysなどの財務義務の完全な価値。 / The types of exceptions from the part or full value of financial obligations such as copays.</t>
+    <t>The types of exceptions from the part or full value of financial obligations such as copays.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/coverage-financial-exception</t>
@@ -1422,7 +1420,7 @@
     <t>Coverage.costToBeneficiary.exception.period</t>
   </si>
   <si>
-    <t>例外の有効期間 / The effective period of the exception</t>
+    <t>The effective period of the exception</t>
   </si>
   <si>
     <t>The timeframe during when the exception is in force.
@@ -1812,7 +1810,7 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="207.19140625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="144.8984375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="52.84375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-coverage.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-coverage.xlsx
@@ -713,7 +713,7 @@
     <t>Coverage.policyHolder</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|RelatedPerson|Organization)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Patient|RelatedPerson|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Organization)
 </t>
   </si>
   <si>
@@ -747,7 +747,7 @@
     <t>Coverage.subscriber</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Patient|RelatedPerson)
 </t>
   </si>
   <si>
@@ -787,7 +787,7 @@
     <t>Coverage.beneficiary</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Patient)
 </t>
   </si>
   <si>
@@ -916,7 +916,7 @@
     <t>Coverage.payor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization|Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Organization|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Patient|RelatedPerson)
 </t>
   </si>
   <si>

--- a/jpcore-r4/develop/StructureDefinition-jp-coverage.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-coverage.xlsx
@@ -690,7 +690,7 @@
   <si>
     <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.
 すべてのターミノロジーの使用がこの一般的なパターンに適合するわけではない。場合によっては、モデルはCodeableConceptを使用せず、コーディングを直接使用して、テキスト、コーディング、翻訳、および要素間の関係とpre-coordinationとpost-coordinationの用語関係を管理するための独自の構造を提供する必要がある。
-【JP-CORE】
+【JP-Core仕様】
 厚労省保険局の電子処方等で使用される保険種別コード（system=”urn:oid:1.2.392.100495.20.2.61”）として、https://www.mhlw.go.jp/content/10800000/000342368.pdf　の別表１１が使用できる。</t>
   </si>
   <si>
@@ -762,9 +762,9 @@
 扶養家族の場合、自己または親である可能性がある。</t>
   </si>
   <si>
-    <t>This is the party who is entitled to the benfits under the policy.
+    <t>This is the party who is entitled to the benefits under the policy.
 これは、ポリシーに基づいて給付を受ける権利を有する当事者である。
-【JP-CORE】
+【JP-Core仕様】
 公費情報で本リソースを使用する場合には、この要素に公費受給者番号を設定する。</t>
   </si>
   <si>
@@ -778,7 +778,7 @@
 契約当事者に保険者が割り当てたID</t>
   </si>
   <si>
-    <t>The insurer requires this identifier on correspondance and claims (digital and otherwise).
+    <t>The insurer requires this identifier on correspondence and claims (digital and otherwise).
 保険者は、連絡や請求（デジタルおよびその他）でこの識別子を要求する。
 保険会社は、通信および請求（デジタルおよびその他）でこの識別子を要求する。
 被保険者番号を全角で格納する</t>
@@ -800,7 +800,7 @@
   <si>
     <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
 参照は、実際のFHIRリソースへの参照である必要があり、解決可能（内容に到達可能）である必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。
-【JP_CORE】
+【JP-Core仕様】
 患者Patientリソースへの参照。</t>
   </si>
   <si>
@@ -828,7 +828,7 @@
     <t>For some coverages a single identifier is issued to the Subscriber and then a unique dependent number is issued to each beneficiary.
 一部の補償では、単一の識別子が加入者に発行され、次に一意の従属番号が各受益者に発行される。
 一部の保険では、単一の識別子が加入者に発行され、その後、各受益者に固有の扶養番号が発行される。
-【JP-CORE】
+【JP-Core仕様】
 医療保険で本リソースを使用する場合には、この要素に拡張 InsuredPersonSubNumberに設定した値と同じ、被保険者番号の枝番号2桁を設定する。</t>
   </si>
   <si>
@@ -854,7 +854,7 @@
   <si>
     <t>To determine relationship between the patient and the subscriber to determine coordination of benefits.
 患者と加入者の関係を決定し、給付の調整を決定する。
-【JP-CORE】
+【JP-Core仕様】
 厚労省保険局の電子処方等で使用される被保険者区分コード（system=”urn:oid:1.2.392.100495.20.2.62”）として、https://www.mhlw.go.jp/content/10800000/000342368.pdf　の別表１２が使用できる。
 1　被保険者
 2　被扶養者</t>
@@ -893,7 +893,7 @@
 This is not a duration - that's a measure of time (a separate type), but a duration that occurs at a fixed value of time. A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times"). If duration is required, specify the type as Interval|Duration.
 これはDuration（時間区間）ではない-　Durationは時間の尺度（別のタイプ）だが、時間の固定値で発生する時間区間である。Period（期間）は時間の範囲を指定する。使用状況は、範囲全体が適用されるか（たとえば、「患者はこの時間範囲で入院していた」）、範囲から1つの値が適用されるか（たとえば、「この2回の間に患者に投与する」）を指定する。もし、Duration（時間区間）が必要な場合は、タイプをInterval | Durationとして指定する。
 これは期間ではなく-これは時間の尺度（別のタイプ）あるが、時間の固定値で発生する期間である。期間は時間の範囲を指定する。使用状況は、範囲全体が適用されるか（たとえば、「患者はこの時間範囲で入院していた」）、または範囲から1つの値が適用されるか（たとえば、「これら2回の間に患者に与える」）を指定する。期間が必要な場合は、タイプをInterval | Durationとして指定する。
-【JP-CORE】
+【JP-Core仕様】
 医療保険、公費で本リソースを使用する場合には、保険証または公費の有効期間の開始日、終了日をstart とendに yyyy-mm-dd形式で設定する。</t>
   </si>
   <si>
@@ -934,7 +934,7 @@
   <si>
     <t>Need to identify the issuer to target for claim processing and for coordination of benefit processing.
 請求処理および給付処理の調整の対象となる発行者を特定する必要がある。
-【JP-CORE】
+【JP-Core仕様】
 医療保険で本リソースを使用する場合には、保険者組織Organizationリソースへの参照。自費の場合には、患者Patientリソースへの参照。公費の場合には、公費負担者組織Organizationリソースへの参照。</t>
   </si>
   <si>
@@ -1086,7 +1086,7 @@
   <si>
     <t>Used in managing the coordination of benefits.
 保険給付の調整管理に使用する。
-【JP-CORE】
+【JP-Core仕様】
 公費情報で本リソースを使用する場合で、複数の公費負担情報がある場合に、その適用順序番号を示す１，２，３．．．を設定する。</t>
   </si>
   <si>
@@ -1123,7 +1123,7 @@
   <si>
     <t>For example by knowing the patient visit co-pay, the provider can collect the amount prior to undertaking treatment.
 例えば、患者の訪問時の自己負担額を知ることで、医療提供者は治療を行う前にその金額を回収することができる。
-【JP-CORE】
+【JP-Core仕様】
 公費の場合には自己負担率。判明している場合のみ設定する。</t>
   </si>
   <si>

--- a/jpcore-r4/develop/StructureDefinition-jp-coverage.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-coverage.xlsx
@@ -798,7 +798,7 @@
 保険適用から利益を得る当事者、製品および／またはサービスが提供される際の患者。</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
 参照は、実際のFHIRリソースへの参照である必要があり、解決可能（内容に到達可能）である必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。
 【JP-Core仕様】
 患者Patientリソースへの参照。</t>
@@ -1463,7 +1463,7 @@
 この保険の適用範囲を構成するポリシー。</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
 参照は、実際のFHIRリソースへの参照である必要があり、解決可能（内容に到達可能）である必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。</t>
   </si>
   <si>

--- a/jpcore-r4/develop/StructureDefinition-jp-coverage.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-coverage.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2649" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2649" uniqueCount="437">
   <si>
     <t>Property</t>
   </si>
@@ -690,8 +690,7 @@
   <si>
     <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.
 すべてのターミノロジーの使用がこの一般的なパターンに適合するわけではない。場合によっては、モデルはCodeableConceptを使用せず、コーディングを直接使用して、テキスト、コーディング、翻訳、および要素間の関係とpre-coordinationとpost-coordinationの用語関係を管理するための独自の構造を提供する必要がある。
-【JP-Core仕様】
-厚労省保険局の電子処方等で使用される保険種別コード（system=”urn:oid:1.2.392.100495.20.2.61”）として、https://www.mhlw.go.jp/content/10800000/000342368.pdf　の別表１１が使用できる。</t>
+【JP-Core仕様】厚労省保険局の電子処方等で使用される保険種別コード（system=”urn:oid:1.2.392.100495.20.2.61”）として、https://www.mhlw.go.jp/content/10800000/000342368.pdf　の別表１１が使用できる。</t>
   </si>
   <si>
     <t>The order of application of coverages is dependent on the types of coverage.
@@ -764,8 +763,7 @@
   <si>
     <t>This is the party who is entitled to the benefits under the policy.
 これは、ポリシーに基づいて給付を受ける権利を有する当事者である。
-【JP-Core仕様】
-公費情報で本リソースを使用する場合には、この要素に公費受給者番号を設定する。</t>
+【JP-Core仕様】公費情報で本リソースを使用する場合には、この要素に公費受給者番号を設定する。</t>
   </si>
   <si>
     <t>Coverage.subscriberId</t>
@@ -800,8 +798,7 @@
   <si>
     <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
 参照は、実際のFHIRリソースへの参照である必要があり、解決可能（内容に到達可能）である必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。
-【JP-Core仕様】
-患者Patientリソースへの参照。</t>
+【JP-Core仕様】患者Patientリソースへの参照。</t>
   </si>
   <si>
     <t>This is the party who receives treatment for which the costs are reimbursed under the coverage.
@@ -828,8 +825,7 @@
     <t>For some coverages a single identifier is issued to the Subscriber and then a unique dependent number is issued to each beneficiary.
 一部の補償では、単一の識別子が加入者に発行され、次に一意の従属番号が各受益者に発行される。
 一部の保険では、単一の識別子が加入者に発行され、その後、各受益者に固有の扶養番号が発行される。
-【JP-Core仕様】
-医療保険で本リソースを使用する場合には、この要素に拡張 InsuredPersonSubNumberに設定した値と同じ、被保険者番号の枝番号2桁を設定する。</t>
+【JP-Core仕様】医療保険で本リソースを使用する場合には、この要素に拡張 InsuredPersonSubNumberに設定した値と同じ、被保険者番号の枝番号2桁を設定する。</t>
   </si>
   <si>
     <t>C17</t>
@@ -854,8 +850,7 @@
   <si>
     <t>To determine relationship between the patient and the subscriber to determine coordination of benefits.
 患者と加入者の関係を決定し、給付の調整を決定する。
-【JP-Core仕様】
-厚労省保険局の電子処方等で使用される被保険者区分コード（system=”urn:oid:1.2.392.100495.20.2.62”）として、https://www.mhlw.go.jp/content/10800000/000342368.pdf　の別表１２が使用できる。
+【JP-Core仕様】厚労省保険局の電子処方等で使用される被保険者区分コード（system=”urn:oid:1.2.392.100495.20.2.62”）として、https://www.mhlw.go.jp/content/10800000/000342368.pdf　の別表１２が使用できる。
 1　被保険者
 2　被扶養者</t>
   </si>
@@ -893,8 +888,7 @@
 This is not a duration - that's a measure of time (a separate type), but a duration that occurs at a fixed value of time. A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times"). If duration is required, specify the type as Interval|Duration.
 これはDuration（時間区間）ではない-　Durationは時間の尺度（別のタイプ）だが、時間の固定値で発生する時間区間である。Period（期間）は時間の範囲を指定する。使用状況は、範囲全体が適用されるか（たとえば、「患者はこの時間範囲で入院していた」）、範囲から1つの値が適用されるか（たとえば、「この2回の間に患者に投与する」）を指定する。もし、Duration（時間区間）が必要な場合は、タイプをInterval | Durationとして指定する。
 これは期間ではなく-これは時間の尺度（別のタイプ）あるが、時間の固定値で発生する期間である。期間は時間の範囲を指定する。使用状況は、範囲全体が適用されるか（たとえば、「患者はこの時間範囲で入院していた」）、または範囲から1つの値が適用されるか（たとえば、「これら2回の間に患者に与える」）を指定する。期間が必要な場合は、タイプをInterval | Durationとして指定する。
-【JP-Core仕様】
-医療保険、公費で本リソースを使用する場合には、保険証または公費の有効期間の開始日、終了日をstart とendに yyyy-mm-dd形式で設定する。</t>
+【JP-Core仕様】医療保険、公費で本リソースを使用する場合には、保険証または公費の有効期間の開始日、終了日をstart とendに yyyy-mm-dd形式で設定する。</t>
   </si>
   <si>
     <t>Some insurers require the submission of the coverage term.
@@ -934,8 +928,7 @@
   <si>
     <t>Need to identify the issuer to target for claim processing and for coordination of benefit processing.
 請求処理および給付処理の調整の対象となる発行者を特定する必要がある。
-【JP-Core仕様】
-医療保険で本リソースを使用する場合には、保険者組織Organizationリソースへの参照。自費の場合には、患者Patientリソースへの参照。公費の場合には、公費負担者組織Organizationリソースへの参照。</t>
+【JP-Core仕様】医療保険で本リソースを使用する場合には、保険者組織Organizationリソースへの参照。自費の場合には、患者Patientリソースへの参照。公費の場合には、公費負担者組織Organizationリソースへの参照。</t>
   </si>
   <si>
     <t>FiveWs.author</t>
@@ -1086,8 +1079,7 @@
   <si>
     <t>Used in managing the coordination of benefits.
 保険給付の調整管理に使用する。
-【JP-Core仕様】
-公費情報で本リソースを使用する場合で、複数の公費負担情報がある場合に、その適用順序番号を示す１，２，３．．．を設定する。</t>
+【JP-Core仕様】公費情報で本リソースを使用する場合で、複数の公費負担情報がある場合に、その適用順序番号を示す１，２，３．．．を設定する。</t>
   </si>
   <si>
     <t>Coverage.network</t>
@@ -1123,8 +1115,7 @@
   <si>
     <t>For example by knowing the patient visit co-pay, the provider can collect the amount prior to undertaking treatment.
 例えば、患者の訪問時の自己負担額を知ることで、医療提供者は治療を行う前にその金額を回収することができる。
-【JP-Core仕様】
-公費の場合には自己負担率。判明している場合のみ設定する。</t>
+【JP-Core仕様】公費の場合には自己負担率。判明している場合のみ設定する。</t>
   </si>
   <si>
     <t>Required by providers to manage financial transaction with the patient.
@@ -1379,10 +1370,6 @@
   <si>
     <t>A suite of codes indicating exceptions or reductions to patient costs and their effective periods.
 患者費用の例外または削減を示すコードとその有効期間を示すコード群。</t>
-  </si>
-  <si>
-    <t>Required by providers to manage financial transaction with the patient.
-事業者が患者との金銭的な取引を管理するために必要となる。</t>
   </si>
   <si>
     <t>Coverage.costToBeneficiary.exception.id</t>
@@ -9157,7 +9144,7 @@
       </c>
       <c r="M63" s="2"/>
       <c r="N63" t="s" s="2">
-        <v>411</v>
+        <v>331</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>78</v>
@@ -9241,7 +9228,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9356,7 +9343,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9473,7 +9460,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9592,7 +9579,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9618,14 +9605,14 @@
         <v>209</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>78</v>
@@ -9650,14 +9637,14 @@
         <v>78</v>
       </c>
       <c r="W67" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="X67" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="X67" t="s" s="2">
+      <c r="Y67" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="Y67" t="s" s="2">
-        <v>421</v>
-      </c>
       <c r="Z67" t="s" s="2">
         <v>78</v>
       </c>
@@ -9674,7 +9661,7 @@
         <v>78</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>87</v>
@@ -9709,7 +9696,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9735,14 +9722,14 @@
         <v>262</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>424</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>78</v>
@@ -9791,7 +9778,7 @@
         <v>78</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>79</v>
@@ -9826,7 +9813,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9852,16 +9839,16 @@
         <v>386</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="M69" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="M69" t="s" s="2">
+      <c r="N69" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>430</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>78</v>
@@ -9910,7 +9897,7 @@
         <v>78</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>79</v>
@@ -9945,7 +9932,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9968,19 +9955,19 @@
         <v>78</v>
       </c>
       <c r="J70" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="K70" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="K70" t="s" s="2">
+      <c r="L70" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="M70" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>78</v>
@@ -10029,7 +10016,7 @@
         <v>78</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>79</v>
@@ -10056,7 +10043,7 @@
         <v>225</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>227</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-coverage.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-coverage.xlsx
@@ -757,7 +757,7 @@
 ポリシーにサインアップした、またはポリシーとの契約関係を「所有」している当事者、またはポリシーの利益が彼らまたはその家族に提供されることになっている当事者。</t>
   </si>
   <si>
-    <t>May be self or a parent in the case of dependants.
+    <t>May be self or a parent in the case of dependents.
 扶養家族の場合、自己または親である可能性がある。</t>
   </si>
   <si>

--- a/jpcore-r4/develop/StructureDefinition-jp-coverage.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-coverage.xlsx
@@ -690,7 +690,7 @@
   <si>
     <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.
 すべてのターミノロジーの使用がこの一般的なパターンに適合するわけではない。場合によっては、モデルはCodeableConceptを使用せず、コーディングを直接使用して、テキスト、コーディング、翻訳、および要素間の関係とpre-coordinationとpost-coordinationの用語関係を管理するための独自の構造を提供する必要がある。
-【JP-Core仕様】厚労省保険局の電子処方等で使用される保険種別コード（system=”urn:oid:1.2.392.100495.20.2.61”）として、https://www.mhlw.go.jp/content/10800000/000342368.pdf　の別表１１が使用できる。</t>
+【JP Core仕様】厚労省保険局の電子処方等で使用される保険種別コード（system=”urn:oid:1.2.392.100495.20.2.61”）として、https://www.mhlw.go.jp/content/10800000/000342368.pdf　の別表１１が使用できる。</t>
   </si>
   <si>
     <t>The order of application of coverages is dependent on the types of coverage.
@@ -763,7 +763,7 @@
   <si>
     <t>This is the party who is entitled to the benefits under the policy.
 これは、ポリシーに基づいて給付を受ける権利を有する当事者である。
-【JP-Core仕様】公費情報で本リソースを使用する場合には、この要素に公費受給者番号を設定する。</t>
+【JP Core仕様】公費情報で本リソースを使用する場合には、この要素に公費受給者番号を設定する。</t>
   </si>
   <si>
     <t>Coverage.subscriberId</t>
@@ -798,7 +798,7 @@
   <si>
     <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
 参照は、実際のFHIRリソースへの参照である必要があり、解決可能（内容に到達可能）である必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。
-【JP-Core仕様】患者Patientリソースへの参照。</t>
+【JP Core仕様】患者Patientリソースへの参照。</t>
   </si>
   <si>
     <t>This is the party who receives treatment for which the costs are reimbursed under the coverage.
@@ -825,7 +825,7 @@
     <t>For some coverages a single identifier is issued to the Subscriber and then a unique dependent number is issued to each beneficiary.
 一部の補償では、単一の識別子が加入者に発行され、次に一意の従属番号が各受益者に発行される。
 一部の保険では、単一の識別子が加入者に発行され、その後、各受益者に固有の扶養番号が発行される。
-【JP-Core仕様】医療保険で本リソースを使用する場合には、この要素に拡張 InsuredPersonSubNumberに設定した値と同じ、被保険者番号の枝番号2桁を設定する。</t>
+【JP Core仕様】医療保険で本リソースを使用する場合には、この要素に拡張 InsuredPersonSubNumberに設定した値と同じ、被保険者番号の枝番号2桁を設定する。</t>
   </si>
   <si>
     <t>C17</t>
@@ -850,7 +850,7 @@
   <si>
     <t>To determine relationship between the patient and the subscriber to determine coordination of benefits.
 患者と加入者の関係を決定し、給付の調整を決定する。
-【JP-Core仕様】厚労省保険局の電子処方等で使用される被保険者区分コード（system=”urn:oid:1.2.392.100495.20.2.62”）として、https://www.mhlw.go.jp/content/10800000/000342368.pdf　の別表１２が使用できる。
+【JP Core仕様】厚労省保険局の電子処方等で使用される被保険者区分コード（system=”urn:oid:1.2.392.100495.20.2.62”）として、https://www.mhlw.go.jp/content/10800000/000342368.pdf　の別表１２が使用できる。
 1　被保険者
 2　被扶養者</t>
   </si>
@@ -888,7 +888,7 @@
 This is not a duration - that's a measure of time (a separate type), but a duration that occurs at a fixed value of time. A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times"). If duration is required, specify the type as Interval|Duration.
 これはDuration（時間区間）ではない-　Durationは時間の尺度（別のタイプ）だが、時間の固定値で発生する時間区間である。Period（期間）は時間の範囲を指定する。使用状況は、範囲全体が適用されるか（たとえば、「患者はこの時間範囲で入院していた」）、範囲から1つの値が適用されるか（たとえば、「この2回の間に患者に投与する」）を指定する。もし、Duration（時間区間）が必要な場合は、タイプをInterval | Durationとして指定する。
 これは期間ではなく-これは時間の尺度（別のタイプ）あるが、時間の固定値で発生する期間である。期間は時間の範囲を指定する。使用状況は、範囲全体が適用されるか（たとえば、「患者はこの時間範囲で入院していた」）、または範囲から1つの値が適用されるか（たとえば、「これら2回の間に患者に与える」）を指定する。期間が必要な場合は、タイプをInterval | Durationとして指定する。
-【JP-Core仕様】医療保険、公費で本リソースを使用する場合には、保険証または公費の有効期間の開始日、終了日をstart とendに yyyy-mm-dd形式で設定する。</t>
+【JP Core仕様】医療保険、公費で本リソースを使用する場合には、保険証または公費の有効期間の開始日、終了日をstart とendに yyyy-mm-dd形式で設定する。</t>
   </si>
   <si>
     <t>Some insurers require the submission of the coverage term.
@@ -928,7 +928,7 @@
   <si>
     <t>Need to identify the issuer to target for claim processing and for coordination of benefit processing.
 請求処理および給付処理の調整の対象となる発行者を特定する必要がある。
-【JP-Core仕様】医療保険で本リソースを使用する場合には、保険者組織Organizationリソースへの参照。自費の場合には、患者Patientリソースへの参照。公費の場合には、公費負担者組織Organizationリソースへの参照。</t>
+【JP Core仕様】医療保険で本リソースを使用する場合には、保険者組織Organizationリソースへの参照。自費の場合には、患者Patientリソースへの参照。公費の場合には、公費負担者組織Organizationリソースへの参照。</t>
   </si>
   <si>
     <t>FiveWs.author</t>
@@ -1079,7 +1079,7 @@
   <si>
     <t>Used in managing the coordination of benefits.
 保険給付の調整管理に使用する。
-【JP-Core仕様】公費情報で本リソースを使用する場合で、複数の公費負担情報がある場合に、その適用順序番号を示す１，２，３．．．を設定する。</t>
+【JP Core仕様】公費情報で本リソースを使用する場合で、複数の公費負担情報がある場合に、その適用順序番号を示す１，２，３．．．を設定する。</t>
   </si>
   <si>
     <t>Coverage.network</t>
@@ -1115,7 +1115,7 @@
   <si>
     <t>For example by knowing the patient visit co-pay, the provider can collect the amount prior to undertaking treatment.
 例えば、患者の訪問時の自己負担額を知ることで、医療提供者は治療を行う前にその金額を回収することができる。
-【JP-Core仕様】公費の場合には自己負担率。判明している場合のみ設定する。</t>
+【JP Core仕様】公費の場合には自己負担率。判明している場合のみ設定する。</t>
   </si>
   <si>
     <t>Required by providers to manage financial transaction with the patient.

--- a/jpcore-r4/develop/StructureDefinition-jp-coverage.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-coverage.xlsx
@@ -612,8 +612,8 @@
 このカバレッジに割り当てられた一意の識別子。</t>
   </si>
   <si>
-    <t>The main (and possibly only) identifier for the coverage - often referred to as a Member Id, Certificate number, Personal Health Number or Case ID. May be constructed as the concatenation of the Coverage.SubscriberID and the Coverage.dependant.
-カバレッジのメイン（および場合によっては唯一の）識別子-多くの場合、メンバーID、証明書番号、個人の健康番号、またはケースIDと呼ばれる。 Coverage.SubscriberIDとCoverage.dependantの連結として構築できる。</t>
+    <t>The main (and possibly only) identifier for the coverage - often referred to as a Member Id, Certificate number, Personal Health Number or Case ID. May be constructed as the concatenation of the Coverage.SubscriberID and the Coverage.dependent.
+カバレッジのメイン（および場合によっては唯一の）識別子-多くの場合、メンバーID、証明書番号、個人の健康番号、またはケースIDと呼ばれる。 Coverage.SubscriberIDとCoverage.dependentの連結として構築できる。</t>
   </si>
   <si>
     <t>Allows coverages to be distinguished and referenced.
@@ -818,7 +818,7 @@
 補償対象の被扶養者の一意の識別子。</t>
   </si>
   <si>
-    <t>Periodically the member number is constructed from the subscriberId and the dependant number.
+    <t>Periodically the member number is constructed from the subscriberId and the dependent number.
 定期的に subscriberId と従属番号からメンバー番号を構築する。</t>
   </si>
   <si>

--- a/jpcore-r4/develop/StructureDefinition-jp-coverage.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-coverage.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2649" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2649" uniqueCount="438">
   <si>
     <t>Property</t>
   </si>
@@ -285,190 +285,194 @@
     <t>Y</t>
   </si>
   <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>Coverage.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>Coverage.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>Coverage.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>Coverage.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Coverage.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Coverage.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>insuredPersonSymbol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_Coverage_InsuredPersonSymbol}
+</t>
+  </si>
+  <si>
+    <t>健康保険における被保険者証記号</t>
+  </si>
+  <si>
+    <t>健康保険における被保険者証記号を示す拡張</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.
+健康保険における被保険者証記号を示す拡張</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>Coverage.extension.id</t>
+  </si>
+  <si>
     <t xml:space="preserve">string
 </t>
-  </si>
-  <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>Coverage.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
-</t>
-  </si>
-  <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>Coverage.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>Coverage.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>Coverage.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Coverage.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Coverage.extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>insuredPersonSymbol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_Coverage_InsuredPersonSymbol}
-</t>
-  </si>
-  <si>
-    <t>健康保険における被保険者証記号</t>
-  </si>
-  <si>
-    <t>健康保険における被保険者証記号を示す拡張</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.
-健康保険における被保険者証記号を示す拡張</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>Coverage.extension.id</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -3016,13 +3020,13 @@
         <v>78</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>89</v>
+        <v>146</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -3073,7 +3077,7 @@
         <v>78</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>79</v>
@@ -3091,7 +3095,7 @@
         <v>78</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>78</v>
@@ -3108,7 +3112,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3179,7 +3183,7 @@
         <v>135</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AC12" t="s" s="2">
         <v>78</v>
@@ -3188,7 +3192,7 @@
         <v>136</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>79</v>
@@ -3223,7 +3227,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3249,13 +3253,13 @@
         <v>101</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3263,7 +3267,7 @@
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="R13" t="s" s="2">
         <v>78</v>
@@ -3305,7 +3309,7 @@
         <v>78</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>87</v>
@@ -3340,7 +3344,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3363,16 +3367,16 @@
         <v>78</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>89</v>
+        <v>146</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3422,7 +3426,7 @@
         <v>78</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>79</v>
@@ -3460,7 +3464,7 @@
         <v>131</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>78</v>
@@ -3482,16 +3486,16 @@
         <v>78</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3599,13 +3603,13 @@
         <v>78</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>89</v>
+        <v>146</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -3656,7 +3660,7 @@
         <v>78</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>79</v>
@@ -3674,7 +3678,7 @@
         <v>78</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>78</v>
@@ -3691,7 +3695,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3762,7 +3766,7 @@
         <v>135</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AC17" t="s" s="2">
         <v>78</v>
@@ -3771,7 +3775,7 @@
         <v>136</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>79</v>
@@ -3806,7 +3810,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3832,13 +3836,13 @@
         <v>101</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3846,7 +3850,7 @@
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="R18" t="s" s="2">
         <v>78</v>
@@ -3888,7 +3892,7 @@
         <v>78</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>87</v>
@@ -3923,7 +3927,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3946,16 +3950,16 @@
         <v>78</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>89</v>
+        <v>146</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -4005,7 +4009,7 @@
         <v>78</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>79</v>
@@ -4043,7 +4047,7 @@
         <v>131</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>78</v>
@@ -4065,16 +4069,16 @@
         <v>78</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -4182,13 +4186,13 @@
         <v>78</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>89</v>
+        <v>146</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -4239,7 +4243,7 @@
         <v>78</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>79</v>
@@ -4257,7 +4261,7 @@
         <v>78</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>78</v>
@@ -4274,7 +4278,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4345,7 +4349,7 @@
         <v>135</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AC22" t="s" s="2">
         <v>78</v>
@@ -4354,7 +4358,7 @@
         <v>136</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>79</v>
@@ -4389,7 +4393,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4415,13 +4419,13 @@
         <v>101</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4429,7 +4433,7 @@
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="R23" t="s" s="2">
         <v>78</v>
@@ -4471,7 +4475,7 @@
         <v>78</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>87</v>
@@ -4506,7 +4510,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4529,16 +4533,16 @@
         <v>78</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>89</v>
+        <v>146</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4588,7 +4592,7 @@
         <v>78</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>79</v>
@@ -4623,11 +4627,11 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4649,16 +4653,16 @@
         <v>132</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>78</v>
@@ -4707,7 +4711,7 @@
         <v>78</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>79</v>
@@ -4742,7 +4746,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4765,19 +4769,19 @@
         <v>88</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>78</v>
@@ -4826,7 +4830,7 @@
         <v>78</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>79</v>
@@ -4841,27 +4845,27 @@
         <v>99</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4887,16 +4891,16 @@
         <v>107</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>78</v>
@@ -4921,13 +4925,13 @@
         <v>78</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>78</v>
@@ -4945,7 +4949,7 @@
         <v>78</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>87</v>
@@ -4960,13 +4964,13 @@
         <v>99</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>78</v>
@@ -4980,7 +4984,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5003,19 +5007,19 @@
         <v>88</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>78</v>
@@ -5043,10 +5047,10 @@
         <v>111</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>78</v>
@@ -5064,7 +5068,7 @@
         <v>78</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>79</v>
@@ -5085,13 +5089,13 @@
         <v>78</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>78</v>
@@ -5099,7 +5103,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5122,19 +5126,19 @@
         <v>88</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>78</v>
@@ -5183,7 +5187,7 @@
         <v>78</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>79</v>
@@ -5204,21 +5208,21 @@
         <v>78</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5241,19 +5245,19 @@
         <v>88</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>78</v>
@@ -5302,7 +5306,7 @@
         <v>78</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>79</v>
@@ -5323,21 +5327,21 @@
         <v>78</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5360,17 +5364,17 @@
         <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>89</v>
+        <v>146</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>78</v>
@@ -5419,7 +5423,7 @@
         <v>78</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>79</v>
@@ -5440,21 +5444,21 @@
         <v>78</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5477,19 +5481,19 @@
         <v>88</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>78</v>
@@ -5538,7 +5542,7 @@
         <v>78</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>87</v>
@@ -5553,27 +5557,27 @@
         <v>99</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5596,19 +5600,19 @@
         <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>89</v>
+        <v>146</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>78</v>
@@ -5657,7 +5661,7 @@
         <v>78</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>79</v>
@@ -5681,10 +5685,10 @@
         <v>78</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>78</v>
@@ -5692,7 +5696,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5715,19 +5719,19 @@
         <v>78</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>78</v>
@@ -5752,13 +5756,13 @@
         <v>78</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>78</v>
@@ -5776,7 +5780,7 @@
         <v>78</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>79</v>
@@ -5800,7 +5804,7 @@
         <v>78</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>78</v>
@@ -5811,7 +5815,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5834,19 +5838,19 @@
         <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>78</v>
@@ -5895,7 +5899,7 @@
         <v>78</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>79</v>
@@ -5910,19 +5914,19 @@
         <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>78</v>
@@ -5930,7 +5934,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5953,19 +5957,19 @@
         <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>78</v>
@@ -6014,7 +6018,7 @@
         <v>78</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>87</v>
@@ -6035,21 +6039,21 @@
         <v>78</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6072,19 +6076,19 @@
         <v>78</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>78</v>
@@ -6133,7 +6137,7 @@
         <v>78</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>79</v>
@@ -6168,7 +6172,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6191,13 +6195,13 @@
         <v>78</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>89</v>
+        <v>146</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6248,7 +6252,7 @@
         <v>78</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>79</v>
@@ -6266,7 +6270,7 @@
         <v>78</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>78</v>
@@ -6283,11 +6287,11 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -6309,13 +6313,13 @@
         <v>132</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6365,7 +6369,7 @@
         <v>78</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>79</v>
@@ -6383,7 +6387,7 @@
         <v>78</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>78</v>
@@ -6400,11 +6404,11 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6426,16 +6430,16 @@
         <v>132</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>78</v>
@@ -6484,7 +6488,7 @@
         <v>78</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>79</v>
@@ -6519,7 +6523,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6542,19 +6546,19 @@
         <v>88</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>78</v>
@@ -6579,13 +6583,13 @@
         <v>78</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>78</v>
@@ -6603,7 +6607,7 @@
         <v>78</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>87</v>
@@ -6638,7 +6642,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6661,19 +6665,19 @@
         <v>88</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>89</v>
+        <v>146</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>78</v>
@@ -6722,7 +6726,7 @@
         <v>78</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>87</v>
@@ -6746,18 +6750,18 @@
         <v>78</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6780,17 +6784,17 @@
         <v>88</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>89</v>
+        <v>146</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>78</v>
@@ -6839,7 +6843,7 @@
         <v>78</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>79</v>
@@ -6863,18 +6867,18 @@
         <v>78</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6897,19 +6901,19 @@
         <v>88</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>78</v>
@@ -6958,7 +6962,7 @@
         <v>78</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>79</v>
@@ -6985,7 +6989,7 @@
         <v>78</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>78</v>
@@ -6993,7 +6997,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7016,17 +7020,17 @@
         <v>88</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>89</v>
+        <v>146</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>78</v>
@@ -7075,7 +7079,7 @@
         <v>78</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>79</v>
@@ -7099,7 +7103,7 @@
         <v>78</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>78</v>
@@ -7110,11 +7114,11 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -7133,19 +7137,19 @@
         <v>78</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>78</v>
@@ -7194,7 +7198,7 @@
         <v>78</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>79</v>
@@ -7229,7 +7233,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7252,13 +7256,13 @@
         <v>78</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>89</v>
+        <v>146</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7309,7 +7313,7 @@
         <v>78</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>79</v>
@@ -7327,7 +7331,7 @@
         <v>78</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>78</v>
@@ -7344,11 +7348,11 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7370,13 +7374,13 @@
         <v>132</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7426,7 +7430,7 @@
         <v>78</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>79</v>
@@ -7444,7 +7448,7 @@
         <v>78</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>78</v>
@@ -7461,11 +7465,11 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7487,16 +7491,16 @@
         <v>132</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>78</v>
@@ -7545,7 +7549,7 @@
         <v>78</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>79</v>
@@ -7580,7 +7584,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7603,19 +7607,19 @@
         <v>88</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>78</v>
@@ -7640,13 +7644,13 @@
         <v>78</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>78</v>
@@ -7664,7 +7668,7 @@
         <v>78</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>79</v>
@@ -7699,7 +7703,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7722,13 +7726,13 @@
         <v>78</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>89</v>
+        <v>146</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7779,7 +7783,7 @@
         <v>78</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>79</v>
@@ -7797,7 +7801,7 @@
         <v>78</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>78</v>
@@ -7814,11 +7818,11 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7840,13 +7844,13 @@
         <v>132</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7887,7 +7891,7 @@
         <v>135</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AC52" t="s" s="2">
         <v>78</v>
@@ -7896,7 +7900,7 @@
         <v>136</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>79</v>
@@ -7914,7 +7918,7 @@
         <v>78</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>78</v>
@@ -7931,7 +7935,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7954,19 +7958,19 @@
         <v>88</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>78</v>
@@ -8015,7 +8019,7 @@
         <v>78</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>79</v>
@@ -8033,7 +8037,7 @@
         <v>78</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>78</v>
@@ -8042,7 +8046,7 @@
         <v>78</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>78</v>
@@ -8050,7 +8054,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8073,13 +8077,13 @@
         <v>78</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>89</v>
+        <v>146</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -8130,7 +8134,7 @@
         <v>78</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>79</v>
@@ -8148,7 +8152,7 @@
         <v>78</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>78</v>
@@ -8165,11 +8169,11 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8191,13 +8195,13 @@
         <v>132</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8238,7 +8242,7 @@
         <v>135</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AC55" t="s" s="2">
         <v>78</v>
@@ -8247,7 +8251,7 @@
         <v>136</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>79</v>
@@ -8265,7 +8269,7 @@
         <v>78</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>78</v>
@@ -8282,7 +8286,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8308,16 +8312,16 @@
         <v>101</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>78</v>
@@ -8366,7 +8370,7 @@
         <v>78</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>79</v>
@@ -8384,7 +8388,7 @@
         <v>78</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>78</v>
@@ -8393,7 +8397,7 @@
         <v>78</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>78</v>
@@ -8401,7 +8405,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8424,16 +8428,16 @@
         <v>88</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>89</v>
+        <v>146</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8483,7 +8487,7 @@
         <v>78</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>79</v>
@@ -8501,7 +8505,7 @@
         <v>78</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>78</v>
@@ -8510,7 +8514,7 @@
         <v>78</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>78</v>
@@ -8518,7 +8522,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8544,16 +8548,16 @@
         <v>107</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>78</v>
@@ -8602,7 +8606,7 @@
         <v>78</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>79</v>
@@ -8620,7 +8624,7 @@
         <v>78</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>78</v>
@@ -8629,7 +8633,7 @@
         <v>78</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>78</v>
@@ -8637,7 +8641,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8660,17 +8664,17 @@
         <v>88</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>89</v>
+        <v>146</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>78</v>
@@ -8719,7 +8723,7 @@
         <v>78</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>79</v>
@@ -8737,7 +8741,7 @@
         <v>78</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>78</v>
@@ -8746,7 +8750,7 @@
         <v>78</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>78</v>
@@ -8754,7 +8758,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8777,19 +8781,19 @@
         <v>88</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>78</v>
@@ -8838,7 +8842,7 @@
         <v>78</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>79</v>
@@ -8856,7 +8860,7 @@
         <v>78</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>78</v>
@@ -8865,7 +8869,7 @@
         <v>78</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>78</v>
@@ -8873,7 +8877,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8896,19 +8900,19 @@
         <v>88</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>89</v>
+        <v>146</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>78</v>
@@ -8957,7 +8961,7 @@
         <v>78</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>79</v>
@@ -8975,7 +8979,7 @@
         <v>78</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>78</v>
@@ -8984,7 +8988,7 @@
         <v>78</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>78</v>
@@ -8992,7 +8996,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9015,19 +9019,19 @@
         <v>88</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>78</v>
@@ -9076,7 +9080,7 @@
         <v>78</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>87</v>
@@ -9100,18 +9104,18 @@
         <v>78</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9134,17 +9138,17 @@
         <v>78</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>78</v>
@@ -9193,7 +9197,7 @@
         <v>78</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>79</v>
@@ -9228,7 +9232,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9251,13 +9255,13 @@
         <v>78</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>89</v>
+        <v>146</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9308,7 +9312,7 @@
         <v>78</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>79</v>
@@ -9326,7 +9330,7 @@
         <v>78</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>78</v>
@@ -9343,11 +9347,11 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -9369,13 +9373,13 @@
         <v>132</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9425,7 +9429,7 @@
         <v>78</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>79</v>
@@ -9443,7 +9447,7 @@
         <v>78</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>78</v>
@@ -9460,11 +9464,11 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9486,16 +9490,16 @@
         <v>132</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>78</v>
@@ -9544,7 +9548,7 @@
         <v>78</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>79</v>
@@ -9579,7 +9583,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9602,17 +9606,17 @@
         <v>88</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>78</v>
@@ -9637,13 +9641,13 @@
         <v>78</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>78</v>
@@ -9661,7 +9665,7 @@
         <v>78</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>87</v>
@@ -9696,7 +9700,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9719,17 +9723,17 @@
         <v>88</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>78</v>
@@ -9778,7 +9782,7 @@
         <v>78</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>79</v>
@@ -9813,7 +9817,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9836,19 +9840,19 @@
         <v>78</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>78</v>
@@ -9897,7 +9901,7 @@
         <v>78</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>79</v>
@@ -9932,7 +9936,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9955,19 +9959,19 @@
         <v>78</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>78</v>
@@ -10016,7 +10020,7 @@
         <v>78</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>79</v>
@@ -10034,19 +10038,19 @@
         <v>78</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-coverage.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-coverage.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2649" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2211" uniqueCount="421">
   <si>
     <t>Property</t>
   </si>
@@ -460,76 +460,13 @@
     <t>健康保険における被保険者証記号を示す拡張</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.
-健康保険における被保険者証記号を示す拡張</t>
+    <t>健康保険における被保険者証記号を示す拡張。被保険者記号の文字列。</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
-    <t>Coverage.extension.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Coverage.extension.extension</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Coverage.extension.url</t>
-  </si>
-  <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_Coverage_InsuredPersonSymbol</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
-    <t>Coverage.extension.value[x]</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
-  </si>
-  <si>
-    <t>A stream of bytes, base64 encoded
-被保険者記号の文字列。</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
     <t>insuredPersonNumber</t>
   </si>
   <si>
@@ -543,15 +480,7 @@
     <t>健康保険における被保険者証番号を示す拡張</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.
-健康保険における被保険者証番号を示す拡張</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_Coverage_InsuredPersonNumber</t>
-  </si>
-  <si>
-    <t>A stream of bytes, base64 encoded
-被保険者番号</t>
+    <t>健康保険における被保険者証番号を示す拡張。被保険者記号の文字列。</t>
   </si>
   <si>
     <t>insuredPersonSubNumber</t>
@@ -567,16 +496,7 @@
     <t>健康保険における被保険者証番号の枝番を示す拡張</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.
-健康保険における被保険者証番号の枝番を示す拡張
-枝番号は2桁。</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_Coverage_InsuredPersonSubNumber</t>
-  </si>
-  <si>
-    <t>A stream of bytes, base64 encoded
-2桁の半角数字文字列。一桁の場合には先頭に０をつけて2桁にする。</t>
+    <t>健康保険における被保険者証番号を示す拡張。2桁の半角数字文字列。一桁の場合には先頭に０をつけて2桁にする。</t>
   </si>
   <si>
     <t>Coverage.modifierExtension</t>
@@ -766,11 +686,14 @@
   </si>
   <si>
     <t>This is the party who is entitled to the benefits under the policy.
-これは、ポリシーに基づいて給付を受ける権利を有する当事者である。
-【JP Core仕様】公費情報で本リソースを使用する場合には、この要素に公費受給者番号を設定する。</t>
+これは、ポリシーに基づいて給付を受ける権利を有する当事者である。</t>
   </si>
   <si>
     <t>Coverage.subscriberId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>ID assigned to the subscriber　契約当事者に割り当てられたID</t>
@@ -783,7 +706,7 @@
     <t>The insurer requires this identifier on correspondence and claims (digital and otherwise).
 保険者は、連絡や請求（デジタルおよびその他）でこの識別子を要求する。
 保険会社は、通信および請求（デジタルおよびその他）でこの識別子を要求する。
-被保険者番号を全角で格納する</t>
+【JP Core仕様】被保険者番号を全角で格納する</t>
   </si>
   <si>
     <t>Coverage.beneficiary</t>
@@ -972,6 +895,18 @@
     <t>Coverage.class.id</t>
   </si>
   <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>Coverage.class.extension</t>
   </si>
   <si>
@@ -979,6 +914,9 @@
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
   </si>
   <si>
     <t>Coverage.class.modifierExtension</t>
@@ -1163,6 +1101,9 @@
   </si>
   <si>
     <t>Coverage.costToBeneficiary.type.extension</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
     <t>Coverage.costToBeneficiary.type.coding</t>
@@ -1769,7 +1710,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO70"/>
+  <dimension ref="A1:AO58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2997,9 +2938,11 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
         <v>78</v>
       </c>
@@ -3008,7 +2951,7 @@
         <v>79</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>78</v>
@@ -3028,7 +2971,9 @@
       <c r="L11" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="M11" s="2"/>
+      <c r="M11" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>78</v>
@@ -3077,25 +3022,25 @@
         <v>78</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>78</v>
+        <v>144</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>150</v>
+        <v>78</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>78</v>
@@ -3112,9 +3057,11 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="B12" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="C12" t="s" s="2">
         <v>78</v>
       </c>
@@ -3123,7 +3070,7 @@
         <v>79</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>78</v>
@@ -3135,15 +3082,17 @@
         <v>78</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="M12" s="2"/>
+        <v>153</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>78</v>
@@ -3180,19 +3129,19 @@
         <v>78</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>152</v>
+        <v>78</v>
       </c>
       <c r="AC12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>79</v>
@@ -3201,7 +3150,7 @@
         <v>80</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>78</v>
+        <v>144</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>138</v>
@@ -3227,47 +3176,49 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N13" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="O13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>158</v>
+        <v>78</v>
       </c>
       <c r="R13" t="s" s="2">
         <v>78</v>
@@ -3309,19 +3260,19 @@
         <v>78</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>78</v>
@@ -3344,7 +3295,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3355,7 +3306,7 @@
         <v>79</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>78</v>
@@ -3364,21 +3315,23 @@
         <v>78</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N14" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="O14" t="s" s="2">
         <v>78</v>
       </c>
@@ -3426,13 +3379,13 @@
         <v>78</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>78</v>
@@ -3441,63 +3394,63 @@
         <v>99</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>78</v>
+        <v>168</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>130</v>
+        <v>169</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>78</v>
+        <v>170</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>78</v>
+        <v>171</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>78</v>
+        <v>172</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>78</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>165</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>166</v>
+        <v>107</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="N15" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="O15" t="s" s="2">
         <v>78</v>
       </c>
@@ -3521,13 +3474,13 @@
         <v>78</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>78</v>
+        <v>179</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>78</v>
+        <v>180</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>78</v>
+        <v>181</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>78</v>
@@ -3545,28 +3498,28 @@
         <v>78</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>137</v>
+        <v>174</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>144</v>
+        <v>78</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>78</v>
+        <v>182</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>78</v>
+        <v>183</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>78</v>
+        <v>184</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>78</v>
@@ -3580,7 +3533,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>145</v>
+        <v>185</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3600,19 +3553,23 @@
         <v>78</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>146</v>
+        <v>186</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>147</v>
+        <v>187</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="O16" t="s" s="2">
         <v>78</v>
       </c>
@@ -3636,13 +3593,13 @@
         <v>78</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>78</v>
+        <v>191</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>78</v>
+        <v>192</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>78</v>
@@ -3660,7 +3617,7 @@
         <v>78</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>149</v>
+        <v>185</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>79</v>
@@ -3672,22 +3629,22 @@
         <v>78</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>150</v>
+        <v>78</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>78</v>
+        <v>193</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>78</v>
+        <v>194</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>78</v>
@@ -3695,7 +3652,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>151</v>
+        <v>195</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3706,7 +3663,7 @@
         <v>79</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>78</v>
@@ -3715,19 +3672,23 @@
         <v>78</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>132</v>
+        <v>196</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>133</v>
+        <v>197</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>200</v>
+      </c>
       <c r="O17" t="s" s="2">
         <v>78</v>
       </c>
@@ -3763,31 +3724,31 @@
         <v>78</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>152</v>
+        <v>78</v>
       </c>
       <c r="AC17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>153</v>
+        <v>195</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>78</v>
@@ -3796,21 +3757,21 @@
         <v>78</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>78</v>
+        <v>201</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>78</v>
+        <v>202</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>78</v>
+        <v>203</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>78</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>154</v>
+        <v>205</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3818,7 +3779,7 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>87</v>
@@ -3830,27 +3791,29 @@
         <v>78</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>101</v>
+        <v>206</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>155</v>
+        <v>207</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>156</v>
+        <v>208</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>210</v>
+      </c>
       <c r="O18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>170</v>
+        <v>78</v>
       </c>
       <c r="R18" t="s" s="2">
         <v>78</v>
@@ -3892,10 +3855,10 @@
         <v>78</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>159</v>
+        <v>205</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>87</v>
@@ -3904,30 +3867,30 @@
         <v>78</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>78</v>
+        <v>201</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>78</v>
+        <v>202</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>78</v>
+        <v>203</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>78</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>160</v>
+        <v>211</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3947,21 +3910,21 @@
         <v>78</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>161</v>
+        <v>213</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="O19" t="s" s="2">
         <v>78</v>
       </c>
@@ -4009,7 +3972,7 @@
         <v>78</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>164</v>
+        <v>211</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>79</v>
@@ -4027,37 +3990,35 @@
         <v>78</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>78</v>
+        <v>201</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>78</v>
+        <v>202</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>78</v>
+        <v>203</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>78</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>172</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>78</v>
@@ -4066,21 +4027,23 @@
         <v>78</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>173</v>
+        <v>217</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>174</v>
+        <v>218</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>175</v>
+        <v>219</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="O20" t="s" s="2">
         <v>78</v>
       </c>
@@ -4128,42 +4091,42 @@
         <v>78</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>137</v>
+        <v>216</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>144</v>
+        <v>78</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>78</v>
+        <v>222</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>78</v>
+        <v>201</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>78</v>
+        <v>202</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>78</v>
+        <v>203</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>78</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>145</v>
+        <v>223</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4183,19 +4146,23 @@
         <v>78</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>147</v>
+        <v>224</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
+        <v>225</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="O21" t="s" s="2">
         <v>78</v>
       </c>
@@ -4243,7 +4210,7 @@
         <v>78</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>149</v>
+        <v>223</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>79</v>
@@ -4255,22 +4222,22 @@
         <v>78</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>150</v>
+        <v>78</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>78</v>
+        <v>228</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>78</v>
+        <v>229</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>78</v>
@@ -4278,7 +4245,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>151</v>
+        <v>230</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4289,7 +4256,7 @@
         <v>79</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>78</v>
@@ -4301,16 +4268,20 @@
         <v>78</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>132</v>
+        <v>186</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>133</v>
+        <v>231</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="O22" t="s" s="2">
         <v>78</v>
       </c>
@@ -4334,43 +4305,43 @@
         <v>78</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>78</v>
+        <v>235</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>78</v>
+        <v>236</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>78</v>
+        <v>237</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>152</v>
+        <v>78</v>
       </c>
       <c r="AC22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>153</v>
+        <v>230</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>78</v>
@@ -4382,7 +4353,7 @@
         <v>78</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>78</v>
+        <v>238</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>78</v>
@@ -4393,7 +4364,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>154</v>
+        <v>239</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4401,7 +4372,7 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>87</v>
@@ -4413,27 +4384,29 @@
         <v>78</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>101</v>
+        <v>240</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>155</v>
+        <v>241</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>156</v>
+        <v>242</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>243</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="O23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>177</v>
+        <v>78</v>
       </c>
       <c r="R23" t="s" s="2">
         <v>78</v>
@@ -4475,10 +4448,10 @@
         <v>78</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>159</v>
+        <v>239</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>87</v>
@@ -4487,22 +4460,22 @@
         <v>78</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>78</v>
+        <v>245</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>130</v>
+        <v>246</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>78</v>
+        <v>247</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>78</v>
+        <v>248</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>78</v>
@@ -4510,7 +4483,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>160</v>
+        <v>249</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4518,10 +4491,10 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>78</v>
@@ -4530,21 +4503,23 @@
         <v>78</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>146</v>
+        <v>250</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>161</v>
+        <v>251</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>162</v>
+        <v>252</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>78</v>
       </c>
@@ -4592,13 +4567,13 @@
         <v>78</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>164</v>
+        <v>249</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>78</v>
@@ -4610,28 +4585,28 @@
         <v>78</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>78</v>
+        <v>255</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>78</v>
+        <v>256</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>78</v>
+        <v>257</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>78</v>
+        <v>258</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>179</v>
+        <v>259</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>180</v>
+        <v>78</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4644,25 +4619,25 @@
         <v>78</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>132</v>
+        <v>260</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>181</v>
+        <v>261</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>182</v>
+        <v>262</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>183</v>
+        <v>263</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>184</v>
+        <v>264</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>78</v>
@@ -4711,7 +4686,7 @@
         <v>78</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>185</v>
+        <v>259</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>79</v>
@@ -4723,13 +4698,13 @@
         <v>78</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>78</v>
@@ -4746,7 +4721,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>186</v>
+        <v>265</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4757,7 +4732,7 @@
         <v>79</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>78</v>
@@ -4766,23 +4741,19 @@
         <v>78</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>188</v>
+        <v>266</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>191</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>78</v>
       </c>
@@ -4830,78 +4801,76 @@
         <v>78</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>186</v>
+        <v>268</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>192</v>
+        <v>78</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>193</v>
+        <v>269</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>194</v>
+        <v>78</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>195</v>
+        <v>78</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>196</v>
+        <v>78</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>197</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>198</v>
+        <v>270</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>199</v>
+        <v>271</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>200</v>
+        <v>272</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>202</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>78</v>
       </c>
@@ -4925,13 +4894,13 @@
         <v>78</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>203</v>
+        <v>78</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>204</v>
+        <v>78</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>205</v>
+        <v>78</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>78</v>
@@ -4949,28 +4918,28 @@
         <v>78</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>198</v>
+        <v>273</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>206</v>
+        <v>78</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>207</v>
+        <v>269</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>208</v>
+        <v>78</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>78</v>
@@ -4984,42 +4953,42 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>209</v>
+        <v>274</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>78</v>
+        <v>275</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>210</v>
+        <v>132</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>211</v>
+        <v>276</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>212</v>
+        <v>277</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>213</v>
+        <v>159</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>214</v>
+        <v>160</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>78</v>
@@ -5044,13 +5013,13 @@
         <v>78</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>215</v>
+        <v>78</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>216</v>
+        <v>78</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>78</v>
@@ -5068,34 +5037,34 @@
         <v>78</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>209</v>
+        <v>278</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>217</v>
+        <v>78</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>218</v>
+        <v>78</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>78</v>
@@ -5103,7 +5072,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>219</v>
+        <v>279</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5111,7 +5080,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>87</v>
@@ -5126,19 +5095,19 @@
         <v>88</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>221</v>
+        <v>280</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>222</v>
+        <v>281</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>223</v>
+        <v>282</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>224</v>
+        <v>283</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>78</v>
@@ -5163,13 +5132,13 @@
         <v>78</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>78</v>
+        <v>235</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>78</v>
+        <v>284</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>78</v>
+        <v>285</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>78</v>
@@ -5187,10 +5156,10 @@
         <v>78</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>219</v>
+        <v>279</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>87</v>
@@ -5208,21 +5177,21 @@
         <v>78</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>225</v>
+        <v>78</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>226</v>
+        <v>78</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>227</v>
+        <v>78</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>228</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>229</v>
+        <v>286</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5230,7 +5199,7 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>87</v>
@@ -5245,19 +5214,19 @@
         <v>88</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>231</v>
+        <v>287</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>232</v>
+        <v>288</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>233</v>
+        <v>289</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>234</v>
+        <v>290</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>78</v>
@@ -5306,10 +5275,10 @@
         <v>78</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>229</v>
+        <v>286</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>87</v>
@@ -5327,21 +5296,21 @@
         <v>78</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>225</v>
+        <v>78</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>226</v>
+        <v>291</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>227</v>
+        <v>292</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>228</v>
+        <v>293</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>235</v>
+        <v>294</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5364,17 +5333,17 @@
         <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>236</v>
+        <v>295</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>237</v>
+        <v>296</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>238</v>
+        <v>297</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>78</v>
@@ -5423,7 +5392,7 @@
         <v>78</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>235</v>
+        <v>294</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>79</v>
@@ -5444,21 +5413,21 @@
         <v>78</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>225</v>
+        <v>78</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>226</v>
+        <v>291</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>227</v>
+        <v>292</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>228</v>
+        <v>293</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>239</v>
+        <v>298</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5466,7 +5435,7 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>87</v>
@@ -5481,19 +5450,19 @@
         <v>88</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>240</v>
+        <v>299</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>241</v>
+        <v>300</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>242</v>
+        <v>301</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>243</v>
+        <v>302</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>244</v>
+        <v>303</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>78</v>
@@ -5542,10 +5511,10 @@
         <v>78</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>239</v>
+        <v>298</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>87</v>
@@ -5557,27 +5526,27 @@
         <v>99</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>245</v>
+        <v>78</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>225</v>
+        <v>78</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>226</v>
+        <v>78</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>228</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>246</v>
+        <v>304</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5600,19 +5569,17 @@
         <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>247</v>
+        <v>305</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="M33" s="2"/>
       <c r="N33" t="s" s="2">
-        <v>250</v>
+        <v>307</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>78</v>
@@ -5661,7 +5628,7 @@
         <v>78</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>246</v>
+        <v>304</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>79</v>
@@ -5685,10 +5652,10 @@
         <v>78</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>251</v>
+        <v>308</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>252</v>
+        <v>78</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>78</v>
@@ -5696,18 +5663,18 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>253</v>
+        <v>309</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>78</v>
+        <v>310</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>78</v>
@@ -5719,19 +5686,19 @@
         <v>78</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>254</v>
+        <v>311</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>255</v>
+        <v>312</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>256</v>
+        <v>313</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>257</v>
+        <v>314</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>78</v>
@@ -5756,13 +5723,13 @@
         <v>78</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>258</v>
+        <v>78</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>259</v>
+        <v>78</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>260</v>
+        <v>78</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>78</v>
@@ -5780,13 +5747,13 @@
         <v>78</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>253</v>
+        <v>309</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>78</v>
@@ -5804,7 +5771,7 @@
         <v>78</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>261</v>
+        <v>78</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>78</v>
@@ -5815,7 +5782,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>262</v>
+        <v>315</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5835,23 +5802,19 @@
         <v>78</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>263</v>
+        <v>212</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N35" t="s" s="2">
         <v>267</v>
       </c>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>78</v>
       </c>
@@ -5899,7 +5862,7 @@
         <v>78</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>79</v>
@@ -5911,22 +5874,22 @@
         <v>78</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>268</v>
+        <v>78</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>269</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>270</v>
+        <v>78</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>271</v>
+        <v>78</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>78</v>
@@ -5934,15 +5897,15 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>272</v>
+        <v>316</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>80</v>
@@ -5954,23 +5917,21 @@
         <v>78</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>273</v>
+        <v>132</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>277</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>78</v>
       </c>
@@ -6018,10 +5979,10 @@
         <v>78</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6030,34 +5991,34 @@
         <v>78</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>78</v>
+        <v>269</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>278</v>
+        <v>78</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>279</v>
+        <v>78</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>280</v>
+        <v>78</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>281</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>282</v>
+        <v>317</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>78</v>
+        <v>275</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -6070,25 +6031,25 @@
         <v>78</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>283</v>
+        <v>132</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>286</v>
+        <v>159</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>287</v>
+        <v>160</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>78</v>
@@ -6137,7 +6098,7 @@
         <v>78</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>79</v>
@@ -6149,13 +6110,13 @@
         <v>78</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>78</v>
@@ -6172,7 +6133,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>288</v>
+        <v>318</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6192,19 +6153,23 @@
         <v>78</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>146</v>
+        <v>186</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>147</v>
+        <v>319</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
+        <v>320</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="O38" t="s" s="2">
         <v>78</v>
       </c>
@@ -6228,13 +6193,13 @@
         <v>78</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>78</v>
+        <v>235</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>78</v>
+        <v>323</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>78</v>
+        <v>324</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>78</v>
@@ -6252,7 +6217,7 @@
         <v>78</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>149</v>
+        <v>318</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>79</v>
@@ -6264,13 +6229,13 @@
         <v>78</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>150</v>
+        <v>78</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>78</v>
@@ -6287,18 +6252,18 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>289</v>
+        <v>325</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>180</v>
+        <v>78</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>78</v>
@@ -6310,17 +6275,15 @@
         <v>78</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>132</v>
+        <v>212</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>290</v>
+        <v>266</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>183</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>78</v>
@@ -6369,25 +6332,25 @@
         <v>78</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>153</v>
+        <v>268</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>150</v>
+        <v>269</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>78</v>
@@ -6404,11 +6367,11 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>292</v>
+        <v>326</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>293</v>
+        <v>156</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6421,26 +6384,24 @@
         <v>78</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="J40" t="s" s="2">
         <v>132</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>294</v>
+        <v>271</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>78</v>
       </c>
@@ -6476,19 +6437,19 @@
         <v>78</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>78</v>
+        <v>327</v>
       </c>
       <c r="AC40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>79</v>
@@ -6506,7 +6467,7 @@
         <v>78</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>130</v>
+        <v>269</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>78</v>
@@ -6523,7 +6484,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>297</v>
+        <v>328</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6531,10 +6492,10 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>78</v>
@@ -6546,19 +6507,19 @@
         <v>88</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>210</v>
+        <v>329</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>298</v>
+        <v>330</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>300</v>
+        <v>332</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>301</v>
+        <v>333</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>78</v>
@@ -6583,13 +6544,13 @@
         <v>78</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>258</v>
+        <v>78</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>302</v>
+        <v>78</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>303</v>
+        <v>78</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>78</v>
@@ -6607,13 +6568,13 @@
         <v>78</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>297</v>
+        <v>334</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>78</v>
@@ -6625,7 +6586,7 @@
         <v>78</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>78</v>
+        <v>335</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>78</v>
@@ -6634,7 +6595,7 @@
         <v>78</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>78</v>
+        <v>336</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>78</v>
@@ -6642,7 +6603,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6650,7 +6611,7 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>87</v>
@@ -6662,23 +6623,19 @@
         <v>78</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>305</v>
+        <v>266</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>308</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>78</v>
       </c>
@@ -6726,10 +6683,10 @@
         <v>78</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>304</v>
+        <v>268</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>87</v>
@@ -6738,41 +6695,41 @@
         <v>78</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>78</v>
+        <v>269</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>309</v>
+        <v>78</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>310</v>
+        <v>78</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>311</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>312</v>
+        <v>338</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>78</v>
@@ -6781,21 +6738,21 @@
         <v>78</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>313</v>
+        <v>271</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="M43" s="2"/>
-      <c r="N43" t="s" s="2">
-        <v>315</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>78</v>
       </c>
@@ -6831,54 +6788,54 @@
         <v>78</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>78</v>
+        <v>327</v>
       </c>
       <c r="AC43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>312</v>
+        <v>273</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>78</v>
+        <v>269</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>309</v>
+        <v>78</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>310</v>
+        <v>78</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>311</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>316</v>
+        <v>339</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6901,19 +6858,19 @@
         <v>88</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>317</v>
+        <v>101</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>318</v>
+        <v>340</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>319</v>
+        <v>341</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>320</v>
+        <v>342</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>321</v>
+        <v>343</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>78</v>
@@ -6962,7 +6919,7 @@
         <v>78</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>316</v>
+        <v>344</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>79</v>
@@ -6980,7 +6937,7 @@
         <v>78</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>78</v>
+        <v>345</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>78</v>
@@ -6989,7 +6946,7 @@
         <v>78</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>252</v>
+        <v>346</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>78</v>
@@ -6997,7 +6954,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>322</v>
+        <v>347</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7020,18 +6977,18 @@
         <v>88</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>323</v>
+        <v>348</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="M45" s="2"/>
-      <c r="N45" t="s" s="2">
-        <v>325</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>78</v>
       </c>
@@ -7079,7 +7036,7 @@
         <v>78</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>322</v>
+        <v>351</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>79</v>
@@ -7097,16 +7054,16 @@
         <v>78</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>78</v>
+        <v>352</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>326</v>
+        <v>78</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>78</v>
+        <v>353</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>78</v>
@@ -7114,18 +7071,18 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>327</v>
+        <v>354</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>328</v>
+        <v>78</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>78</v>
@@ -7134,22 +7091,22 @@
         <v>78</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>283</v>
+        <v>107</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>329</v>
+        <v>355</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>330</v>
+        <v>356</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>332</v>
+        <v>358</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>78</v>
@@ -7198,13 +7155,13 @@
         <v>78</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>327</v>
+        <v>359</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>78</v>
@@ -7216,7 +7173,7 @@
         <v>78</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>78</v>
+        <v>360</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>78</v>
@@ -7225,7 +7182,7 @@
         <v>78</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>78</v>
+        <v>361</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>78</v>
@@ -7233,7 +7190,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>333</v>
+        <v>362</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7253,19 +7210,21 @@
         <v>78</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>147</v>
+        <v>363</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>148</v>
+        <v>364</v>
       </c>
       <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
+      <c r="N47" t="s" s="2">
+        <v>365</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>78</v>
       </c>
@@ -7313,7 +7272,7 @@
         <v>78</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>149</v>
+        <v>366</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>79</v>
@@ -7325,13 +7284,13 @@
         <v>78</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>150</v>
+        <v>367</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>78</v>
@@ -7340,7 +7299,7 @@
         <v>78</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>78</v>
+        <v>368</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>78</v>
@@ -7348,18 +7307,18 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>180</v>
+        <v>78</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>78</v>
@@ -7368,21 +7327,23 @@
         <v>78</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>132</v>
+        <v>370</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>290</v>
+        <v>371</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>291</v>
+        <v>372</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>373</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>374</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>78</v>
       </c>
@@ -7430,25 +7391,25 @@
         <v>78</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>153</v>
+        <v>375</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>150</v>
+        <v>376</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>78</v>
@@ -7457,7 +7418,7 @@
         <v>78</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>78</v>
+        <v>377</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>78</v>
@@ -7465,42 +7426,42 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>335</v>
+        <v>378</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>293</v>
+        <v>78</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>132</v>
+        <v>212</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>294</v>
+        <v>379</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>295</v>
+        <v>380</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>183</v>
+        <v>381</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>184</v>
+        <v>382</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>78</v>
@@ -7549,25 +7510,25 @@
         <v>78</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>296</v>
+        <v>383</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>130</v>
+        <v>384</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>78</v>
@@ -7576,7 +7537,7 @@
         <v>78</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>78</v>
+        <v>385</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>78</v>
@@ -7584,7 +7545,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>336</v>
+        <v>386</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7592,7 +7553,7 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>87</v>
@@ -7607,19 +7568,19 @@
         <v>88</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>210</v>
+        <v>387</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>337</v>
+        <v>388</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>338</v>
+        <v>389</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>339</v>
+        <v>390</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>340</v>
+        <v>391</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>78</v>
@@ -7644,13 +7605,13 @@
         <v>78</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>258</v>
+        <v>78</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>341</v>
+        <v>78</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>342</v>
+        <v>78</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>78</v>
@@ -7668,10 +7629,10 @@
         <v>78</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>336</v>
+        <v>386</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>87</v>
@@ -7692,18 +7653,18 @@
         <v>78</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>78</v>
+        <v>291</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>78</v>
+        <v>292</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>78</v>
+        <v>293</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>343</v>
+        <v>392</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7714,7 +7675,7 @@
         <v>79</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>78</v>
@@ -7726,16 +7687,18 @@
         <v>78</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>146</v>
+        <v>260</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>147</v>
+        <v>393</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>148</v>
+        <v>394</v>
       </c>
       <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
+      <c r="N51" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="O51" t="s" s="2">
         <v>78</v>
       </c>
@@ -7783,25 +7746,25 @@
         <v>78</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>149</v>
+        <v>392</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>150</v>
+        <v>78</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>78</v>
@@ -7818,18 +7781,18 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>344</v>
+        <v>395</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>180</v>
+        <v>78</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>78</v>
@@ -7841,17 +7804,15 @@
         <v>78</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>132</v>
+        <v>212</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>290</v>
+        <v>266</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>183</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>78</v>
@@ -7888,37 +7849,37 @@
         <v>78</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>152</v>
+        <v>78</v>
       </c>
       <c r="AC52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>153</v>
+        <v>268</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>150</v>
+        <v>269</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>78</v>
@@ -7935,11 +7896,11 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>345</v>
+        <v>396</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7955,23 +7916,21 @@
         <v>78</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>346</v>
+        <v>132</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>347</v>
+        <v>271</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>348</v>
+        <v>272</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>350</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>78</v>
       </c>
@@ -8019,7 +7978,7 @@
         <v>78</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>351</v>
+        <v>273</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>79</v>
@@ -8031,13 +7990,13 @@
         <v>78</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>352</v>
+        <v>269</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>78</v>
@@ -8046,7 +8005,7 @@
         <v>78</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>353</v>
+        <v>78</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>78</v>
@@ -8054,39 +8013,43 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>354</v>
+        <v>397</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>78</v>
+        <v>275</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>147</v>
+        <v>276</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>78</v>
       </c>
@@ -8134,25 +8097,25 @@
         <v>78</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>149</v>
+        <v>278</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>78</v>
@@ -8169,18 +8132,18 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>355</v>
+        <v>398</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>180</v>
+        <v>78</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>78</v>
@@ -8189,21 +8152,21 @@
         <v>78</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>132</v>
+        <v>186</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>290</v>
+        <v>399</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>400</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" t="s" s="2">
+        <v>401</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>78</v>
       </c>
@@ -8227,49 +8190,49 @@
         <v>78</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>78</v>
+        <v>402</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>78</v>
+        <v>403</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>78</v>
+        <v>404</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>152</v>
+        <v>78</v>
       </c>
       <c r="AC55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>153</v>
+        <v>398</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>150</v>
+        <v>78</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>78</v>
@@ -8286,7 +8249,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>356</v>
+        <v>405</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8309,19 +8272,17 @@
         <v>88</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>101</v>
+        <v>240</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>357</v>
+        <v>406</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>359</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
-        <v>360</v>
+        <v>408</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>78</v>
@@ -8370,7 +8331,7 @@
         <v>78</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>361</v>
+        <v>405</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>79</v>
@@ -8388,7 +8349,7 @@
         <v>78</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>362</v>
+        <v>78</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>78</v>
@@ -8397,7 +8358,7 @@
         <v>78</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>363</v>
+        <v>78</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>78</v>
@@ -8405,7 +8366,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>364</v>
+        <v>409</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8425,21 +8386,23 @@
         <v>78</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>146</v>
+        <v>370</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>365</v>
+        <v>410</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>366</v>
+        <v>411</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>412</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>413</v>
+      </c>
       <c r="O57" t="s" s="2">
         <v>78</v>
       </c>
@@ -8487,7 +8450,7 @@
         <v>78</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>368</v>
+        <v>409</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>79</v>
@@ -8505,7 +8468,7 @@
         <v>78</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>369</v>
+        <v>78</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>78</v>
@@ -8514,7 +8477,7 @@
         <v>78</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>370</v>
+        <v>78</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>78</v>
@@ -8522,7 +8485,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>371</v>
+        <v>414</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8533,7 +8496,7 @@
         <v>79</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>78</v>
@@ -8542,22 +8505,22 @@
         <v>78</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>107</v>
+        <v>415</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>372</v>
+        <v>416</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>373</v>
+        <v>417</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>374</v>
+        <v>418</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>375</v>
+        <v>419</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>78</v>
@@ -8606,13 +8569,13 @@
         <v>78</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>376</v>
+        <v>414</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>78</v>
@@ -8624,1433 +8587,19 @@
         <v>78</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>377</v>
+        <v>269</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>78</v>
+        <v>202</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>378</v>
+        <v>420</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="B59" s="2"/>
-      <c r="C59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D59" s="2"/>
-      <c r="E59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F59" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J59" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="K59" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="M59" s="2"/>
-      <c r="N59" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P59" s="2"/>
-      <c r="Q59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="AO59" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="B60" s="2"/>
-      <c r="C60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D60" s="2"/>
-      <c r="E60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F60" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J60" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="K60" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P60" s="2"/>
-      <c r="Q60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="AO60" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="B61" s="2"/>
-      <c r="C61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D61" s="2"/>
-      <c r="E61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F61" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J61" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="K61" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P61" s="2"/>
-      <c r="Q61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="AO61" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="B62" s="2"/>
-      <c r="C62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D62" s="2"/>
-      <c r="E62" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="F62" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J62" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="K62" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P62" s="2"/>
-      <c r="Q62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AG62" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="AO62" t="s" s="2">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="B63" s="2"/>
-      <c r="C63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D63" s="2"/>
-      <c r="E63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J63" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="K63" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="M63" s="2"/>
-      <c r="N63" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P63" s="2"/>
-      <c r="Q63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO63" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="B64" s="2"/>
-      <c r="C64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D64" s="2"/>
-      <c r="E64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F64" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J64" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="K64" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
-      <c r="O64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P64" s="2"/>
-      <c r="Q64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO64" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="B65" s="2"/>
-      <c r="C65" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="D65" s="2"/>
-      <c r="E65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J65" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="K65" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="N65" s="2"/>
-      <c r="O65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P65" s="2"/>
-      <c r="Q65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO65" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="B66" s="2"/>
-      <c r="C66" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="D66" s="2"/>
-      <c r="E66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J66" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="K66" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P66" s="2"/>
-      <c r="Q66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO66" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="B67" s="2"/>
-      <c r="C67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D67" s="2"/>
-      <c r="E67" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="F67" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J67" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="K67" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="M67" s="2"/>
-      <c r="N67" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P67" s="2"/>
-      <c r="Q67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO67" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="B68" s="2"/>
-      <c r="C68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D68" s="2"/>
-      <c r="E68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F68" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="M68" s="2"/>
-      <c r="N68" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P68" s="2"/>
-      <c r="Q68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO68" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="B69" s="2"/>
-      <c r="C69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D69" s="2"/>
-      <c r="E69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F69" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P69" s="2"/>
-      <c r="Q69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO69" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="B70" s="2"/>
-      <c r="C70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D70" s="2"/>
-      <c r="E70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P70" s="2"/>
-      <c r="Q70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="AO70" t="s" s="2">
-        <v>228</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-coverage.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-coverage.xlsx
@@ -460,7 +460,7 @@
     <t>健康保険における被保険者証記号を示す拡張</t>
   </si>
   <si>
-    <t>健康保険における被保険者証記号を示す拡張。被保険者記号の文字列。</t>
+    <t>健康保険における被保険者証記号を示す拡張。被保険者記号の全角文字列。</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -480,7 +480,7 @@
     <t>健康保険における被保険者証番号を示す拡張</t>
   </si>
   <si>
-    <t>健康保険における被保険者証番号を示す拡張。被保険者記号の文字列。</t>
+    <t>健康保険における被保険者証番号を示す拡張。被保険者記号の全角文字列。</t>
   </si>
   <si>
     <t>insuredPersonSubNumber</t>
@@ -496,7 +496,7 @@
     <t>健康保険における被保険者証番号の枝番を示す拡張</t>
   </si>
   <si>
-    <t>健康保険における被保険者証番号を示す拡張。2桁の半角数字文字列。一桁の場合には先頭に０をつけて2桁にする。</t>
+    <t>健康保険における被保険者証番号を示す拡張。2桁の全角数字文字列。一桁の場合には先頭に０をつけて2桁にする。</t>
   </si>
   <si>
     <t>Coverage.modifierExtension</t>
@@ -529,7 +529,7 @@
 </t>
   </si>
   <si>
-    <t>Business Identifier for the coverage　このカバレッジに割り当てられた一意の識別子。</t>
+    <t>Business Identifier for the coverage　このカバレッジに割り当てられた一意の識別子。【詳細参照】</t>
   </si>
   <si>
     <t>A unique identifier assigned to this coverage.
@@ -537,7 +537,10 @@
   </si>
   <si>
     <t>The main (and possibly only) identifier for the coverage - often referred to as a Member Id, Certificate number, Personal Health Number or Case ID. May be constructed as the concatenation of the Coverage.SubscriberID and the Coverage.dependent.
-カバレッジのメイン（および場合によっては唯一の）識別子-多くの場合、メンバーID、証明書番号、個人の健康番号、またはケースIDと呼ばれる。 Coverage.SubscriberIDとCoverage.dependentの連結として構築できる。</t>
+カバレッジのメイン（および場合によっては唯一の）識別子-多くの場合、メンバーID、証明書番号、個人の健康番号、またはケースIDと呼ばれる。
+【JP Core仕様】被保険者記号と番号と枝番を全角にした上でダブルコーテーションで囲い、カンマ区切りで連結する。
+ルール："{被保険者記号}","{被保険者番号}","{枝番}"
+例："１２－３４","５６７８","００"</t>
   </si>
   <si>
     <t>Allows coverages to be distinguished and referenced.
@@ -674,7 +677,7 @@
 </t>
   </si>
   <si>
-    <t>Subscriber to the policy　契約当事者</t>
+    <t>Subscriber to the policy　被保険者</t>
   </si>
   <si>
     <t>The party who has signed-up for or 'owns' the contractual relationship to the policy or to whom the benefit of the policy for services rendered to them or their family is due.
@@ -696,17 +699,19 @@
 </t>
   </si>
   <si>
-    <t>ID assigned to the subscriber　契約当事者に割り当てられたID</t>
+    <t>ID assigned to the subscriber　被保険者に割り当てられたID</t>
   </si>
   <si>
     <t>The insurer assigned ID for the Subscriber.
-契約当事者に保険者が割り当てたID</t>
+被保険者に保険者が割り当てたID</t>
   </si>
   <si>
     <t>The insurer requires this identifier on correspondence and claims (digital and otherwise).
 保険者は、連絡や請求（デジタルおよびその他）でこの識別子を要求する。
 保険会社は、通信および請求（デジタルおよびその他）でこの識別子を要求する。
-【JP Core仕様】被保険者番号を全角で格納する</t>
+【JP Core仕様】被保険者記号と番号を全角にした上でダブルコーテーションで囲い、カンマ区切りで連結する。
+ルール："{被保険者記号}","{被保険者番号}"
+例："１２－３４","５６７８"</t>
   </si>
   <si>
     <t>Coverage.beneficiary</t>
@@ -738,21 +743,22 @@
     <t>Coverage.dependent</t>
   </si>
   <si>
-    <t>Dependent number</t>
+    <t>被保険者証 枝番</t>
   </si>
   <si>
     <t>A unique identifier for a dependent under the coverage.
-補償対象の被扶養者の一意の識別子。</t>
+被保険者証の枝番。</t>
   </si>
   <si>
     <t>Periodically the member number is constructed from the subscriberId and the dependent number.
-定期的に subscriberId と従属番号からメンバー番号を構築する。</t>
+被保険者証の枝番を全角で格納する。</t>
   </si>
   <si>
     <t>For some coverages a single identifier is issued to the Subscriber and then a unique dependent number is issued to each beneficiary.
 一部の補償では、単一の識別子が加入者に発行され、次に一意の従属番号が各受益者に発行される。
 一部の保険では、単一の識別子が加入者に発行され、その後、各受益者に固有の扶養番号が発行される。
-【JP Core仕様】医療保険で本リソースを使用する場合には、この要素に拡張 InsuredPersonSubNumberに設定した値と同じ、被保険者番号の枝番号2桁を設定する。</t>
+【JP Core仕様】医療保険で本リソースを使用する場合には、この要素に拡張 InsuredPersonSubNumberに設定した値と同じ、被保険者番号の枝番号全角2桁を設定する。
+例："００"</t>
   </si>
   <si>
     <t>C17</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-coverage.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-coverage.xlsx
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-16</t>
+    <t>2022-09-26</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-coverage.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-coverage.xlsx
@@ -266,7 +266,7 @@
   </si>
   <si>
     <t>The Coverage resource contains the insurance card level information, which is customary to provide on claims and other communications between providers and insurers.
-Coverageには、保険証レベルの情報が含まれている。これは、保険金請求やプロバイダーと保険会社間のその他の通信で提供するのが通例である。</t>
+Coverageには、保険証レベルの情報が含まれている。これは、保険金請求やプロバイダと保険会社間のその他の通信で提供するのが通例である。</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
@@ -537,7 +537,7 @@
   </si>
   <si>
     <t>The main (and possibly only) identifier for the coverage - often referred to as a Member Id, Certificate number, Personal Health Number or Case ID. May be constructed as the concatenation of the Coverage.SubscriberID and the Coverage.dependent.
-カバレッジのメイン（および場合によっては唯一の）識別子-多くの場合、メンバーID、証明書番号、個人の健康番号、またはケースIDと呼ばれる。
+カバレッジのメイン（および場合によっては唯一の）識別子-多くの場合、メンバID、証明書番号、個人の健康番号、またはケースIDと呼ばれる。
 【JP Core仕様】被保険者記号と番号と枝番を全角にした上でダブルコーテーションで囲い、カンマ区切りで連結する。
 ルール："{被保険者記号}","{被保険者番号}","{枝番}"
 例："１２－３４","５６７８","００"</t>
@@ -616,7 +616,7 @@
   </si>
   <si>
     <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.
-すべてのターミノロジーの使用がこの一般的なパターンに適合するわけではない。場合によっては、モデルはCodeableConceptを使用せず、コーディングを直接使用して、テキスト、コーディング、翻訳、および要素間の関係とpre-coordinationとpost-coordinationの用語関係を管理するための独自の構造を提供する必要がある。
+すべてのターミノロジの使用がこの一般的なパターンに適合するわけではない。場合によっては、モデルはCodeableConceptを使用せず、コーディングを直接使用して、テキスト、コーディング、翻訳、および要素間の関係とpre-coordinationとpost-coordinationの用語関係を管理するための独自の構造を提供する必要がある。
 【JP Core仕様】厚労省保険局の電子処方等で使用される保険種別コード（system=”urn:oid:1.2.392.100495.20.2.61”）として、https://www.mhlw.go.jp/content/10800000/000342368.pdf　の別表１１が使用できる。</t>
   </si>
   <si>
@@ -643,7 +643,7 @@
 </t>
   </si>
   <si>
-    <t>Owner of the policy　ポリシーの所有者</t>
+    <t>Owner of the policy　ポリシの所有者</t>
   </si>
   <si>
     <t>The party who 'owns' the insurance policy.
@@ -655,7 +655,7 @@
   </si>
   <si>
     <t>This provides employer information in the case of Worker's Compensation and other policies.
-これは、労働者災害補償およびその他のポリシーの場合に雇用者情報を提供する。</t>
+これは、労働者災害補償およびその他のポリシの場合に雇用者情報を提供する。</t>
   </si>
   <si>
     <t>FiveWs.subject</t>
@@ -681,7 +681,7 @@
   </si>
   <si>
     <t>The party who has signed-up for or 'owns' the contractual relationship to the policy or to whom the benefit of the policy for services rendered to them or their family is due.
-ポリシーにサインアップした、またはポリシーとの契約関係を「所有」している当事者、またはポリシーの利益が彼らまたはその家族に提供されることになっている当事者。</t>
+ポリシにサインアップした、またはポリシとの契約関係を「所有」している当事者、またはポリシの利益が彼らまたはその家族に提供されることになっている当事者。</t>
   </si>
   <si>
     <t>May be self or a parent in the case of dependents.
@@ -689,7 +689,7 @@
   </si>
   <si>
     <t>This is the party who is entitled to the benefits under the policy.
-これは、ポリシーに基づいて給付を受ける権利を有する当事者である。</t>
+これは、ポリシに基づいて給付を受ける権利を有する当事者である。</t>
   </si>
   <si>
     <t>Coverage.subscriberId</t>
@@ -778,7 +778,7 @@
   </si>
   <si>
     <t>Typically, an individual uses policies which are theirs (relationship='self') before policies owned by others.
-一般的に、個人は、他人が所有するポリシーよりも、自分のポリシー（relationship='self'）を使用する。</t>
+一般的に、個人は、他人が所有するポリシよりも、自分のポリシ（relationship='self'）を使用する。</t>
   </si>
   <si>
     <t>To determine relationship between the patient and the subscriber to determine coordination of benefits.
@@ -1037,7 +1037,7 @@
   </si>
   <si>
     <t>The insurer-specific identifier for the insurer-defined network of providers to which the beneficiary may seek treatment which will be covered at the 'in-network' rate, otherwise 'out of network' terms and conditions apply.
-保険者が定義したプロバイダーの保険者定義ネットワークの保険者固有の識別子で、被保険者が「ネットワーク内」の料金でカバーされる治療を受けることができるが、そうでなければ「ネットワーク外」の条件が適用される。</t>
+保険者が定義したプロバイダの保険者定義ネットワークの保険者固有の識別子で、被保険者が「ネットワーク内」の料金でカバーされる治療を受けることができるが、そうでなければ「ネットワーク外」の条件が適用される。</t>
   </si>
   <si>
     <t>Used in referral for treatment and in claims processing.
@@ -1058,7 +1058,7 @@
   </si>
   <si>
     <t>A suite of codes indicating the cost category and associated amount which have been detailed in the policy and may have been  included on the health card.
-ポリシーに詳細が記載されており、ヘルスカードに含まれている可能性のあるコストカテゴリと関連する金額を示す一連のコード。</t>
+ポリシに詳細が記載されており、ヘルスカードに含まれている可能性のあるコストカテゴリと関連する金額を示す一連のコード。</t>
   </si>
   <si>
     <t>For example by knowing the patient visit co-pay, the provider can collect the amount prior to undertaking treatment.
@@ -1398,7 +1398,7 @@
   </si>
   <si>
     <t>The policy(s) which constitute this insurance coverage.
-この保険の適用範囲を構成するポリシー。</t>
+この保険の適用範囲を構成するポリシ。</t>
   </si>
   <si>
     <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.

--- a/jpcore-r4/develop/StructureDefinition-jp-coverage.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-coverage.xlsx
@@ -617,7 +617,7 @@
   <si>
     <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.
 すべてのターミノロジの使用がこの一般的なパターンに適合するわけではない。場合によっては、モデルはCodeableConceptを使用せず、コーディングを直接使用して、テキスト、コーディング、翻訳、および要素間の関係とpre-coordinationとpost-coordinationの用語関係を管理するための独自の構造を提供する必要がある。
-【JP Core仕様】厚労省保険局の電子処方等で使用される保険種別コード（system=”urn:oid:1.2.392.100495.20.2.61”）として、https://www.mhlw.go.jp/content/10800000/000342368.pdf　の別表１１が使用できる。</t>
+【JP Core仕様】「[処方情報 HL7FHIR 記述仕様](https://std.jpfhir.jp/stddoc/ePrescriptionDataFHIR_v1x.pdf)」等で使用される保険種別コード（system=”urn:oid:1.2.392.100495.20.2.61”）として、https://www.mhlw.go.jp/content/10800000/000342368.pdf　の別表１１が使用できる。</t>
   </si>
   <si>
     <t>The order of application of coverages is dependent on the types of coverage.
@@ -783,7 +783,7 @@
   <si>
     <t>To determine relationship between the patient and the subscriber to determine coordination of benefits.
 患者と加入者の関係を決定し、給付の調整を決定する。
-【JP Core仕様】厚労省保険局の電子処方等で使用される被保険者区分コード（system=”urn:oid:1.2.392.100495.20.2.62”）として、https://www.mhlw.go.jp/content/10800000/000342368.pdf　の別表１２が使用できる。
+【JP Core仕様】「[処方情報 HL7FHIR 記述仕様](https://std.jpfhir.jp/stddoc/ePrescriptionDataFHIR_v1x.pdf)」等で使用される被保険者区分コード（system=”urn:oid:1.2.392.100495.20.2.62”）として、https://www.mhlw.go.jp/content/10800000/000342368.pdf　の別表１２が使用できる。
 1　被保険者
 2　被扶養者</t>
   </si>

--- a/jpcore-r4/develop/StructureDefinition-jp-coverage.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-coverage.xlsx
@@ -815,7 +815,7 @@
   </si>
   <si>
     <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
-Period is not used for a duration (a measure of elapsed time). See [Duration](datatypes.html#Duration).
+Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).
 Period（期間）は時間の範囲を指定する。使用状況は、範囲全体が適用されるか（たとえば、「患者はこの時間範囲で入院していた」）、範囲から1つの値が適用されるか（たとえば、「この2回の間に患者に投与する」）を指定する。
 Period（期間）は、Duration（時間区間＝経過時間の測定値）には使用されない。 [Duration]（datatypes.html＃Duration）を参照のこと。
 This is not a duration - that's a measure of time (a separate type), but a duration that occurs at a fixed value of time. A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times"). If duration is required, specify the type as Interval|Duration.

--- a/jpcore-r4/develop/StructureDefinition-jp-coverage.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-coverage.xlsx
@@ -616,8 +616,8 @@
   </si>
   <si>
     <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.
-すべてのターミノロジの使用がこの一般的なパターンに適合するわけではない。場合によっては、モデルはCodeableConceptを使用せず、コーディングを直接使用して、テキスト、コーディング、翻訳、および要素間の関係とpre-coordinationとpost-coordinationの用語関係を管理するための独自の構造を提供する必要がある。
-【JP Core仕様】「[処方情報 HL7FHIR 記述仕様](https://std.jpfhir.jp/stddoc/ePrescriptionDataFHIR_v1x.pdf)」等で使用される保険種別コード（system=”urn:oid:1.2.392.100495.20.2.61”）として、https://www.mhlw.go.jp/content/10800000/000342368.pdf　の別表１１が使用できる。</t>
+すべてのターミノロジの使用がこの一般的なパターンに適合するわけではない。場合によっては、モデルはCodeableConceptを使用せず、コーディングを直接使用して、テキスト、コーディング、翻訳、および要素間の関係とpre-coordinationとpost-coordinationの用語関係を管理するための独自の構造を提供する必要がある。
+【JP Core仕様】「[処方情報 HL7FHIR 記述仕様](https://std.jpfhir.jp/stddoc/ePrescriptionDataFHIR_v1x.pdf)」等で使用される保険種別コード（system=”urn:oid:1.2.392.100495.20.2.61”）として、https://www.mhlw.go.jp/content/10800000/000342368.pdf　の別表１１が使用している例があげられている。JP Coreとして本項目に対する用語のバインドは現時点では定義するまでに至っていない。</t>
   </si>
   <si>
     <t>The order of application of coverages is dependent on the types of coverage.

--- a/jpcore-r4/develop/StructureDefinition-jp-coverage.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-coverage.xlsx
@@ -90,6 +90,9 @@
     <t>Copyright</t>
   </si>
   <si>
+    <t>Copyright FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) 一般社団法人日本医療情報学会NeXEHRS課題研究会FHIR日本実装検討WG</t>
+  </si>
+  <si>
     <t>FHIR Version</t>
   </si>
   <si>
@@ -267,10 +270,6 @@
   <si>
     <t>The Coverage resource contains the insurance card level information, which is customary to provide on claims and other communications between providers and insurers.
 Coverageには、保険証レベルの情報が含まれている。これは、保険金請求やプロバイダと保険会社間のその他の通信で提供するのが通例である。</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -1658,55 +1657,55 @@
         <v>24</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1770,244 +1769,244 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3">
@@ -2016,20 +2015,20 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F3" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I3" t="s" s="2">
         <v>88</v>
@@ -2048,83 +2047,83 @@
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE3" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4">
@@ -2133,20 +2132,20 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I4" t="s" s="2">
         <v>88</v>
@@ -2163,83 +2162,83 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE4" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5">
@@ -2248,17 +2247,17 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F5" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>88</v>
@@ -2280,83 +2279,83 @@
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE5" t="s" s="2">
         <v>105</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6">
@@ -2365,23 +2364,23 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J6" t="s" s="2">
         <v>107</v>
@@ -2397,26 +2396,26 @@
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W6" t="s" s="2">
         <v>111</v>
@@ -2428,52 +2427,52 @@
         <v>113</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE6" t="s" s="2">
         <v>114</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7">
@@ -2486,19 +2485,19 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J7" t="s" s="2">
         <v>117</v>
@@ -2514,83 +2513,83 @@
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE7" t="s" s="2">
         <v>121</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>122</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8">
@@ -2603,19 +2602,19 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J8" t="s" s="2">
         <v>125</v>
@@ -2631,83 +2630,83 @@
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE8" t="s" s="2">
         <v>129</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9">
@@ -2716,23 +2715,23 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>132</v>
@@ -2746,45 +2745,45 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA9" t="s" s="2">
         <v>135</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD9" t="s" s="2">
         <v>136</v>
@@ -2793,34 +2792,34 @@
         <v>137</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>138</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10">
@@ -2831,23 +2830,23 @@
         <v>139</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>140</v>
@@ -2863,59 +2862,59 @@
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE10" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>144</v>
@@ -2924,22 +2923,22 @@
         <v>138</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11">
@@ -2950,23 +2949,23 @@
         <v>145</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>146</v>
@@ -2982,59 +2981,59 @@
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE11" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>144</v>
@@ -3043,22 +3042,22 @@
         <v>138</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12">
@@ -3069,23 +3068,23 @@
         <v>150</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>151</v>
@@ -3101,59 +3100,59 @@
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE12" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>144</v>
@@ -3162,22 +3161,22 @@
         <v>138</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13">
@@ -3190,19 +3189,19 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>88</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>132</v>
@@ -3220,83 +3219,83 @@
         <v>160</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE13" t="s" s="2">
         <v>161</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>138</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14">
@@ -3305,20 +3304,20 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>88</v>
@@ -3339,62 +3338,62 @@
         <v>167</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE14" t="s" s="2">
         <v>162</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>99</v>
@@ -3424,7 +3423,7 @@
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -3434,7 +3433,7 @@
         <v>87</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>88</v>
@@ -3458,26 +3457,26 @@
         <v>178</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W15" t="s" s="2">
         <v>179</v>
@@ -3489,19 +3488,19 @@
         <v>181</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE15" t="s" s="2">
         <v>174</v>
@@ -3513,7 +3512,7 @@
         <v>87</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>99</v>
@@ -3528,13 +3527,13 @@
         <v>184</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16">
@@ -3543,20 +3542,20 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>88</v>
@@ -3577,26 +3576,26 @@
         <v>190</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W16" t="s" s="2">
         <v>111</v>
@@ -3608,52 +3607,52 @@
         <v>192</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE16" t="s" s="2">
         <v>185</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>193</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>194</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17">
@@ -3662,20 +3661,20 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>88</v>
@@ -3696,71 +3695,71 @@
         <v>200</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE17" t="s" s="2">
         <v>195</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>201</v>
@@ -3781,20 +3780,20 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>88</v>
@@ -3815,71 +3814,71 @@
         <v>210</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE18" t="s" s="2">
         <v>205</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>201</v>
@@ -3900,20 +3899,20 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>88</v>
@@ -3932,71 +3931,71 @@
         <v>215</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE19" t="s" s="2">
         <v>211</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>201</v>
@@ -4017,7 +4016,7 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -4027,10 +4026,10 @@
         <v>87</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>88</v>
@@ -4051,50 +4050,50 @@
         <v>221</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE20" t="s" s="2">
         <v>216</v>
@@ -4106,7 +4105,7 @@
         <v>87</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>99</v>
@@ -4115,7 +4114,7 @@
         <v>222</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>201</v>
@@ -4136,20 +4135,20 @@
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>88</v>
@@ -4170,74 +4169,74 @@
         <v>227</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
         <v>223</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>228</v>
@@ -4246,7 +4245,7 @@
         <v>229</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22">
@@ -4255,23 +4254,23 @@
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
         <v>186</v>
@@ -4289,26 +4288,26 @@
         <v>234</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W22" t="s" s="2">
         <v>235</v>
@@ -4320,52 +4319,52 @@
         <v>237</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
         <v>230</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>238</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23">
@@ -4374,20 +4373,20 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>88</v>
@@ -4408,62 +4407,62 @@
         <v>244</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
         <v>239</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>99</v>
@@ -4478,13 +4477,13 @@
         <v>247</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>248</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24">
@@ -4493,20 +4492,20 @@
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>87</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>88</v>
@@ -4527,50 +4526,50 @@
         <v>254</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
         <v>249</v>
@@ -4579,19 +4578,19 @@
         <v>87</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>255</v>
@@ -4612,23 +4611,23 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
         <v>260</v>
@@ -4646,83 +4645,83 @@
         <v>264</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
         <v>259</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26">
@@ -4731,23 +4730,23 @@
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J26" t="s" s="2">
         <v>212</v>
@@ -4761,83 +4760,83 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
         <v>268</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>269</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27">
@@ -4850,19 +4849,19 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>132</v>
@@ -4878,83 +4877,83 @@
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
         <v>273</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>138</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>269</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28">
@@ -4967,13 +4966,13 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>88</v>
@@ -4997,83 +4996,83 @@
         <v>160</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
         <v>278</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>138</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29">
@@ -5082,7 +5081,7 @@
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -5092,10 +5091,10 @@
         <v>87</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>88</v>
@@ -5116,26 +5115,26 @@
         <v>283</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W29" t="s" s="2">
         <v>235</v>
@@ -5147,19 +5146,19 @@
         <v>285</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
         <v>279</v>
@@ -5171,28 +5170,28 @@
         <v>87</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30">
@@ -5201,7 +5200,7 @@
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -5211,10 +5210,10 @@
         <v>87</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>88</v>
@@ -5235,50 +5234,50 @@
         <v>290</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
         <v>286</v>
@@ -5290,19 +5289,19 @@
         <v>87</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>291</v>
@@ -5320,20 +5319,20 @@
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>88</v>
@@ -5352,74 +5351,74 @@
         <v>297</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
         <v>294</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>291</v>
@@ -5437,20 +5436,20 @@
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>88</v>
@@ -5471,83 +5470,83 @@
         <v>303</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
         <v>298</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>229</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33">
@@ -5556,20 +5555,20 @@
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>88</v>
@@ -5588,83 +5587,83 @@
         <v>307</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
         <v>304</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>308</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34">
@@ -5677,19 +5676,19 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>260</v>
@@ -5707,83 +5706,83 @@
         <v>314</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
         <v>309</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35">
@@ -5792,23 +5791,23 @@
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J35" t="s" s="2">
         <v>212</v>
@@ -5822,83 +5821,83 @@
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
         <v>268</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>269</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36">
@@ -5911,19 +5910,19 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J36" t="s" s="2">
         <v>132</v>
@@ -5939,83 +5938,83 @@
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
         <v>273</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>138</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>269</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37">
@@ -6028,13 +6027,13 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>88</v>
@@ -6058,83 +6057,83 @@
         <v>160</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
         <v>278</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>138</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38">
@@ -6143,20 +6142,20 @@
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>88</v>
@@ -6177,26 +6176,26 @@
         <v>322</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W38" t="s" s="2">
         <v>235</v>
@@ -6208,52 +6207,52 @@
         <v>324</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
         <v>318</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39">
@@ -6262,23 +6261,23 @@
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J39" t="s" s="2">
         <v>212</v>
@@ -6292,83 +6291,83 @@
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
         <v>268</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>269</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40">
@@ -6381,19 +6380,19 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J40" t="s" s="2">
         <v>132</v>
@@ -6409,38 +6408,38 @@
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>135</v>
@@ -6449,7 +6448,7 @@
         <v>327</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>136</v>
@@ -6458,34 +6457,34 @@
         <v>273</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>138</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>269</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41">
@@ -6494,20 +6493,20 @@
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>88</v>
@@ -6528,83 +6527,83 @@
         <v>333</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
         <v>334</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>335</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>336</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42">
@@ -6613,23 +6612,23 @@
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J42" t="s" s="2">
         <v>212</v>
@@ -6643,83 +6642,83 @@
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
         <v>268</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>269</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43">
@@ -6732,19 +6731,19 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J43" t="s" s="2">
         <v>132</v>
@@ -6760,38 +6759,38 @@
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R43" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>135</v>
@@ -6800,7 +6799,7 @@
         <v>327</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD43" t="s" s="2">
         <v>136</v>
@@ -6809,34 +6808,34 @@
         <v>273</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>138</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>269</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44">
@@ -6845,20 +6844,20 @@
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>88</v>
@@ -6879,83 +6878,83 @@
         <v>343</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
         <v>344</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>345</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>346</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45">
@@ -6964,20 +6963,20 @@
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>88</v>
@@ -6996,83 +6995,83 @@
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
         <v>351</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>352</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>353</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46">
@@ -7081,20 +7080,20 @@
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>88</v>
@@ -7115,83 +7114,83 @@
         <v>358</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
         <v>359</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>360</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>361</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47">
@@ -7200,20 +7199,20 @@
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>88</v>
@@ -7232,83 +7231,83 @@
         <v>365</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
         <v>366</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>367</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>368</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48">
@@ -7317,20 +7316,20 @@
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>88</v>
@@ -7351,83 +7350,83 @@
         <v>374</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
         <v>375</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>376</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>377</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49">
@@ -7436,20 +7435,20 @@
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>88</v>
@@ -7470,83 +7469,83 @@
         <v>382</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R49" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
         <v>383</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>384</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>385</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50">
@@ -7555,7 +7554,7 @@
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7565,10 +7564,10 @@
         <v>87</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>88</v>
@@ -7589,50 +7588,50 @@
         <v>391</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
         <v>386</v>
@@ -7644,19 +7643,19 @@
         <v>87</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>291</v>
@@ -7674,23 +7673,23 @@
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J51" t="s" s="2">
         <v>260</v>
@@ -7706,83 +7705,83 @@
         <v>314</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
         <v>392</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="52">
@@ -7791,23 +7790,23 @@
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J52" t="s" s="2">
         <v>212</v>
@@ -7821,83 +7820,83 @@
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
         <v>268</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>269</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53">
@@ -7910,19 +7909,19 @@
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J53" t="s" s="2">
         <v>132</v>
@@ -7938,83 +7937,83 @@
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R53" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
         <v>273</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>138</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>269</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54">
@@ -8027,13 +8026,13 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>88</v>
@@ -8057,83 +8056,83 @@
         <v>160</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P54" s="2"/>
       <c r="Q54" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R54" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U54" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V54" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
         <v>278</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>138</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55">
@@ -8142,7 +8141,7 @@
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8152,10 +8151,10 @@
         <v>87</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>88</v>
@@ -8174,26 +8173,26 @@
         <v>401</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P55" s="2"/>
       <c r="Q55" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R55" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U55" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V55" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W55" t="s" s="2">
         <v>402</v>
@@ -8205,19 +8204,19 @@
         <v>404</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
         <v>398</v>
@@ -8229,28 +8228,28 @@
         <v>87</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56">
@@ -8259,20 +8258,20 @@
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>88</v>
@@ -8291,83 +8290,83 @@
         <v>408</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P56" s="2"/>
       <c r="Q56" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R56" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U56" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V56" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
         <v>405</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="57">
@@ -8376,23 +8375,23 @@
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J57" t="s" s="2">
         <v>370</v>
@@ -8410,83 +8409,83 @@
         <v>413</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P57" s="2"/>
       <c r="Q57" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R57" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T57" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U57" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V57" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
         <v>409</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="58">
@@ -8495,23 +8494,23 @@
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J58" t="s" s="2">
         <v>415</v>
@@ -8529,74 +8528,74 @@
         <v>419</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P58" s="2"/>
       <c r="Q58" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R58" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T58" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U58" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V58" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
         <v>414</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>269</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>202</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-coverage.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-coverage.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0a</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26</t>
+    <t>2022-10-24</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-coverage.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-coverage.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.1.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-coverage.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-coverage.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2269" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2269" uniqueCount="426">
   <si>
     <t>Property</t>
   </si>
@@ -262,6 +262,10 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>Insurance or medical plan or a payment agreement　保険または医療費支払いプラン、または合意された支払い方法</t>
@@ -1935,16 +1939,16 @@
         <v>80</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2009,7 +2013,7 @@
         <v>80</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AL2" t="s" s="2">
         <v>31</v>
@@ -2029,10 +2033,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2043,7 +2047,7 @@
         <v>81</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>80</v>
@@ -2052,19 +2056,19 @@
         <v>80</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2114,13 +2118,13 @@
         <v>80</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>80</v>
@@ -2149,10 +2153,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2163,7 +2167,7 @@
         <v>81</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>80</v>
@@ -2172,16 +2176,16 @@
         <v>80</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2232,19 +2236,19 @@
         <v>80</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>80</v>
@@ -2267,10 +2271,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2281,28 +2285,28 @@
         <v>81</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2352,19 +2356,19 @@
         <v>80</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>80</v>
@@ -2387,10 +2391,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2401,7 +2405,7 @@
         <v>81</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>80</v>
@@ -2413,16 +2417,16 @@
         <v>80</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2448,13 +2452,13 @@
         <v>80</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>80</v>
@@ -2472,19 +2476,19 @@
         <v>80</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>80</v>
@@ -2507,21 +2511,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>80</v>
@@ -2533,16 +2537,16 @@
         <v>80</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2592,25 +2596,25 @@
         <v>80</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>80</v>
@@ -2627,14 +2631,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2653,16 +2657,16 @@
         <v>80</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2712,7 +2716,7 @@
         <v>80</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>81</v>
@@ -2730,7 +2734,7 @@
         <v>80</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>80</v>
@@ -2747,10 +2751,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2773,13 +2777,13 @@
         <v>80</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -2818,17 +2822,17 @@
         <v>80</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>81</v>
@@ -2840,7 +2844,7 @@
         <v>80</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>80</v>
@@ -2863,13 +2867,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>80</v>
@@ -2891,16 +2895,16 @@
         <v>80</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -2950,7 +2954,7 @@
         <v>80</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>81</v>
@@ -2959,10 +2963,10 @@
         <v>82</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>80</v>
@@ -2985,13 +2989,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>80</v>
@@ -3013,16 +3017,16 @@
         <v>80</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -3072,7 +3076,7 @@
         <v>80</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>81</v>
@@ -3081,10 +3085,10 @@
         <v>82</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>80</v>
@@ -3107,13 +3111,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>80</v>
@@ -3135,16 +3139,16 @@
         <v>80</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3194,7 +3198,7 @@
         <v>80</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>81</v>
@@ -3203,10 +3207,10 @@
         <v>82</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>80</v>
@@ -3229,14 +3233,14 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3249,25 +3253,25 @@
         <v>80</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>80</v>
@@ -3316,7 +3320,7 @@
         <v>80</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>81</v>
@@ -3328,13 +3332,13 @@
         <v>80</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>80</v>
@@ -3351,10 +3355,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3374,22 +3378,22 @@
         <v>80</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>80</v>
@@ -3438,7 +3442,7 @@
         <v>80</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>81</v>
@@ -3450,33 +3454,33 @@
         <v>80</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AP14" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3484,34 +3488,34 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>80</v>
@@ -3536,13 +3540,13 @@
         <v>80</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>80</v>
@@ -3560,28 +3564,28 @@
         <v>80</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>80</v>
@@ -3595,10 +3599,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3609,7 +3613,7 @@
         <v>81</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>80</v>
@@ -3618,22 +3622,22 @@
         <v>80</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>80</v>
@@ -3658,13 +3662,13 @@
         <v>80</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>80</v>
@@ -3682,19 +3686,19 @@
         <v>80</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>80</v>
@@ -3703,13 +3707,13 @@
         <v>80</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AP16" t="s" s="2">
         <v>80</v>
@@ -3717,10 +3721,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3731,7 +3735,7 @@
         <v>81</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>80</v>
@@ -3740,22 +3744,22 @@
         <v>80</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>80</v>
@@ -3804,19 +3808,19 @@
         <v>80</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>80</v>
@@ -3825,24 +3829,24 @@
         <v>80</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AP17" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3853,7 +3857,7 @@
         <v>81</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>80</v>
@@ -3862,22 +3866,22 @@
         <v>80</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>80</v>
@@ -3926,45 +3930,45 @@
         <v>80</v>
       </c>
       <c r="AF18" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM18" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AN18" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AO18" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AP18" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="AO18" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="AP18" t="s" s="2">
-        <v>208</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3975,7 +3979,7 @@
         <v>81</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>80</v>
@@ -3984,20 +3988,20 @@
         <v>80</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>80</v>
@@ -4046,19 +4050,19 @@
         <v>80</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>80</v>
@@ -4067,24 +4071,24 @@
         <v>80</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AP19" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4092,10 +4096,10 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>80</v>
@@ -4104,22 +4108,22 @@
         <v>80</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>80</v>
@@ -4168,45 +4172,45 @@
         <v>80</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AP20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4217,7 +4221,7 @@
         <v>81</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>80</v>
@@ -4226,22 +4230,22 @@
         <v>80</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>80</v>
@@ -4290,19 +4294,19 @@
         <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>80</v>
@@ -4314,10 +4318,10 @@
         <v>80</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>80</v>
@@ -4325,10 +4329,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4339,7 +4343,7 @@
         <v>81</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>80</v>
@@ -4351,19 +4355,19 @@
         <v>80</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>80</v>
@@ -4388,13 +4392,13 @@
         <v>80</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>80</v>
@@ -4412,19 +4416,19 @@
         <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>80</v>
@@ -4436,7 +4440,7 @@
         <v>80</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>80</v>
@@ -4447,10 +4451,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4461,7 +4465,7 @@
         <v>81</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>80</v>
@@ -4470,22 +4474,22 @@
         <v>80</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>80</v>
@@ -4534,34 +4538,34 @@
         <v>80</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>80</v>
@@ -4569,10 +4573,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4580,7 +4584,7 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>82</v>
@@ -4592,22 +4596,22 @@
         <v>80</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>80</v>
@@ -4656,10 +4660,10 @@
         <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>82</v>
@@ -4668,7 +4672,7 @@
         <v>80</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>80</v>
@@ -4677,24 +4681,24 @@
         <v>80</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4717,19 +4721,19 @@
         <v>80</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>80</v>
@@ -4778,7 +4782,7 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>81</v>
@@ -4790,7 +4794,7 @@
         <v>80</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>80</v>
@@ -4813,10 +4817,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4827,7 +4831,7 @@
         <v>81</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>80</v>
@@ -4839,13 +4843,13 @@
         <v>80</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4896,13 +4900,13 @@
         <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>80</v>
@@ -4914,7 +4918,7 @@
         <v>80</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>80</v>
@@ -4931,14 +4935,14 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4957,16 +4961,16 @@
         <v>80</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5016,7 +5020,7 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>81</v>
@@ -5028,13 +5032,13 @@
         <v>80</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>80</v>
@@ -5051,14 +5055,14 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -5071,25 +5075,25 @@
         <v>80</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>80</v>
@@ -5138,7 +5142,7 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>81</v>
@@ -5150,13 +5154,13 @@
         <v>80</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>80</v>
@@ -5173,10 +5177,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5184,10 +5188,10 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>80</v>
@@ -5196,22 +5200,22 @@
         <v>80</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>80</v>
@@ -5236,13 +5240,13 @@
         <v>80</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>80</v>
@@ -5260,19 +5264,19 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>80</v>
@@ -5295,10 +5299,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5306,10 +5310,10 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>80</v>
@@ -5318,22 +5322,22 @@
         <v>80</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>80</v>
@@ -5382,19 +5386,19 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>80</v>
@@ -5406,21 +5410,21 @@
         <v>80</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5431,7 +5435,7 @@
         <v>81</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>80</v>
@@ -5440,20 +5444,20 @@
         <v>80</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>80</v>
@@ -5502,45 +5506,45 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN31" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AO31" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AP31" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="AO31" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="AP31" t="s" s="2">
-        <v>297</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5551,7 +5555,7 @@
         <v>81</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>80</v>
@@ -5560,22 +5564,22 @@
         <v>80</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>80</v>
@@ -5624,19 +5628,19 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>80</v>
@@ -5651,7 +5655,7 @@
         <v>80</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AP32" t="s" s="2">
         <v>80</v>
@@ -5659,10 +5663,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5673,7 +5677,7 @@
         <v>81</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>80</v>
@@ -5682,20 +5686,20 @@
         <v>80</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>80</v>
@@ -5744,19 +5748,19 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>80</v>
@@ -5768,7 +5772,7 @@
         <v>80</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>80</v>
@@ -5779,14 +5783,14 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5805,19 +5809,19 @@
         <v>80</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>80</v>
@@ -5866,7 +5870,7 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>81</v>
@@ -5878,7 +5882,7 @@
         <v>80</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>80</v>
@@ -5901,10 +5905,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5915,7 +5919,7 @@
         <v>81</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>80</v>
@@ -5927,13 +5931,13 @@
         <v>80</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5984,13 +5988,13 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>80</v>
@@ -6002,7 +6006,7 @@
         <v>80</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>80</v>
@@ -6019,14 +6023,14 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -6045,16 +6049,16 @@
         <v>80</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6104,7 +6108,7 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>81</v>
@@ -6116,13 +6120,13 @@
         <v>80</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>80</v>
@@ -6139,14 +6143,14 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -6159,25 +6163,25 @@
         <v>80</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>80</v>
@@ -6226,7 +6230,7 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>81</v>
@@ -6238,13 +6242,13 @@
         <v>80</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>80</v>
@@ -6261,10 +6265,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6275,7 +6279,7 @@
         <v>81</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>80</v>
@@ -6284,22 +6288,22 @@
         <v>80</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>80</v>
@@ -6324,13 +6328,13 @@
         <v>80</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>80</v>
@@ -6348,19 +6352,19 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>80</v>
@@ -6383,10 +6387,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6397,7 +6401,7 @@
         <v>81</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>80</v>
@@ -6409,13 +6413,13 @@
         <v>80</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6466,13 +6470,13 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>80</v>
@@ -6484,7 +6488,7 @@
         <v>80</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>80</v>
@@ -6501,14 +6505,14 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6527,16 +6531,16 @@
         <v>80</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6574,19 +6578,19 @@
         <v>80</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>81</v>
@@ -6598,13 +6602,13 @@
         <v>80</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>80</v>
@@ -6621,10 +6625,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6644,22 +6648,22 @@
         <v>80</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>80</v>
@@ -6708,7 +6712,7 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>81</v>
@@ -6720,13 +6724,13 @@
         <v>80</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>80</v>
@@ -6735,7 +6739,7 @@
         <v>80</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AP41" t="s" s="2">
         <v>80</v>
@@ -6743,10 +6747,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6757,7 +6761,7 @@
         <v>81</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>80</v>
@@ -6769,13 +6773,13 @@
         <v>80</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6826,13 +6830,13 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>80</v>
@@ -6844,7 +6848,7 @@
         <v>80</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>80</v>
@@ -6861,14 +6865,14 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6887,16 +6891,16 @@
         <v>80</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6934,19 +6938,19 @@
         <v>80</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AD43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>81</v>
@@ -6958,13 +6962,13 @@
         <v>80</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>80</v>
@@ -6981,10 +6985,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6995,7 +6999,7 @@
         <v>81</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>80</v>
@@ -7004,22 +7008,22 @@
         <v>80</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>80</v>
@@ -7068,25 +7072,25 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>80</v>
@@ -7095,7 +7099,7 @@
         <v>80</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AP44" t="s" s="2">
         <v>80</v>
@@ -7103,10 +7107,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7117,7 +7121,7 @@
         <v>81</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>80</v>
@@ -7126,19 +7130,19 @@
         <v>80</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7188,25 +7192,25 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>80</v>
@@ -7215,7 +7219,7 @@
         <v>80</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>80</v>
@@ -7223,10 +7227,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7237,7 +7241,7 @@
         <v>81</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>80</v>
@@ -7246,22 +7250,22 @@
         <v>80</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>80</v>
@@ -7310,25 +7314,25 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>80</v>
@@ -7337,7 +7341,7 @@
         <v>80</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AP46" t="s" s="2">
         <v>80</v>
@@ -7345,10 +7349,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7359,7 +7363,7 @@
         <v>81</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>80</v>
@@ -7368,20 +7372,20 @@
         <v>80</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>80</v>
@@ -7430,25 +7434,25 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>80</v>
@@ -7457,7 +7461,7 @@
         <v>80</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AP47" t="s" s="2">
         <v>80</v>
@@ -7465,10 +7469,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7479,7 +7483,7 @@
         <v>81</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>80</v>
@@ -7488,22 +7492,22 @@
         <v>80</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>80</v>
@@ -7552,25 +7556,25 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>80</v>
@@ -7579,7 +7583,7 @@
         <v>80</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AP48" t="s" s="2">
         <v>80</v>
@@ -7587,10 +7591,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7601,7 +7605,7 @@
         <v>81</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>80</v>
@@ -7610,22 +7614,22 @@
         <v>80</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>80</v>
@@ -7674,25 +7678,25 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>80</v>
@@ -7701,7 +7705,7 @@
         <v>80</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>80</v>
@@ -7709,10 +7713,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7720,10 +7724,10 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>80</v>
@@ -7732,22 +7736,22 @@
         <v>80</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>80</v>
@@ -7796,19 +7800,19 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>80</v>
@@ -7820,21 +7824,21 @@
         <v>80</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7857,17 +7861,17 @@
         <v>80</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>80</v>
@@ -7916,7 +7920,7 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>81</v>
@@ -7928,7 +7932,7 @@
         <v>80</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>80</v>
@@ -7951,10 +7955,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7965,7 +7969,7 @@
         <v>81</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>80</v>
@@ -7977,13 +7981,13 @@
         <v>80</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8034,13 +8038,13 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>80</v>
@@ -8052,7 +8056,7 @@
         <v>80</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>80</v>
@@ -8069,14 +8073,14 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8095,16 +8099,16 @@
         <v>80</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8154,7 +8158,7 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>81</v>
@@ -8166,13 +8170,13 @@
         <v>80</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>80</v>
@@ -8189,14 +8193,14 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8209,25 +8213,25 @@
         <v>80</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>80</v>
@@ -8276,7 +8280,7 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>81</v>
@@ -8288,13 +8292,13 @@
         <v>80</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>80</v>
@@ -8311,10 +8315,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8322,10 +8326,10 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>80</v>
@@ -8334,20 +8338,20 @@
         <v>80</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>80</v>
@@ -8372,13 +8376,13 @@
         <v>80</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>80</v>
@@ -8396,19 +8400,19 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>80</v>
@@ -8431,10 +8435,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8445,7 +8449,7 @@
         <v>81</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>80</v>
@@ -8454,20 +8458,20 @@
         <v>80</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>80</v>
@@ -8516,19 +8520,19 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>80</v>
@@ -8551,10 +8555,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8565,7 +8569,7 @@
         <v>81</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>80</v>
@@ -8577,19 +8581,19 @@
         <v>80</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>80</v>
@@ -8638,19 +8642,19 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>80</v>
@@ -8673,10 +8677,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8699,19 +8703,19 @@
         <v>80</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>80</v>
@@ -8760,7 +8764,7 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>81</v>
@@ -8772,25 +8776,25 @@
         <v>80</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AP58" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-coverage.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-coverage.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2269" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2269" uniqueCount="425">
   <si>
     <t>Property</t>
   </si>
@@ -262,10 +262,6 @@
   </si>
   <si>
     <t>*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
   </si>
   <si>
     <t>Insurance or medical plan or a payment agreement　保険または医療費支払いプラン、または合意された支払い方法</t>
@@ -1939,16 +1935,16 @@
         <v>80</v>
       </c>
       <c r="K2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="L2" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="M2" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="M2" t="s" s="2">
+      <c r="N2" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="N2" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2013,7 +2009,7 @@
         <v>80</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AL2" t="s" s="2">
         <v>31</v>
@@ -2033,10 +2029,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2047,28 +2043,28 @@
         <v>81</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="M3" t="s" s="2">
+      <c r="N3" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2118,13 +2114,13 @@
         <v>80</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>80</v>
@@ -2153,10 +2149,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2167,25 +2163,25 @@
         <v>81</v>
       </c>
       <c r="G4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I4" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J4" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J4" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="K4" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2236,19 +2232,19 @@
         <v>80</v>
       </c>
       <c r="AF4" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI4" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ4" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>80</v>
@@ -2271,10 +2267,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2285,28 +2281,28 @@
         <v>81</v>
       </c>
       <c r="G5" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I5" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H5" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I5" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J5" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2356,19 +2352,19 @@
         <v>80</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>80</v>
@@ -2391,10 +2387,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2405,7 +2401,7 @@
         <v>81</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>80</v>
@@ -2417,16 +2413,16 @@
         <v>80</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2452,43 +2448,43 @@
         <v>80</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="Y6" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="Z6" t="s" s="2">
+      <c r="AA6" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF6" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="AA6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>116</v>
-      </c>
       <c r="AG6" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>80</v>
@@ -2511,21 +2507,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>80</v>
@@ -2537,16 +2533,16 @@
         <v>80</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2596,25 +2592,25 @@
         <v>80</v>
       </c>
       <c r="AF7" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL7" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>80</v>
@@ -2631,14 +2627,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2657,16 +2653,16 @@
         <v>80</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2716,7 +2712,7 @@
         <v>80</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>81</v>
@@ -2734,7 +2730,7 @@
         <v>80</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>80</v>
@@ -2751,10 +2747,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2777,13 +2773,13 @@
         <v>80</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -2822,17 +2818,17 @@
         <v>80</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE9" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AF9" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="AF9" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>81</v>
@@ -2844,7 +2840,7 @@
         <v>80</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>80</v>
@@ -2867,13 +2863,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="C10" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>80</v>
@@ -2895,16 +2891,16 @@
         <v>80</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="M10" t="s" s="2">
+      <c r="N10" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -2954,7 +2950,7 @@
         <v>80</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>81</v>
@@ -2963,10 +2959,10 @@
         <v>82</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>80</v>
@@ -2989,13 +2985,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="C11" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>80</v>
@@ -3017,16 +3013,16 @@
         <v>80</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -3076,7 +3072,7 @@
         <v>80</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>81</v>
@@ -3085,10 +3081,10 @@
         <v>82</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>80</v>
@@ -3111,13 +3107,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="C12" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="C12" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>80</v>
@@ -3139,16 +3135,16 @@
         <v>80</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3198,7 +3194,7 @@
         <v>80</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>81</v>
@@ -3207,10 +3203,10 @@
         <v>82</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>80</v>
@@ -3233,14 +3229,14 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3253,25 +3249,25 @@
         <v>80</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L13" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="N13" t="s" s="2">
+      <c r="O13" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>80</v>
@@ -3320,7 +3316,7 @@
         <v>80</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>81</v>
@@ -3332,13 +3328,13 @@
         <v>80</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>80</v>
@@ -3355,10 +3351,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3378,22 +3374,22 @@
         <v>80</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="N14" t="s" s="2">
+      <c r="O14" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>80</v>
@@ -3442,7 +3438,7 @@
         <v>80</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>81</v>
@@ -3454,33 +3450,33 @@
         <v>80</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK14" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="AL14" t="s" s="2">
+      <c r="AM14" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="AM14" t="s" s="2">
+      <c r="AN14" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="AN14" t="s" s="2">
+      <c r="AO14" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="AO14" t="s" s="2">
+      <c r="AP14" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="AP14" t="s" s="2">
-        <v>178</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3488,34 +3484,34 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I15" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G15" t="s" s="2">
+      <c r="J15" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="J15" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="K15" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="N15" t="s" s="2">
+      <c r="O15" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>80</v>
@@ -3540,52 +3536,52 @@
         <v>80</v>
       </c>
       <c r="X15" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="Y15" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="Y15" t="s" s="2">
+      <c r="Z15" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="Z15" t="s" s="2">
+      <c r="AA15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="AA15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK15" t="s" s="2">
+      <c r="AL15" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AM15" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>80</v>
@@ -3599,10 +3595,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3613,31 +3609,31 @@
         <v>81</v>
       </c>
       <c r="G16" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J16" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H16" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J16" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="K16" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="N16" t="s" s="2">
+      <c r="O16" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>80</v>
@@ -3662,58 +3658,58 @@
         <v>80</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Y16" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="Z16" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="Z16" t="s" s="2">
+      <c r="AA16" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL16" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM16" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="AA16" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM16" t="s" s="2">
+      <c r="AN16" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO16" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="AP16" t="s" s="2">
         <v>80</v>
@@ -3721,10 +3717,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3735,31 +3731,31 @@
         <v>81</v>
       </c>
       <c r="G17" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J17" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H17" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J17" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="K17" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="N17" t="s" s="2">
+      <c r="O17" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>80</v>
@@ -3808,19 +3804,19 @@
         <v>80</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>80</v>
@@ -3829,24 +3825,24 @@
         <v>80</v>
       </c>
       <c r="AM17" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AN17" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="AN17" t="s" s="2">
+      <c r="AO17" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="AO17" t="s" s="2">
+      <c r="AP17" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="AP17" t="s" s="2">
-        <v>209</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3857,31 +3853,31 @@
         <v>81</v>
       </c>
       <c r="G18" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J18" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H18" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J18" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="K18" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="N18" t="s" s="2">
+      <c r="O18" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>80</v>
@@ -3930,19 +3926,19 @@
         <v>80</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>80</v>
@@ -3951,24 +3947,24 @@
         <v>80</v>
       </c>
       <c r="AM18" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AN18" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="AN18" t="s" s="2">
+      <c r="AO18" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="AO18" t="s" s="2">
+      <c r="AP18" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="AP18" t="s" s="2">
-        <v>209</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3979,29 +3975,29 @@
         <v>81</v>
       </c>
       <c r="G19" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J19" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J19" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="K19" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>80</v>
@@ -4050,19 +4046,19 @@
         <v>80</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>80</v>
@@ -4071,24 +4067,24 @@
         <v>80</v>
       </c>
       <c r="AM19" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AN19" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="AN19" t="s" s="2">
+      <c r="AO19" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="AO19" t="s" s="2">
+      <c r="AP19" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="AP19" t="s" s="2">
-        <v>209</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4096,34 +4092,34 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J20" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G20" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J20" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="K20" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="N20" t="s" s="2">
+      <c r="O20" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>80</v>
@@ -4172,45 +4168,45 @@
         <v>80</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM20" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AN20" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="AN20" t="s" s="2">
+      <c r="AO20" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="AO20" t="s" s="2">
+      <c r="AP20" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="AP20" t="s" s="2">
-        <v>209</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4221,31 +4217,31 @@
         <v>81</v>
       </c>
       <c r="G21" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J21" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J21" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="K21" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="N21" t="s" s="2">
+      <c r="O21" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>80</v>
@@ -4294,19 +4290,19 @@
         <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>80</v>
@@ -4318,10 +4314,10 @@
         <v>80</v>
       </c>
       <c r="AN21" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AO21" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="AO21" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>80</v>
@@ -4329,10 +4325,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4343,7 +4339,7 @@
         <v>81</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>80</v>
@@ -4355,19 +4351,19 @@
         <v>80</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="N22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>80</v>
@@ -4392,55 +4388,55 @@
         <v>80</v>
       </c>
       <c r="X22" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="Y22" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="Y22" t="s" s="2">
+      <c r="Z22" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="Z22" t="s" s="2">
+      <c r="AA22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN22" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>80</v>
@@ -4451,10 +4447,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4465,31 +4461,31 @@
         <v>81</v>
       </c>
       <c r="G23" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J23" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J23" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="K23" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="N23" t="s" s="2">
+      <c r="O23" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>80</v>
@@ -4538,34 +4534,34 @@
         <v>80</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AM23" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="AM23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO23" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO23" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>80</v>
@@ -4573,10 +4569,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4584,7 +4580,7 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>82</v>
@@ -4596,22 +4592,22 @@
         <v>80</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="N24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>80</v>
@@ -4660,10 +4656,10 @@
         <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>82</v>
@@ -4672,7 +4668,7 @@
         <v>80</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>80</v>
@@ -4681,24 +4677,24 @@
         <v>80</v>
       </c>
       <c r="AM24" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AN24" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="AN24" t="s" s="2">
+      <c r="AO24" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="AO24" t="s" s="2">
+      <c r="AP24" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="AP24" t="s" s="2">
-        <v>263</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4721,19 +4717,19 @@
         <v>80</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="N25" t="s" s="2">
+      <c r="O25" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>80</v>
@@ -4782,7 +4778,7 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>81</v>
@@ -4794,7 +4790,7 @@
         <v>80</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>80</v>
@@ -4817,10 +4813,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4831,7 +4827,7 @@
         <v>81</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>80</v>
@@ -4843,13 +4839,13 @@
         <v>80</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4900,25 +4896,25 @@
         <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>80</v>
@@ -4935,14 +4931,14 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4961,16 +4957,16 @@
         <v>80</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="M27" t="s" s="2">
-        <v>277</v>
-      </c>
       <c r="N27" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5020,7 +5016,7 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>81</v>
@@ -5032,13 +5028,13 @@
         <v>80</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>80</v>
@@ -5055,14 +5051,14 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -5075,25 +5071,25 @@
         <v>80</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="M28" t="s" s="2">
-        <v>282</v>
-      </c>
       <c r="N28" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="O28" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>80</v>
@@ -5142,7 +5138,7 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>81</v>
@@ -5154,13 +5150,13 @@
         <v>80</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>80</v>
@@ -5177,10 +5173,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5188,34 +5184,34 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J29" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G29" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J29" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="K29" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="N29" t="s" s="2">
+      <c r="O29" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>80</v>
@@ -5240,14 +5236,14 @@
         <v>80</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Y29" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="Z29" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="Z29" t="s" s="2">
-        <v>290</v>
-      </c>
       <c r="AA29" t="s" s="2">
         <v>80</v>
       </c>
@@ -5264,19 +5260,19 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>80</v>
@@ -5299,10 +5295,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5310,34 +5306,34 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J30" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G30" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H30" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J30" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="K30" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="N30" t="s" s="2">
+      <c r="O30" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>80</v>
@@ -5386,19 +5382,19 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>80</v>
@@ -5410,21 +5406,21 @@
         <v>80</v>
       </c>
       <c r="AN30" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AO30" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="AO30" t="s" s="2">
+      <c r="AP30" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="AP30" t="s" s="2">
-        <v>298</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5435,29 +5431,29 @@
         <v>81</v>
       </c>
       <c r="G31" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J31" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J31" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="K31" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>80</v>
@@ -5506,19 +5502,19 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>80</v>
@@ -5530,21 +5526,21 @@
         <v>80</v>
       </c>
       <c r="AN31" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AO31" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="AO31" t="s" s="2">
+      <c r="AP31" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="AP31" t="s" s="2">
-        <v>298</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5555,31 +5551,31 @@
         <v>81</v>
       </c>
       <c r="G32" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J32" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J32" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="K32" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="N32" t="s" s="2">
+      <c r="O32" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>80</v>
@@ -5628,19 +5624,19 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>80</v>
@@ -5655,7 +5651,7 @@
         <v>80</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AP32" t="s" s="2">
         <v>80</v>
@@ -5663,10 +5659,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5677,29 +5673,29 @@
         <v>81</v>
       </c>
       <c r="G33" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J33" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J33" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="K33" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>80</v>
@@ -5748,19 +5744,19 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>80</v>
@@ -5772,7 +5768,7 @@
         <v>80</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>80</v>
@@ -5783,14 +5779,14 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5809,19 +5805,19 @@
         <v>80</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="N34" t="s" s="2">
+      <c r="O34" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>80</v>
@@ -5870,7 +5866,7 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>81</v>
@@ -5882,7 +5878,7 @@
         <v>80</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>80</v>
@@ -5905,10 +5901,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5919,7 +5915,7 @@
         <v>81</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>80</v>
@@ -5931,13 +5927,13 @@
         <v>80</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5988,25 +5984,25 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>80</v>
@@ -6023,14 +6019,14 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -6049,16 +6045,16 @@
         <v>80</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="M36" t="s" s="2">
-        <v>277</v>
-      </c>
       <c r="N36" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6108,7 +6104,7 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>81</v>
@@ -6120,13 +6116,13 @@
         <v>80</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>80</v>
@@ -6143,14 +6139,14 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -6163,25 +6159,25 @@
         <v>80</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="M37" t="s" s="2">
-        <v>282</v>
-      </c>
       <c r="N37" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="O37" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>80</v>
@@ -6230,7 +6226,7 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>81</v>
@@ -6242,13 +6238,13 @@
         <v>80</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>80</v>
@@ -6265,10 +6261,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6279,31 +6275,31 @@
         <v>81</v>
       </c>
       <c r="G38" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J38" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J38" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="K38" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="N38" t="s" s="2">
+      <c r="O38" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>80</v>
@@ -6328,14 +6324,14 @@
         <v>80</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Y38" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="Z38" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="Z38" t="s" s="2">
-        <v>329</v>
-      </c>
       <c r="AA38" t="s" s="2">
         <v>80</v>
       </c>
@@ -6352,19 +6348,19 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>80</v>
@@ -6387,10 +6383,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6401,7 +6397,7 @@
         <v>81</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>80</v>
@@ -6413,13 +6409,13 @@
         <v>80</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6470,25 +6466,25 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>80</v>
@@ -6505,14 +6501,14 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6531,16 +6527,16 @@
         <v>80</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="M40" t="s" s="2">
-        <v>277</v>
-      </c>
       <c r="N40" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6578,19 +6574,19 @@
         <v>80</v>
       </c>
       <c r="AB40" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE40" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="AC40" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>138</v>
-      </c>
       <c r="AF40" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>81</v>
@@ -6602,13 +6598,13 @@
         <v>80</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>80</v>
@@ -6625,10 +6621,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6648,22 +6644,22 @@
         <v>80</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="N41" t="s" s="2">
+      <c r="O41" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>80</v>
@@ -6712,7 +6708,7 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>81</v>
@@ -6724,22 +6720,22 @@
         <v>80</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL41" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO41" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO41" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="AP41" t="s" s="2">
         <v>80</v>
@@ -6747,10 +6743,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6761,7 +6757,7 @@
         <v>81</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>80</v>
@@ -6773,13 +6769,13 @@
         <v>80</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6830,25 +6826,25 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL42" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>80</v>
@@ -6865,14 +6861,14 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6891,16 +6887,16 @@
         <v>80</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="M43" t="s" s="2">
-        <v>277</v>
-      </c>
       <c r="N43" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6938,19 +6934,19 @@
         <v>80</v>
       </c>
       <c r="AB43" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE43" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="AC43" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>138</v>
-      </c>
       <c r="AF43" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>81</v>
@@ -6962,13 +6958,13 @@
         <v>80</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>80</v>
@@ -6985,10 +6981,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6999,31 +6995,31 @@
         <v>81</v>
       </c>
       <c r="G44" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J44" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J44" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="K44" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="N44" t="s" s="2">
+      <c r="O44" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>80</v>
@@ -7072,34 +7068,34 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="AG44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL44" t="s" s="2">
+      <c r="AM44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO44" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO44" t="s" s="2">
-        <v>351</v>
       </c>
       <c r="AP44" t="s" s="2">
         <v>80</v>
@@ -7107,10 +7103,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7121,28 +7117,28 @@
         <v>81</v>
       </c>
       <c r="G45" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J45" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J45" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="K45" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7192,34 +7188,34 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL45" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="AG45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL45" t="s" s="2">
+      <c r="AM45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO45" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO45" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>80</v>
@@ -7227,10 +7223,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7241,31 +7237,31 @@
         <v>81</v>
       </c>
       <c r="G46" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J46" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J46" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="K46" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="N46" t="s" s="2">
+      <c r="O46" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>80</v>
@@ -7314,34 +7310,34 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL46" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="AG46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL46" t="s" s="2">
+      <c r="AM46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO46" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO46" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="AP46" t="s" s="2">
         <v>80</v>
@@ -7349,10 +7345,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7363,29 +7359,29 @@
         <v>81</v>
       </c>
       <c r="G47" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J47" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J47" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="K47" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>80</v>
@@ -7434,34 +7430,34 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL47" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="AG47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL47" t="s" s="2">
+      <c r="AM47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO47" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO47" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="AP47" t="s" s="2">
         <v>80</v>
@@ -7469,10 +7465,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7483,31 +7479,31 @@
         <v>81</v>
       </c>
       <c r="G48" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J48" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J48" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="K48" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="N48" t="s" s="2">
+      <c r="O48" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>80</v>
@@ -7556,34 +7552,34 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL48" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="AG48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL48" t="s" s="2">
+      <c r="AM48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO48" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO48" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="AP48" t="s" s="2">
         <v>80</v>
@@ -7591,10 +7587,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7605,31 +7601,31 @@
         <v>81</v>
       </c>
       <c r="G49" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J49" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J49" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="K49" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="N49" t="s" s="2">
+      <c r="O49" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>80</v>
@@ -7678,34 +7674,34 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL49" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="AG49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL49" t="s" s="2">
+      <c r="AM49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO49" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO49" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>80</v>
@@ -7713,10 +7709,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7724,34 +7720,34 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J50" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G50" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J50" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="K50" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="N50" t="s" s="2">
+      <c r="O50" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>80</v>
@@ -7800,19 +7796,19 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>80</v>
@@ -7824,21 +7820,21 @@
         <v>80</v>
       </c>
       <c r="AN50" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AO50" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="AO50" t="s" s="2">
+      <c r="AP50" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="AP50" t="s" s="2">
-        <v>298</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7861,17 +7857,17 @@
         <v>80</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>80</v>
@@ -7920,7 +7916,7 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>81</v>
@@ -7932,7 +7928,7 @@
         <v>80</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>80</v>
@@ -7955,10 +7951,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7969,7 +7965,7 @@
         <v>81</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>80</v>
@@ -7981,13 +7977,13 @@
         <v>80</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8038,25 +8034,25 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL52" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>80</v>
@@ -8073,14 +8069,14 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8099,16 +8095,16 @@
         <v>80</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="M53" t="s" s="2">
-        <v>277</v>
-      </c>
       <c r="N53" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8158,7 +8154,7 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>81</v>
@@ -8170,13 +8166,13 @@
         <v>80</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>80</v>
@@ -8193,14 +8189,14 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8213,25 +8209,25 @@
         <v>80</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="M54" t="s" s="2">
-        <v>282</v>
-      </c>
       <c r="N54" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="O54" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>80</v>
@@ -8280,7 +8276,7 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>81</v>
@@ -8292,13 +8288,13 @@
         <v>80</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>80</v>
@@ -8315,10 +8311,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8326,32 +8322,32 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J55" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G55" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J55" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="K55" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>80</v>
@@ -8376,14 +8372,14 @@
         <v>80</v>
       </c>
       <c r="X55" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="Y55" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="Y55" t="s" s="2">
+      <c r="Z55" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="Z55" t="s" s="2">
-        <v>409</v>
-      </c>
       <c r="AA55" t="s" s="2">
         <v>80</v>
       </c>
@@ -8400,19 +8396,19 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>80</v>
@@ -8435,10 +8431,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8449,29 +8445,29 @@
         <v>81</v>
       </c>
       <c r="G56" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J56" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J56" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="K56" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>412</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>80</v>
@@ -8520,19 +8516,19 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>80</v>
@@ -8555,10 +8551,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8569,7 +8565,7 @@
         <v>81</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>80</v>
@@ -8581,19 +8577,19 @@
         <v>80</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="N57" t="s" s="2">
+      <c r="O57" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>418</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>80</v>
@@ -8642,19 +8638,19 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>80</v>
@@ -8677,10 +8673,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8703,19 +8699,19 @@
         <v>80</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="N58" t="s" s="2">
+      <c r="O58" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>424</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>80</v>
@@ -8764,7 +8760,7 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>81</v>
@@ -8776,25 +8772,25 @@
         <v>80</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AP58" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-coverage.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-coverage.xlsx
@@ -295,13 +295,13 @@
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+    <t>このアーティファクトの論理ID / Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>リソースのURLで使用されるリソースの論理ID。割り当てられたら、この値は変更されません。 / The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>リソースにIDがないのは、IDが作成操作を使用してサーバーに送信されている場合です。 / The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -314,16 +314,16 @@
 </t>
   </si>
   <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+    <t>リソースに関するメタデータ / Metadata about the resource</t>
+  </si>
+  <si>
+    <t>リソースに関するメタデータ。これは、インフラストラクチャによって維持されるコンテンツです。コンテンツの変更は、常にリソースのバージョンの変更に関連付けられているとは限りません。 / The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
   </si>
   <si>
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
@@ -334,13 +334,13 @@
 </t>
   </si>
   <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+    <t>このコンテンツが作成されたルールのセット / A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>リソースが構築されたときに従った一連のルールへの参照。コンテンツの処理時に理解する必要があります。多くの場合、これは他のプロファイルなどとともに特別なルールを定義する実装ガイドへの参照です。 / A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>このルールセットを主張することは、コンテンツが限られた取引パートナーのセットによってのみ理解されることを制限します。これにより、本質的に長期的にデータの有用性が制限されます。ただし、既存の健康エコシステムは非常に破壊されており、一般的に計算可能な意味でデータを定義、収集、交換する準備ができていません。可能な限り、実装者や仕様ライターはこの要素の使用を避ける必要があります。多くの場合、使用する場合、URLは、これらの特別なルールを他のプロファイル、バリューセットなどとともに叙述(Narative)の一部として定義する実装ガイドへの参照です。 / Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
   </si>
   <si>
     <t>Resource.implicitRules</t>
@@ -353,19 +353,19 @@
 </t>
   </si>
   <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+    <t>リソースコンテンツの言語 / Language of the resource content</t>
+  </si>
+  <si>
+    <t>リソースが書かれている基本言語。 / The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>言語は、インデックス作成とアクセシビリティをサポートするために提供されます（通常、テキストから音声までのサービスなどのサービスが言語タグを使用します）。叙述(Narative)のHTML言語タグは、叙述(Narative)に適用されます。リソース上の言語タグを使用して、リソース内のデータから生成された他のプレゼンテーションの言語を指定できます。すべてのコンテンツが基本言語である必要はありません。リソース。言語は、叙述(Narative)に自動的に適用されると想定されるべきではありません。言語が指定されている場合、HTMLのDIV要素にも指定されている場合（XML：LangとHTML Lang属性の関係については、HTML5のルールを参照してください）。 / Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
   </si>
   <si>
     <t>preferred</t>
   </si>
   <si>
-    <t>A human language.</t>
+    <t>人間の言語。 / A human language.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -385,13 +385,13 @@
 </t>
   </si>
   <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>人間の解釈のためのリソースのテキスト概要 / Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>リソースの概要を含み、人間へのリソースの内容を表すために使用できる人間の読み取り可能な叙述(Narative)。叙述(Narative)はすべての構造化されたデータをエンコードする必要はありませんが、人間が叙述(Narative)を読むだけで「臨床的に安全」にするために十分な詳細を含める必要があります。リソースの定義は、臨床的安全を確保するために、叙述(Narative)で表現するコンテンツを定義する場合があります。 / A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>含まれるリソースには叙述(Narative)がありません。含まれていないリソースには叙述(Narative)が必要です。場合によっては、リソースには、追加の個別のデータがほとんどまたはまったくないテキストのみがあります（すべてのMinoccur = 1要素が満たされている限り）。これは、情報がtext blob (バイナリー ラージ オブジェクト)としてキャプチャされるレガシーシステムからのデータ、またはテキストが生またはナレーションされ、エンコードされた情報が後で追加される場合に必要になる場合があります。 / Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
   </si>
   <si>
     <t>DomainResource.text</t>
@@ -411,13 +411,13 @@
 </t>
   </si>
   <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+    <t>インラインリソースが含まれています / Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>これらのリソースには、それらを含むリソースを除いて独立した存在はありません - 独立して特定することはできず、独自の独立したトランザクションスコープを持つこともできません。 / These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>識別が失われると、コンテンツを適切に識別できる場合は、これを行うべきではありません。含まれるリソースには、メタ要素にプロファイルとタグがある場合がありますが、セキュリティラベルはありません。 / This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
@@ -449,8 +449,8 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:両方ではなく、拡張または値[x]が必要です / Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Coverage.extension:insuredPersonSymbol</t>
@@ -521,17 +521,18 @@
 user content</t>
   </si>
   <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>無視できない拡張機能 / Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>リソースの基本的な定義の一部ではなく、それを含む要素の理解および/または含有要素の子孫の理解を変更するために使用される場合があります。通常、修飾子要素は否定または資格を提供します。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義することが許可されていますが、拡張機能の定義の一部として満たされる一連の要件があります。アプリケーションの処理リソースは、修飾子拡張機能をチェックする必要があります。
+モディファイア拡張は、リソースまたはdomainResource上の要素の意味を変更してはなりません（修飾軸自体の意味を変更することはできません）。 / May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+    <t>拡張機能を使用または定義する機関や管轄権に関係なく、アプリケーション、プロジェクト、または標準による拡張機能の使用に関連するスティグマはありません。拡張機能の使用は、FHIR仕様がすべての人にコアレベルのシンプルさを保持できるようにするものです。 / There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>修飾子拡張機能により、安全に無視できる大部分の拡張機能と明確に区別できるように、安全に無視できない拡張機能が可能になります。これにより、実装者が拡張の存在を禁止する必要性を排除することにより、相互運用性が促進されます。詳細については、[修飾子拡張の定義]（拡張性.html＃modifierextension）を参照してください。 / Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -583,7 +584,7 @@
     <t>Coverage.status</t>
   </si>
   <si>
-    <t>active | cancelled | draft | entered-in-error</t>
+    <t>アクティブ|キャンセル|ドラフト|エラーに入った / active | cancelled | draft | entered-in-error</t>
   </si>
   <si>
     <t>The status of the resource instance.
@@ -601,7 +602,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>A code specifying the state of the resource instance.</t>
+    <t>リソースインスタンスの状態を指定するコード。 / A code specifying the state of the resource instance.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/fm-status|4.0.1</t>
@@ -639,7 +640,7 @@
 カバレッジの適用順序は、カバレッジのタイプによって異なる。</t>
   </si>
   <si>
-    <t>The type of insurance: public health, worker compensation; private accident, auto, private health, etc.) or a direct payment by an individual or organization.</t>
+    <t>保険の種類：公衆衛生、労働者補償。個人的な事故、自動車、民間の健康など）または個人または組織による直接支払い。 / The type of insurance: public health, worker compensation; private accident, auto, private health, etc.) or a direct payment by an individual or organization.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/coverage-type</t>
@@ -736,7 +737,7 @@
 </t>
   </si>
   <si>
-    <t>Plan beneficiary</t>
+    <t>受益者を計画します / Plan beneficiary</t>
   </si>
   <si>
     <t>The party who benefits from the insurance coverage; the patient when products and/or services are provided.
@@ -806,7 +807,7 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>The relationship between the Subscriber and the Beneficiary (insured/covered party/patient).</t>
+    <t>加入者と受益者（被保険者/対象当事者/患者）の関係。 / The relationship between the Subscriber and the Beneficiary (insured/covered party/patient).</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/subscriber-relationship</t>
@@ -822,7 +823,7 @@
 </t>
   </si>
   <si>
-    <t>Coverage start and end dates</t>
+    <t>カバレッジの開始日と終了日 / Coverage start and end dates</t>
   </si>
   <si>
     <t>Time period during which the coverage is in force. A missing start date indicates the start date isn't known, a missing end date means the coverage is continuing to be in force.
@@ -862,7 +863,7 @@
 </t>
   </si>
   <si>
-    <t>Issuer of the policy</t>
+    <t>ポリシーの発行者 / Issuer of the policy</t>
   </si>
   <si>
     <t>The program or plan underwriter or payor including both insurance and non-insurance agreements, such as patient-pay agreements.
@@ -898,7 +899,7 @@
 </t>
   </si>
   <si>
-    <t>Additional coverage classifications</t>
+    <t>追加のカバレッジ分類 / Additional coverage classifications</t>
   </si>
   <si>
     <t>A suite of underwriter specific classifiers.
@@ -916,10 +917,10 @@
     <t>Coverage.class.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+    <t>要素間参照のための一意のID / Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>リソース内の要素の一意のID（内部参照用）。これは、スペースを含まない文字列値である場合があります。 / Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
     <t>Element.id</t>
@@ -931,10 +932,10 @@
     <t>Coverage.class.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>実装で定義された追加のコンテンツ / Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>要素の基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -947,10 +948,11 @@
 user contentmodifiers</t>
   </si>
   <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>認識されていなくても無視できない拡張機能 / Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>要素の基本的な定義の一部ではなく、それが含まれている要素の理解、および/または含まれる要素の子孫の理解を変更するために使用される場合があります。通常、修飾子要素は否定または資格を提供します。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。アプリケーションの処理リソースは、修飾子拡張機能をチェックする必要があります。
+モディファイア拡張は、リソースまたはdomainResource上の要素の意味を変更してはなりません（修飾軸自体の意味を変更することはできません）。 / May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
@@ -960,7 +962,7 @@
     <t>Coverage.class.type</t>
   </si>
   <si>
-    <t>Type of class such as 'group' or 'plan'</t>
+    <t>「グループ」や「計画」などのクラスのタイプ / Type of class such as 'group' or 'plan'</t>
   </si>
   <si>
     <t>The type of classification for which an insurer-specific class label or number and optional name is provided, for example may be used to identify a class of coverage or employer group, Policy, Plan.
@@ -975,7 +977,7 @@
 保険者が発行した特定の健康カード番号のラベル。</t>
   </si>
   <si>
-    <t>The policy classifications, eg. Group, Plan, Class, etc.</t>
+    <t>ポリシー分類、例。グループ、プラン、クラスなど / The policy classifications, eg. Group, Plan, Class, etc.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/coverage-class</t>
@@ -984,7 +986,7 @@
     <t>Coverage.class.value</t>
   </si>
   <si>
-    <t>Value associated with the type</t>
+    <t>タイプに関連付けられた値 / Value associated with the type</t>
   </si>
   <si>
     <t>The alphanumeric string value associated with the insurer issued label.
@@ -1011,7 +1013,7 @@
     <t>Coverage.class.name</t>
   </si>
   <si>
-    <t>Human readable description of the type and value</t>
+    <t>タイプと価値の人間の読み取り可能な説明 / Human readable description of the type and value</t>
   </si>
   <si>
     <t>A short description for the class.
@@ -1029,7 +1031,7 @@
 </t>
   </si>
   <si>
-    <t>Relative order of the coverage</t>
+    <t>カバレッジの相対順序 / Relative order of the coverage</t>
   </si>
   <si>
     <t>The order of applicability of this coverage relative to other coverages which are currently in force. Note, there may be gaps in the numbering and this does not imply primary, secondary etc. as the specific positioning of coverages depends upon the episode of care.
@@ -1048,7 +1050,7 @@
     <t>Coverage.network</t>
   </si>
   <si>
-    <t>Insurer network</t>
+    <t>保険会社ネットワーク / Insurer network</t>
   </si>
   <si>
     <t>The insurer-specific identifier for the insurer-defined network of providers to which the beneficiary may seek treatment which will be covered at the 'in-network' rate, otherwise 'out of network' terms and conditions apply.
@@ -1097,7 +1099,7 @@
     <t>Coverage.costToBeneficiary.type</t>
   </si>
   <si>
-    <t>Cost category</t>
+    <t>コストカテゴリ / Cost category</t>
   </si>
   <si>
     <t>The category of patient centric costs associated with treatment.
@@ -1112,7 +1114,7 @@
 患者の金額に関連するカテゴリーを特定する必要がありました。</t>
   </si>
   <si>
-    <t>The types of services to which patient copayments are specified.</t>
+    <t>患者の自己負担が指定されているサービスの種類。 / The types of services to which patient copayments are specified.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/coverage-copay-type</t>
@@ -1134,16 +1136,16 @@
 </t>
   </si>
   <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+    <t>用語システムによって定義されたコード / Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>用語システムによって定義されたコードへの参照。 / A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>コードは、列挙されたCTなどの非常に正式な定義まで、列挙またはコードリストで非常にさりげなく定義される場合があります。詳細については、HL7 V3コアプリンシップを参照してください。コーディングの順序付けは未定義であり、意味を推測するために使用されません。一般に、せいぜい、コーディング値の1つのみがuserselected = trueとしてラベル付けされます。 / Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>コードシステム内の代替エンコーディング、および他のコードシステムへの翻訳が可能になります。 / Allows for alternative encodings within a code system, and translations to other code systems.</t>
   </si>
   <si>
     <t>CodeableConcept.coding</t>
@@ -1164,10 +1166,10 @@
     <t>Coverage.costToBeneficiary.type.coding.system</t>
   </si>
   <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+    <t>用語システムのアイデンティティ / Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>コード内のシンボルの意味を定義するコードシステムの識別。 / The identification of the code system that defines the meaning of the symbol in the code.</t>
   </si>
   <si>
     <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.
@@ -1175,7 +1177,7 @@
 "http://terminology.hl7.org/CodeSystem/coverage-copay-type"</t>
   </si>
   <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+    <t>シンボルの定義のソースについて明確である必要があります。 / Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
     <t>Coding.system</t>
@@ -1190,13 +1192,13 @@
     <t>Coverage.costToBeneficiary.type.coding.version</t>
   </si>
   <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+    <t>システムのバージョン - 関連する場合 / Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>このコードを選択するときに使用されたコードシステムのバージョン。コードの意味がバージョン全体で一貫しているため、適切にメンテナンスしたコードシステムでは報告されたバージョンを必要としないことに注意してください。ただし、これは一貫して保証することはできず、意味が一貫していることが保証されていない場合、バージョンを交換する必要があります。 / The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>用語がコードシステムバージョンを識別するために使用する文字列を明確に定義していない場合、推奨は、そのバージョンがバージョンの日付として公式に公開された日付（FHIR日付形式で表現）を使用することです。 / Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
   </si>
   <si>
     <t>Coding.version</t>
@@ -1211,17 +1213,17 @@
     <t>Coverage.costToBeneficiary.type.coding.code</t>
   </si>
   <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+    <t>システムによって定義された構文のシンボル / Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>システムによって定義された構文のシンボル。シンボルは、定義されたコードまたはコーディングシステムによって定義された構文の式（例：調整後）である場合があります。 / A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
   </si>
   <si>
     <t>Note that FHIR strings SHALL NOT exceed 1MB in size
 自己負担率を表すコード　"copaypct"</t>
   </si>
   <si>
-    <t>Need to refer to a particular code in the system.</t>
+    <t>システム内の特定のコードを参照する必要があります。 / Need to refer to a particular code in the system.</t>
   </si>
   <si>
     <t>Coding.code</t>
@@ -1236,13 +1238,13 @@
     <t>Coverage.costToBeneficiary.type.coding.display</t>
   </si>
   <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+    <t>システムによって定義された表現 / Representation defined by the system</t>
+  </si>
+  <si>
+    <t>システムのルールに従って、システム内のコードの意味の表現。 / A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>システムを知らない読者のために、コードの人間の読み取り可能な意味を持ち込むことができる必要があります。 / Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
   </si>
   <si>
     <t>Coding.display</t>
@@ -1261,16 +1263,16 @@
 </t>
   </si>
   <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+    <t>このコーディングがユーザーによって直接選択された場合 / If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>このコーディングがユーザーによって直接選択されたことを示します。利用可能なアイテムのピックリスト（コードまたはディスプレイ）。 / Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>一連の代替案の中で、直接選択されたコードが新しい翻訳の最も適切な出発点です。この要素の使用とその結果をより完全に明確にするためには、「直接選択された」ことについては曖昧さがあり、取引パートナー契約が必要になる場合があります。 / Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>これは、臨床安全基準として特定されています - この正確なシステム/コードペアは、いくつかのルールまたは言語処理に基づいてシステムによって推測されるのではなく、明示的に選択されたことです。 / This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
   </si>
   <si>
     <t>Coding.userSelected</t>
@@ -1285,16 +1287,16 @@
     <t>Coverage.costToBeneficiary.type.text</t>
   </si>
   <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+    <t>コンセプトの単純なテキスト表現 / Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>データを入力したユーザー、および/またはユーザーの意図された意味を表すユーザーによって見られる/選択/発言された概念の人間の言語表現。 / A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>多くの場合、テキストはコーディングの1つの表示名と同じです。 / Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>用語からのコードは、それらを使用する人間のすべてのニュアンスを使用して、常に正しい意味をキャプチャするとは限りません。または、適切なコードがまったくない場合があります。これらの場合、テキストはソースの完全な意味をキャプチャするために使用されます。 / The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
   </si>
   <si>
     <t>CodeableConcept.text</t>
@@ -1313,7 +1315,7 @@
 Money</t>
   </si>
   <si>
-    <t>The amount or percentage due from the beneficiary</t>
+    <t>受益者からの金額または割合 / The amount or percentage due from the beneficiary</t>
   </si>
   <si>
     <t>The amount due from the patient for the cost category.
@@ -1331,7 +1333,7 @@
     <t>Coverage.costToBeneficiary.exception</t>
   </si>
   <si>
-    <t>Exceptions for patient payments</t>
+    <t>患者の支払いの例外 / Exceptions for patient payments</t>
   </si>
   <si>
     <t>A suite of codes indicating exceptions or reductions to patient costs and their effective periods.
@@ -1350,7 +1352,7 @@
     <t>Coverage.costToBeneficiary.exception.type</t>
   </si>
   <si>
-    <t>Exception category</t>
+    <t>例外カテゴリ / Exception category</t>
   </si>
   <si>
     <t>The code for the specific exception.
@@ -1364,7 +1366,7 @@
     <t>example</t>
   </si>
   <si>
-    <t>The types of exceptions from the part or full value of financial obligations such as copays.</t>
+    <t>部品からの例外の種類またはCopaysなどの財務義務の完全な価値。 / The types of exceptions from the part or full value of financial obligations such as copays.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/coverage-financial-exception</t>
@@ -1373,7 +1375,7 @@
     <t>Coverage.costToBeneficiary.exception.period</t>
   </si>
   <si>
-    <t>The effective period of the exception</t>
+    <t>例外の有効期間 / The effective period of the exception</t>
   </si>
   <si>
     <t>The timeframe during when the exception is in force.
@@ -1764,7 +1766,7 @@
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="144.8984375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="207.19140625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="52.84375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-coverage.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-coverage.xlsx
@@ -545,7 +545,7 @@
 </t>
   </si>
   <si>
-    <t>Business Identifier for the coverage　このカバレッジに割り当てられた一意の識別子。【詳細参照】</t>
+    <t>Business Identifier for the coverage　このカバレッジに割り当てられた一意の識別子【詳細参照】</t>
   </si>
   <si>
     <t>A unique identifier assigned to this coverage.

--- a/jpcore-r4/develop/StructureDefinition-jp-coverage.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-coverage.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2269" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2227" uniqueCount="384">
   <si>
     <t>Property</t>
   </si>
@@ -127,132 +127,6 @@
   </si>
   <si>
     <t>constraint</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>Slice Name</t>
-  </si>
-  <si>
-    <t>Alias(s)</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Must Support?</t>
-  </si>
-  <si>
-    <t>Is Modifier?</t>
-  </si>
-  <si>
-    <t>Is Summary?</t>
-  </si>
-  <si>
-    <t>Type(s)</t>
-  </si>
-  <si>
-    <t>Short</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Requirements</t>
-  </si>
-  <si>
-    <t>Default Value</t>
-  </si>
-  <si>
-    <t>Meaning When Missing</t>
-  </si>
-  <si>
-    <t>Fixed Value</t>
-  </si>
-  <si>
-    <t>Pattern</t>
-  </si>
-  <si>
-    <t>Example</t>
-  </si>
-  <si>
-    <t>Minimum Value</t>
-  </si>
-  <si>
-    <t>Maximum Value</t>
-  </si>
-  <si>
-    <t>Maximum Length</t>
-  </si>
-  <si>
-    <t>Binding Strength</t>
-  </si>
-  <si>
-    <t>Binding Description</t>
-  </si>
-  <si>
-    <t>Binding Value Set</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Slicing Discriminator</t>
-  </si>
-  <si>
-    <t>Slicing Description</t>
-  </si>
-  <si>
-    <t>Slicing Ordered</t>
-  </si>
-  <si>
-    <t>Slicing Rules</t>
-  </si>
-  <si>
-    <t>Base Path</t>
-  </si>
-  <si>
-    <t>Base Min</t>
-  </si>
-  <si>
-    <t>Base Max</t>
-  </si>
-  <si>
-    <t>Condition(s)</t>
-  </si>
-  <si>
-    <t>Constraint(s)</t>
-  </si>
-  <si>
-    <t>Mapping: Workflow Pattern</t>
-  </si>
-  <si>
-    <t>Mapping: RIM Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: FiveWs Pattern Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: Canadian Dental Association eclaims standard</t>
-  </si>
-  <si>
-    <t>Mapping: HL7 v2 Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: Canadian Pharmacy Associaiton eclaims standard</t>
   </si>
   <si>
     <t/>
@@ -1548,10 +1422,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -1733,7 +1607,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP58"/>
+  <dimension ref="A1:AP57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1746,11 +1620,10 @@
     <col min="2" max="2" width="53.57421875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="24.95703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="128.91015625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1758,7045 +1631,6917 @@
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="10.53125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="207.19140625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="52.84375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="10.26171875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="42.796875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="20.703125" customWidth="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="19.62890625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="46.53125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="59.44921875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="16.3984375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="21.328125" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="51.2734375" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="62.85546875" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="15.9609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>38</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>39</v>
-      </c>
-      <c r="C1" t="s" s="1">
+      <c r="A1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="H1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K1" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="L1" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="M1" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="N1" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="O1" s="2"/>
+      <c r="P1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK1" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="I1" t="s" s="1">
-        <v>46</v>
-      </c>
-      <c r="J1" t="s" s="1">
-        <v>47</v>
-      </c>
-      <c r="K1" t="s" s="1">
-        <v>48</v>
-      </c>
-      <c r="L1" t="s" s="1">
-        <v>49</v>
-      </c>
-      <c r="M1" t="s" s="1">
-        <v>50</v>
-      </c>
-      <c r="N1" t="s" s="1">
-        <v>51</v>
-      </c>
-      <c r="O1" t="s" s="1">
-        <v>52</v>
-      </c>
-      <c r="P1" t="s" s="1">
-        <v>53</v>
-      </c>
-      <c r="Q1" t="s" s="1">
-        <v>54</v>
-      </c>
-      <c r="R1" t="s" s="1">
-        <v>55</v>
-      </c>
-      <c r="S1" t="s" s="1">
-        <v>56</v>
-      </c>
-      <c r="T1" t="s" s="1">
-        <v>57</v>
-      </c>
-      <c r="U1" t="s" s="1">
-        <v>58</v>
-      </c>
-      <c r="V1" t="s" s="1">
-        <v>59</v>
-      </c>
-      <c r="W1" t="s" s="1">
-        <v>60</v>
-      </c>
-      <c r="X1" t="s" s="1">
-        <v>61</v>
-      </c>
-      <c r="Y1" t="s" s="1">
-        <v>62</v>
-      </c>
-      <c r="Z1" t="s" s="1">
-        <v>63</v>
-      </c>
-      <c r="AA1" t="s" s="1">
-        <v>64</v>
-      </c>
-      <c r="AB1" t="s" s="1">
-        <v>65</v>
-      </c>
-      <c r="AC1" t="s" s="1">
-        <v>66</v>
-      </c>
-      <c r="AD1" t="s" s="1">
-        <v>67</v>
-      </c>
-      <c r="AE1" t="s" s="1">
-        <v>68</v>
-      </c>
-      <c r="AF1" t="s" s="1">
-        <v>69</v>
-      </c>
-      <c r="AG1" t="s" s="1">
-        <v>70</v>
-      </c>
-      <c r="AH1" t="s" s="1">
-        <v>71</v>
-      </c>
-      <c r="AI1" t="s" s="1">
-        <v>72</v>
-      </c>
-      <c r="AJ1" t="s" s="1">
-        <v>73</v>
-      </c>
-      <c r="AK1" t="s" s="1">
-        <v>74</v>
-      </c>
-      <c r="AL1" t="s" s="1">
-        <v>75</v>
-      </c>
-      <c r="AM1" t="s" s="1">
-        <v>76</v>
-      </c>
-      <c r="AN1" t="s" s="1">
-        <v>77</v>
-      </c>
-      <c r="AO1" t="s" s="1">
-        <v>78</v>
-      </c>
-      <c r="AP1" t="s" s="1">
-        <v>79</v>
+      <c r="AL1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="AM1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AO1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AP1" t="s" s="2">
+        <v>38</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>94</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AO3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="N4" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="N4" t="s" s="2">
+        <v>64</v>
+      </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AO4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AO5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="M6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="N6" t="s" s="2">
         <v>80</v>
-      </c>
-      <c r="I6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K6" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>114</v>
+        <v>38</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>115</v>
+        <v>38</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AO6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>124</v>
+        <v>90</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AO7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>130</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="AC8" s="2"/>
       <c r="AD8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AO8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="C9" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="D9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N9" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="N9" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AC9" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>38</v>
+      </c>
       <c r="AD9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>138</v>
+        <v>38</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AO9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>141</v>
+        <v>106</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>147</v>
+        <v>105</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>148</v>
+        <v>112</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>149</v>
+        <v>113</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>150</v>
+        <v>114</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>152</v>
+        <v>116</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>153</v>
+        <v>117</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>147</v>
+        <v>105</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>154</v>
+        <v>118</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="C12" t="s" s="2">
-        <v>155</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>156</v>
+        <v>92</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>157</v>
+        <v>120</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>158</v>
+        <v>121</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="O12" s="2"/>
+        <v>122</v>
+      </c>
+      <c r="O12" t="s" s="2">
+        <v>123</v>
+      </c>
       <c r="P12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>147</v>
+        <v>38</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>161</v>
+        <v>38</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>164</v>
+        <v>129</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="P13" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>166</v>
+        <v>125</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>140</v>
+        <v>59</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>132</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="AP13" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>168</v>
+        <v>67</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>169</v>
+        <v>138</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>170</v>
+        <v>139</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>171</v>
+        <v>140</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>172</v>
+        <v>141</v>
       </c>
       <c r="P14" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>173</v>
+        <v>145</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>174</v>
+        <v>146</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>176</v>
+        <v>38</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>177</v>
+        <v>38</v>
       </c>
       <c r="AP14" t="s" s="2">
-        <v>178</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>109</v>
+        <v>149</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="P15" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>184</v>
+        <v>71</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>185</v>
+        <v>154</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>186</v>
+        <v>155</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>187</v>
+        <v>38</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>188</v>
+        <v>38</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>189</v>
+        <v>156</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>80</v>
+        <v>157</v>
       </c>
       <c r="AP15" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>190</v>
+        <v>158</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>190</v>
+        <v>158</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>191</v>
+        <v>159</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>192</v>
+        <v>160</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>193</v>
+        <v>161</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>194</v>
+        <v>162</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>195</v>
+        <v>163</v>
       </c>
       <c r="P16" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>196</v>
+        <v>38</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>197</v>
+        <v>38</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>190</v>
+        <v>158</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>198</v>
+        <v>164</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="AP16" t="s" s="2">
-        <v>80</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>200</v>
+        <v>168</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>200</v>
+        <v>168</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>201</v>
+        <v>169</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>202</v>
+        <v>170</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>204</v>
+        <v>172</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>205</v>
+        <v>173</v>
       </c>
       <c r="P17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>200</v>
+        <v>168</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>207</v>
+        <v>165</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>208</v>
+        <v>166</v>
       </c>
       <c r="AP17" t="s" s="2">
-        <v>209</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>211</v>
+        <v>175</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>212</v>
+        <v>176</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>214</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>215</v>
+        <v>178</v>
       </c>
       <c r="P18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>207</v>
+        <v>165</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>208</v>
+        <v>166</v>
       </c>
       <c r="AP18" t="s" s="2">
-        <v>209</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>216</v>
+        <v>179</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>216</v>
+        <v>179</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>217</v>
+        <v>180</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>218</v>
+        <v>181</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="O19" t="s" s="2">
-        <v>220</v>
+        <v>184</v>
       </c>
       <c r="P19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>216</v>
+        <v>179</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>80</v>
+        <v>185</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>207</v>
+        <v>165</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>208</v>
+        <v>166</v>
       </c>
       <c r="AP19" t="s" s="2">
-        <v>209</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>221</v>
+        <v>186</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>221</v>
+        <v>186</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>222</v>
+        <v>175</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>223</v>
+        <v>187</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>224</v>
+        <v>188</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>225</v>
+        <v>189</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="P20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>221</v>
+        <v>186</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>227</v>
+        <v>38</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>206</v>
+        <v>38</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="AP20" t="s" s="2">
-        <v>209</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>228</v>
+        <v>193</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>228</v>
+        <v>193</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>217</v>
+        <v>149</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>229</v>
+        <v>194</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>231</v>
+        <v>196</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>232</v>
+        <v>197</v>
       </c>
       <c r="P21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>80</v>
+        <v>198</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>80</v>
+        <v>199</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>228</v>
+        <v>193</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>234</v>
+        <v>38</v>
       </c>
       <c r="AP21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>235</v>
+        <v>202</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>235</v>
+        <v>202</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>237</v>
+        <v>205</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>239</v>
+        <v>207</v>
       </c>
       <c r="P22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>240</v>
+        <v>38</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>241</v>
+        <v>38</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>242</v>
+        <v>38</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>235</v>
+        <v>202</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>80</v>
+        <v>208</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>80</v>
+        <v>209</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>80</v>
+        <v>210</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>243</v>
+        <v>38</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>80</v>
+        <v>211</v>
       </c>
       <c r="AP22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>244</v>
+        <v>212</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>244</v>
+        <v>212</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>245</v>
+        <v>213</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>246</v>
+        <v>214</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>247</v>
+        <v>215</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>248</v>
+        <v>216</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>249</v>
+        <v>217</v>
       </c>
       <c r="P23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>244</v>
+        <v>212</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>250</v>
+        <v>38</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>251</v>
+        <v>38</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>252</v>
+        <v>218</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>80</v>
+        <v>219</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>253</v>
+        <v>220</v>
       </c>
       <c r="AP23" t="s" s="2">
-        <v>80</v>
+        <v>221</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>255</v>
+        <v>223</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>257</v>
+        <v>225</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="P24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>260</v>
+        <v>38</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>261</v>
+        <v>38</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>262</v>
+        <v>38</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>263</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>264</v>
+        <v>228</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>264</v>
+        <v>228</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>265</v>
+        <v>175</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>266</v>
+        <v>229</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>269</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>264</v>
+        <v>231</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>80</v>
+        <v>232</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>270</v>
+        <v>233</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>270</v>
+        <v>233</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>217</v>
+        <v>92</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>271</v>
+        <v>234</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>122</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>273</v>
+        <v>236</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>274</v>
+        <v>232</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>275</v>
+        <v>237</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>275</v>
+        <v>237</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>161</v>
+        <v>238</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>276</v>
+        <v>239</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>277</v>
+        <v>240</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="O27" s="2"/>
+        <v>122</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>123</v>
+      </c>
       <c r="P27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>278</v>
+        <v>241</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>274</v>
+        <v>90</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>279</v>
+        <v>242</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>279</v>
+        <v>242</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>280</v>
+        <v>38</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>281</v>
+        <v>243</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>282</v>
+        <v>244</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>164</v>
+        <v>245</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>165</v>
+        <v>246</v>
       </c>
       <c r="P28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>80</v>
+        <v>198</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>80</v>
+        <v>247</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>80</v>
+        <v>248</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>283</v>
+        <v>242</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>140</v>
+        <v>59</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>284</v>
+        <v>249</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>284</v>
+        <v>249</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>285</v>
+        <v>250</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>286</v>
+        <v>251</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>287</v>
+        <v>252</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>288</v>
+        <v>253</v>
       </c>
       <c r="P29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>240</v>
+        <v>38</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>289</v>
+        <v>38</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>290</v>
+        <v>38</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>284</v>
+        <v>249</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>80</v>
+        <v>254</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>80</v>
+        <v>255</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>80</v>
+        <v>256</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>291</v>
+        <v>257</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>291</v>
+        <v>257</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>217</v>
+        <v>175</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>292</v>
+        <v>258</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>294</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>295</v>
+        <v>260</v>
       </c>
       <c r="P30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>291</v>
+        <v>257</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>296</v>
+        <v>254</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>297</v>
+        <v>255</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>298</v>
+        <v>256</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>299</v>
+        <v>261</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>299</v>
+        <v>261</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>217</v>
+        <v>262</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>300</v>
+        <v>263</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>264</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>265</v>
+      </c>
       <c r="O31" t="s" s="2">
-        <v>302</v>
+        <v>266</v>
       </c>
       <c r="P31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>299</v>
+        <v>261</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>296</v>
+        <v>38</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>297</v>
+        <v>192</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>298</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>303</v>
+        <v>267</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>303</v>
+        <v>267</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>304</v>
+        <v>175</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>305</v>
+        <v>268</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>307</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>308</v>
+        <v>270</v>
       </c>
       <c r="P32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>303</v>
+        <v>267</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>80</v>
+        <v>271</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>234</v>
+        <v>38</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>309</v>
+        <v>272</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>309</v>
+        <v>272</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>80</v>
+        <v>273</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>310</v>
+        <v>274</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>275</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>276</v>
+      </c>
       <c r="O33" t="s" s="2">
-        <v>312</v>
+        <v>277</v>
       </c>
       <c r="P33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>309</v>
+        <v>272</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>313</v>
+        <v>38</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>314</v>
+        <v>278</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>314</v>
+        <v>278</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>315</v>
+        <v>38</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>265</v>
+        <v>175</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>316</v>
+        <v>229</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>319</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>314</v>
+        <v>231</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>80</v>
+        <v>232</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>320</v>
+        <v>279</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>320</v>
+        <v>279</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>217</v>
+        <v>92</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>271</v>
+        <v>234</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>122</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>273</v>
+        <v>236</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>274</v>
+        <v>232</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>321</v>
+        <v>280</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>321</v>
+        <v>280</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>161</v>
+        <v>238</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>276</v>
+        <v>239</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>277</v>
+        <v>240</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="O36" s="2"/>
+        <v>122</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>123</v>
+      </c>
       <c r="P36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>278</v>
+        <v>241</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>274</v>
+        <v>90</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>322</v>
+        <v>281</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>322</v>
+        <v>281</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>280</v>
+        <v>38</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>164</v>
+        <v>284</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>165</v>
+        <v>285</v>
       </c>
       <c r="P37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>80</v>
+        <v>198</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>80</v>
+        <v>286</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>80</v>
+        <v>287</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>140</v>
+        <v>59</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>323</v>
+        <v>288</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>323</v>
+        <v>288</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>324</v>
+        <v>229</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>327</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>240</v>
+        <v>38</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>328</v>
+        <v>38</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>329</v>
+        <v>38</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>323</v>
+        <v>231</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>80</v>
+        <v>232</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>330</v>
+        <v>289</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>330</v>
+        <v>289</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>217</v>
+        <v>92</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>271</v>
+        <v>234</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>122</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>80</v>
+        <v>290</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>273</v>
+        <v>236</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>274</v>
+        <v>232</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>331</v>
+        <v>291</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>331</v>
+        <v>291</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>161</v>
+        <v>38</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>134</v>
+        <v>292</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="O40" s="2"/>
+        <v>295</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>296</v>
+      </c>
       <c r="P40" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>137</v>
+        <v>38</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>332</v>
+        <v>38</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>138</v>
+        <v>38</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>140</v>
+        <v>59</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>80</v>
+        <v>299</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>333</v>
+        <v>300</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>333</v>
+        <v>300</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>334</v>
+        <v>175</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>335</v>
+        <v>229</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>338</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>339</v>
+        <v>231</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>340</v>
+        <v>232</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>341</v>
+        <v>38</v>
       </c>
       <c r="AP41" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>342</v>
+        <v>301</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>342</v>
+        <v>301</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>217</v>
+        <v>92</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>271</v>
+        <v>234</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>122</v>
+      </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>80</v>
+        <v>290</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>273</v>
+        <v>236</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>274</v>
+        <v>232</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>343</v>
+        <v>302</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>343</v>
+        <v>302</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>161</v>
+        <v>38</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>134</v>
+        <v>61</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>276</v>
+        <v>303</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>277</v>
+        <v>304</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="O43" s="2"/>
+        <v>305</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>306</v>
+      </c>
       <c r="P43" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>137</v>
+        <v>38</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>332</v>
+        <v>38</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>138</v>
+        <v>38</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>278</v>
+        <v>307</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>140</v>
+        <v>59</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>274</v>
+        <v>308</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>80</v>
+        <v>309</v>
       </c>
       <c r="AP43" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>344</v>
+        <v>310</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>344</v>
+        <v>310</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>103</v>
+        <v>175</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>345</v>
+        <v>311</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>346</v>
+        <v>312</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>348</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>349</v>
+        <v>314</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>350</v>
+        <v>315</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>351</v>
+        <v>316</v>
       </c>
       <c r="AP44" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>352</v>
+        <v>317</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>352</v>
+        <v>317</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>217</v>
+        <v>67</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>353</v>
+        <v>318</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>354</v>
+        <v>319</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="O45" s="2"/>
+        <v>320</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>321</v>
+      </c>
       <c r="P45" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>356</v>
+        <v>322</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>357</v>
+        <v>323</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>358</v>
+        <v>324</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>359</v>
+        <v>325</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>359</v>
+        <v>325</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>109</v>
+        <v>175</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>360</v>
+        <v>326</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>362</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>363</v>
+        <v>328</v>
       </c>
       <c r="P46" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>364</v>
+        <v>329</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>365</v>
+        <v>330</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>366</v>
+        <v>331</v>
       </c>
       <c r="AP46" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>367</v>
+        <v>332</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>367</v>
+        <v>332</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>217</v>
+        <v>333</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>368</v>
+        <v>334</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>335</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>336</v>
+      </c>
       <c r="O47" t="s" s="2">
-        <v>370</v>
+        <v>337</v>
       </c>
       <c r="P47" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>371</v>
+        <v>338</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>372</v>
+        <v>339</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>373</v>
+        <v>340</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>374</v>
+        <v>341</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>374</v>
+        <v>341</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>375</v>
+        <v>175</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>376</v>
+        <v>342</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>377</v>
+        <v>343</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>378</v>
+        <v>344</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>379</v>
+        <v>345</v>
       </c>
       <c r="P48" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>380</v>
+        <v>346</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>381</v>
+        <v>347</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>382</v>
+        <v>348</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>383</v>
+        <v>349</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>383</v>
+        <v>349</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>217</v>
+        <v>350</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>384</v>
+        <v>351</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>385</v>
+        <v>352</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>386</v>
+        <v>353</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="P49" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>388</v>
+        <v>349</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>389</v>
+        <v>38</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>80</v>
+        <v>254</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>390</v>
+        <v>255</v>
       </c>
       <c r="AP49" t="s" s="2">
-        <v>80</v>
+        <v>256</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>391</v>
+        <v>355</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>391</v>
+        <v>355</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>392</v>
+        <v>223</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>393</v>
+        <v>356</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>395</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>396</v>
+        <v>277</v>
       </c>
       <c r="P50" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>391</v>
+        <v>355</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>296</v>
+        <v>38</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>297</v>
+        <v>38</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>298</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>397</v>
+        <v>358</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>397</v>
+        <v>358</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>265</v>
+        <v>175</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>398</v>
+        <v>229</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>399</v>
+        <v>230</v>
       </c>
       <c r="N51" s="2"/>
-      <c r="O51" t="s" s="2">
-        <v>319</v>
-      </c>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>397</v>
+        <v>231</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>80</v>
+        <v>232</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>400</v>
+        <v>359</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>400</v>
+        <v>359</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>217</v>
+        <v>92</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>271</v>
+        <v>234</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>122</v>
+      </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>273</v>
+        <v>236</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>274</v>
+        <v>232</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP52" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>401</v>
+        <v>360</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>401</v>
+        <v>360</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>161</v>
+        <v>238</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>276</v>
+        <v>239</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>277</v>
+        <v>240</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="O53" s="2"/>
+        <v>122</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>123</v>
+      </c>
       <c r="P53" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>278</v>
+        <v>241</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>274</v>
+        <v>90</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP53" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>402</v>
+        <v>361</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>402</v>
+        <v>361</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>280</v>
+        <v>38</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>281</v>
+        <v>362</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>165</v>
+        <v>364</v>
       </c>
       <c r="P54" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U54" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V54" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>80</v>
+        <v>365</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>80</v>
+        <v>366</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>80</v>
+        <v>367</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>283</v>
+        <v>361</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>140</v>
+        <v>59</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP54" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>403</v>
+        <v>368</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>403</v>
+        <v>368</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>404</v>
+        <v>369</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>405</v>
+        <v>370</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>406</v>
+        <v>371</v>
       </c>
       <c r="P55" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U55" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V55" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>407</v>
+        <v>38</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>408</v>
+        <v>38</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>409</v>
+        <v>38</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>403</v>
+        <v>368</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP55" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>410</v>
+        <v>372</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>410</v>
+        <v>372</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>245</v>
+        <v>333</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>411</v>
+        <v>373</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>374</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>375</v>
+      </c>
       <c r="O56" t="s" s="2">
-        <v>413</v>
+        <v>376</v>
       </c>
       <c r="P56" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U56" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V56" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>410</v>
+        <v>372</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP56" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>414</v>
+        <v>377</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>414</v>
+        <v>377</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>415</v>
+        <v>379</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>416</v>
+        <v>380</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>417</v>
+        <v>381</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>418</v>
+        <v>382</v>
       </c>
       <c r="P57" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q57" s="2"/>
       <c r="R57" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T57" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U57" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V57" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>414</v>
+        <v>377</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>80</v>
+        <v>232</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>80</v>
+        <v>383</v>
       </c>
       <c r="AP57" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="C58" s="2"/>
-      <c r="D58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E58" s="2"/>
-      <c r="F58" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K58" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="P58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q58" s="2"/>
-      <c r="R58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="AO58" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="AP58" t="s" s="2">
-        <v>209</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-coverage.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-coverage.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2227" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2269" uniqueCount="426">
   <si>
     <t>Property</t>
   </si>
@@ -127,6 +127,132 @@
   </si>
   <si>
     <t>constraint</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Slice Name</t>
+  </si>
+  <si>
+    <t>Alias(s)</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Must Support?</t>
+  </si>
+  <si>
+    <t>Is Modifier?</t>
+  </si>
+  <si>
+    <t>Is Summary?</t>
+  </si>
+  <si>
+    <t>Type(s)</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>Meaning When Missing</t>
+  </si>
+  <si>
+    <t>Fixed Value</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Minimum Value</t>
+  </si>
+  <si>
+    <t>Maximum Value</t>
+  </si>
+  <si>
+    <t>Maximum Length</t>
+  </si>
+  <si>
+    <t>Binding Strength</t>
+  </si>
+  <si>
+    <t>Binding Description</t>
+  </si>
+  <si>
+    <t>Binding Value Set</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Slicing Discriminator</t>
+  </si>
+  <si>
+    <t>Slicing Description</t>
+  </si>
+  <si>
+    <t>Slicing Ordered</t>
+  </si>
+  <si>
+    <t>Slicing Rules</t>
+  </si>
+  <si>
+    <t>Base Path</t>
+  </si>
+  <si>
+    <t>Base Min</t>
+  </si>
+  <si>
+    <t>Base Max</t>
+  </si>
+  <si>
+    <t>Condition(s)</t>
+  </si>
+  <si>
+    <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: Workflow Pattern</t>
+  </si>
+  <si>
+    <t>Mapping: RIM Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: FiveWs Pattern Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: Canadian Dental Association eclaims standard</t>
+  </si>
+  <si>
+    <t>Mapping: HL7 v2 Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: Canadian Pharmacy Associaiton eclaims standard</t>
   </si>
   <si>
     <t/>
@@ -1422,10 +1548,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -1607,7 +1733,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP57"/>
+  <dimension ref="A1:AP58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1620,10 +1746,11 @@
     <col min="2" max="2" width="53.57421875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="24.95703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="128.91015625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1631,6917 +1758,7045 @@
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="10.53125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="207.19140625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="52.84375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="10.26171875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="42.796875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="20.703125" customWidth="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="19.62890625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="46.53125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="16.3984375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="21.328125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="59.44921875" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="51.2734375" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="15.9609375" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="62.85546875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" t="s" s="2">
+      <c r="A1" t="s" s="1">
         <v>38</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" t="s" s="2">
+      <c r="B1" t="s" s="1">
         <v>39</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="C1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="H1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K1" t="s" s="2">
+      <c r="D1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="E1" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="M1" t="s" s="2">
+      <c r="F1" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="N1" t="s" s="2">
+      <c r="G1" t="s" s="1">
         <v>44</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK1" t="s" s="2">
+      <c r="H1" t="s" s="1">
         <v>45</v>
       </c>
-      <c r="AL1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="AM1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AO1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AP1" t="s" s="2">
-        <v>38</v>
+      <c r="I1" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="J1" t="s" s="1">
+        <v>47</v>
+      </c>
+      <c r="K1" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="L1" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="M1" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="N1" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="O1" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="P1" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="Q1" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="R1" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="S1" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="T1" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="U1" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="V1" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="W1" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="X1" t="s" s="1">
+        <v>61</v>
+      </c>
+      <c r="Y1" t="s" s="1">
+        <v>62</v>
+      </c>
+      <c r="Z1" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="AA1" t="s" s="1">
+        <v>64</v>
+      </c>
+      <c r="AB1" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="AC1" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="AD1" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="AE1" t="s" s="1">
+        <v>68</v>
+      </c>
+      <c r="AF1" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="AG1" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="AH1" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="AI1" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="AJ1" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="AK1" t="s" s="1">
+        <v>74</v>
+      </c>
+      <c r="AL1" t="s" s="1">
+        <v>75</v>
+      </c>
+      <c r="AM1" t="s" s="1">
+        <v>76</v>
+      </c>
+      <c r="AN1" t="s" s="1">
+        <v>77</v>
+      </c>
+      <c r="AO1" t="s" s="1">
+        <v>78</v>
+      </c>
+      <c r="AP1" t="s" s="1">
+        <v>79</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="N3" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="N3" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AO3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>64</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AO4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AO5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>38</v>
+        <v>115</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AO6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF7" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH7" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="AG7" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="AI7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>90</v>
+        <v>124</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AO7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>92</v>
+        <v>127</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="N8" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="N8" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AC8" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>38</v>
+        <v>132</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AO8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="C9" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>38</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AO9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>91</v>
+        <v>133</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>105</v>
+        <v>147</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>112</v>
+        <v>148</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>91</v>
+        <v>133</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>113</v>
+        <v>149</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>114</v>
+        <v>150</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>105</v>
+        <v>147</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="D12" t="s" s="2">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>92</v>
+        <v>156</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>120</v>
+        <v>157</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>121</v>
+        <v>158</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>123</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>127</v>
+        <v>162</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>128</v>
+        <v>163</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>129</v>
+        <v>164</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="P13" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>125</v>
+        <v>166</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>59</v>
+        <v>140</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>132</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="AP13" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>67</v>
+        <v>168</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>138</v>
+        <v>169</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>139</v>
+        <v>170</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>140</v>
+        <v>171</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>141</v>
+        <v>172</v>
       </c>
       <c r="P14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>146</v>
+        <v>174</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>147</v>
+        <v>175</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>38</v>
+        <v>176</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>38</v>
+        <v>177</v>
       </c>
       <c r="AP14" t="s" s="2">
-        <v>38</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>148</v>
+        <v>179</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>148</v>
+        <v>179</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>151</v>
+        <v>181</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>152</v>
+        <v>182</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>153</v>
+        <v>183</v>
       </c>
       <c r="P15" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>71</v>
+        <v>184</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>154</v>
+        <v>185</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>155</v>
+        <v>186</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>148</v>
+        <v>179</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>38</v>
+        <v>187</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>38</v>
+        <v>188</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>156</v>
+        <v>189</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>157</v>
+        <v>80</v>
       </c>
       <c r="AP15" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>159</v>
+        <v>191</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>161</v>
+        <v>193</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>163</v>
+        <v>195</v>
       </c>
       <c r="P16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>38</v>
+        <v>196</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>38</v>
+        <v>197</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>164</v>
+        <v>198</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>165</v>
+        <v>80</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="AP16" t="s" s="2">
-        <v>167</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>168</v>
+        <v>200</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>168</v>
+        <v>200</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>170</v>
+        <v>202</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>171</v>
+        <v>203</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>172</v>
+        <v>204</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>173</v>
+        <v>205</v>
       </c>
       <c r="P17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>168</v>
+        <v>200</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>164</v>
+        <v>206</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>165</v>
+        <v>207</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>166</v>
+        <v>208</v>
       </c>
       <c r="AP17" t="s" s="2">
-        <v>167</v>
+        <v>209</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>174</v>
+        <v>210</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>174</v>
+        <v>210</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>175</v>
+        <v>211</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>176</v>
+        <v>212</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>213</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="O18" t="s" s="2">
-        <v>178</v>
+        <v>215</v>
       </c>
       <c r="P18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>174</v>
+        <v>210</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>164</v>
+        <v>206</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>165</v>
+        <v>207</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>166</v>
+        <v>208</v>
       </c>
       <c r="AP18" t="s" s="2">
-        <v>167</v>
+        <v>209</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>179</v>
+        <v>216</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>179</v>
+        <v>216</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>180</v>
+        <v>217</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>181</v>
+        <v>218</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>183</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>184</v>
+        <v>220</v>
       </c>
       <c r="P19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>179</v>
+        <v>216</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>185</v>
+        <v>80</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>164</v>
+        <v>206</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>165</v>
+        <v>207</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>166</v>
+        <v>208</v>
       </c>
       <c r="AP19" t="s" s="2">
-        <v>167</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>186</v>
+        <v>221</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>186</v>
+        <v>221</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>175</v>
+        <v>222</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>189</v>
+        <v>225</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>190</v>
+        <v>226</v>
       </c>
       <c r="P20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>186</v>
+        <v>221</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>38</v>
+        <v>227</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>38</v>
+        <v>206</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="AP20" t="s" s="2">
-        <v>38</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>193</v>
+        <v>228</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>193</v>
+        <v>228</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>149</v>
+        <v>217</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>195</v>
+        <v>230</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>196</v>
+        <v>231</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>197</v>
+        <v>232</v>
       </c>
       <c r="P21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>198</v>
+        <v>80</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>199</v>
+        <v>80</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>193</v>
+        <v>228</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>201</v>
+        <v>233</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>38</v>
+        <v>234</v>
       </c>
       <c r="AP21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>202</v>
+        <v>235</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>202</v>
+        <v>235</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>204</v>
+        <v>236</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>206</v>
+        <v>238</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>207</v>
+        <v>239</v>
       </c>
       <c r="P22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>38</v>
+        <v>240</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>38</v>
+        <v>241</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>38</v>
+        <v>242</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>202</v>
+        <v>235</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>208</v>
+        <v>80</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>209</v>
+        <v>80</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>210</v>
+        <v>80</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>38</v>
+        <v>243</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>211</v>
+        <v>80</v>
       </c>
       <c r="AP22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>212</v>
+        <v>244</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>212</v>
+        <v>244</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>213</v>
+        <v>245</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>214</v>
+        <v>246</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>215</v>
+        <v>247</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>216</v>
+        <v>248</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>217</v>
+        <v>249</v>
       </c>
       <c r="P23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>212</v>
+        <v>244</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>38</v>
+        <v>250</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>38</v>
+        <v>251</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>218</v>
+        <v>252</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>219</v>
+        <v>80</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="AP23" t="s" s="2">
-        <v>221</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>223</v>
+        <v>255</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>224</v>
+        <v>256</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>226</v>
+        <v>258</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="P24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>38</v>
+        <v>260</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>38</v>
+        <v>261</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>38</v>
+        <v>262</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>38</v>
+        <v>263</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>228</v>
+        <v>264</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>228</v>
+        <v>264</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>175</v>
+        <v>265</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>229</v>
+        <v>266</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
+        <v>267</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="P25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>232</v>
+        <v>80</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>233</v>
+        <v>270</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>233</v>
+        <v>270</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>92</v>
+        <v>217</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>234</v>
+        <v>271</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>122</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>236</v>
+        <v>273</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>232</v>
+        <v>274</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>237</v>
+        <v>275</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>237</v>
+        <v>275</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>238</v>
+        <v>161</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>239</v>
+        <v>276</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>240</v>
+        <v>277</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>123</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>241</v>
+        <v>278</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>90</v>
+        <v>274</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>242</v>
+        <v>279</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>242</v>
+        <v>279</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>38</v>
+        <v>280</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>243</v>
+        <v>281</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>244</v>
+        <v>282</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>245</v>
+        <v>164</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>246</v>
+        <v>165</v>
       </c>
       <c r="P28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>198</v>
+        <v>80</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>247</v>
+        <v>80</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>248</v>
+        <v>80</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>242</v>
+        <v>283</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>59</v>
+        <v>140</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>38</v>
+        <v>132</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>249</v>
+        <v>284</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>249</v>
+        <v>284</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>250</v>
+        <v>285</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>251</v>
+        <v>286</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>252</v>
+        <v>287</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>253</v>
+        <v>288</v>
       </c>
       <c r="P29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>38</v>
+        <v>240</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>38</v>
+        <v>289</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>38</v>
+        <v>290</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>249</v>
+        <v>284</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>254</v>
+        <v>80</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>255</v>
+        <v>80</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>256</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>257</v>
+        <v>291</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>257</v>
+        <v>291</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>175</v>
+        <v>217</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>258</v>
+        <v>292</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>293</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>294</v>
+      </c>
       <c r="O30" t="s" s="2">
-        <v>260</v>
+        <v>295</v>
       </c>
       <c r="P30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>257</v>
+        <v>291</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>254</v>
+        <v>296</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>255</v>
+        <v>297</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>256</v>
+        <v>298</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>262</v>
+        <v>217</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>265</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>266</v>
+        <v>302</v>
       </c>
       <c r="P31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>38</v>
+        <v>296</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>192</v>
+        <v>297</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>38</v>
+        <v>298</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>267</v>
+        <v>303</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>267</v>
+        <v>303</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>175</v>
+        <v>304</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>268</v>
+        <v>305</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>306</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>307</v>
+      </c>
       <c r="O32" t="s" s="2">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c r="P32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>267</v>
+        <v>303</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>271</v>
+        <v>80</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>38</v>
+        <v>234</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>272</v>
+        <v>309</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>272</v>
+        <v>309</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>273</v>
+        <v>80</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>274</v>
+        <v>310</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>276</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>277</v>
+        <v>312</v>
       </c>
       <c r="P33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>272</v>
+        <v>309</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>38</v>
+        <v>313</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>38</v>
+        <v>315</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>175</v>
+        <v>265</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>229</v>
+        <v>316</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
+        <v>317</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>319</v>
+      </c>
       <c r="P34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>231</v>
+        <v>314</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>232</v>
+        <v>80</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>279</v>
+        <v>320</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>279</v>
+        <v>320</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>92</v>
+        <v>217</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>234</v>
+        <v>271</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>122</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>236</v>
+        <v>273</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>232</v>
+        <v>274</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>280</v>
+        <v>321</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>280</v>
+        <v>321</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>238</v>
+        <v>161</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>239</v>
+        <v>276</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>240</v>
+        <v>277</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>123</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>241</v>
+        <v>278</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>90</v>
+        <v>274</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>281</v>
+        <v>322</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>281</v>
+        <v>322</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>38</v>
+        <v>280</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="M37" t="s" s="2">
-        <v>283</v>
-      </c>
       <c r="N37" t="s" s="2">
-        <v>284</v>
+        <v>164</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>285</v>
+        <v>165</v>
       </c>
       <c r="P37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>198</v>
+        <v>80</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>286</v>
+        <v>80</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>287</v>
+        <v>80</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>59</v>
+        <v>140</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>38</v>
+        <v>132</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>229</v>
+        <v>324</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
+        <v>325</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="P38" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>38</v>
+        <v>240</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>38</v>
+        <v>328</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>38</v>
+        <v>329</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>231</v>
+        <v>323</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>232</v>
+        <v>80</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>289</v>
+        <v>330</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>289</v>
+        <v>330</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>92</v>
+        <v>217</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>234</v>
+        <v>271</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>122</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>290</v>
+        <v>80</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>236</v>
+        <v>273</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>232</v>
+        <v>274</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>291</v>
+        <v>331</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>291</v>
+        <v>331</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>292</v>
+        <v>134</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>296</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>38</v>
+        <v>137</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>38</v>
+        <v>332</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>59</v>
+        <v>140</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>299</v>
+        <v>80</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>300</v>
+        <v>333</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>300</v>
+        <v>333</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>175</v>
+        <v>334</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>229</v>
+        <v>335</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>338</v>
+      </c>
       <c r="P41" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>231</v>
+        <v>339</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>232</v>
+        <v>340</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>38</v>
+        <v>341</v>
       </c>
       <c r="AP41" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>301</v>
+        <v>342</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>301</v>
+        <v>342</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>92</v>
+        <v>217</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>234</v>
+        <v>271</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>122</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>290</v>
+        <v>80</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>236</v>
+        <v>273</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>232</v>
+        <v>274</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>302</v>
+        <v>343</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>302</v>
+        <v>343</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>61</v>
+        <v>134</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>303</v>
+        <v>276</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>304</v>
+        <v>277</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>306</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>38</v>
+        <v>137</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>38</v>
+        <v>332</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>307</v>
+        <v>278</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>59</v>
+        <v>140</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>308</v>
+        <v>274</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>309</v>
+        <v>80</v>
       </c>
       <c r="AP43" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>310</v>
+        <v>344</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>310</v>
+        <v>344</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>175</v>
+        <v>103</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>311</v>
+        <v>345</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>312</v>
+        <v>346</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="O44" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="P44" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>314</v>
+        <v>349</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>315</v>
+        <v>350</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>316</v>
+        <v>351</v>
       </c>
       <c r="AP44" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>317</v>
+        <v>352</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>317</v>
+        <v>352</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>67</v>
+        <v>217</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>318</v>
+        <v>353</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>319</v>
+        <v>354</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>321</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>323</v>
+        <v>357</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>324</v>
+        <v>358</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>325</v>
+        <v>359</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>325</v>
+        <v>359</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>175</v>
+        <v>109</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>326</v>
+        <v>360</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>361</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="O46" t="s" s="2">
-        <v>328</v>
+        <v>363</v>
       </c>
       <c r="P46" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>329</v>
+        <v>364</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>330</v>
+        <v>365</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="AP46" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>332</v>
+        <v>367</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>332</v>
+        <v>367</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>333</v>
+        <v>217</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>334</v>
+        <v>368</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>336</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>337</v>
+        <v>370</v>
       </c>
       <c r="P47" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>338</v>
+        <v>371</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>339</v>
+        <v>372</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>340</v>
+        <v>373</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>341</v>
+        <v>374</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>341</v>
+        <v>374</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>175</v>
+        <v>375</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>342</v>
+        <v>376</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>343</v>
+        <v>377</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>344</v>
+        <v>378</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>345</v>
+        <v>379</v>
       </c>
       <c r="P48" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>346</v>
+        <v>380</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>347</v>
+        <v>381</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>348</v>
+        <v>382</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>349</v>
+        <v>383</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>349</v>
+        <v>383</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>350</v>
+        <v>217</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>351</v>
+        <v>384</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>352</v>
+        <v>385</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>353</v>
+        <v>386</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="P49" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>349</v>
+        <v>388</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>38</v>
+        <v>389</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>254</v>
+        <v>80</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>255</v>
+        <v>390</v>
       </c>
       <c r="AP49" t="s" s="2">
-        <v>256</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>355</v>
+        <v>391</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>355</v>
+        <v>391</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>223</v>
+        <v>392</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>356</v>
+        <v>393</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>394</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>395</v>
+      </c>
       <c r="O50" t="s" s="2">
-        <v>277</v>
+        <v>396</v>
       </c>
       <c r="P50" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>355</v>
+        <v>391</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>38</v>
+        <v>296</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>38</v>
+        <v>297</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>38</v>
+        <v>298</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>358</v>
+        <v>397</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>358</v>
+        <v>397</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>175</v>
+        <v>265</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>229</v>
+        <v>398</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>230</v>
+        <v>399</v>
       </c>
       <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>319</v>
+      </c>
       <c r="P51" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>231</v>
+        <v>397</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>232</v>
+        <v>80</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>359</v>
+        <v>400</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>359</v>
+        <v>400</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>92</v>
+        <v>217</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>234</v>
+        <v>271</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>122</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>236</v>
+        <v>273</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>232</v>
+        <v>274</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP52" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>360</v>
+        <v>401</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>360</v>
+        <v>401</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>238</v>
+        <v>161</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>239</v>
+        <v>276</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>240</v>
+        <v>277</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>123</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>241</v>
+        <v>278</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>90</v>
+        <v>274</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP53" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>361</v>
+        <v>402</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>361</v>
+        <v>402</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>38</v>
+        <v>280</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>362</v>
+        <v>281</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="O54" t="s" s="2">
-        <v>364</v>
+        <v>165</v>
       </c>
       <c r="P54" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U54" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V54" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>365</v>
+        <v>80</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>366</v>
+        <v>80</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>367</v>
+        <v>80</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>361</v>
+        <v>283</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>59</v>
+        <v>140</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>38</v>
+        <v>132</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP54" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>368</v>
+        <v>403</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>368</v>
+        <v>403</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>369</v>
+        <v>404</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>370</v>
+        <v>405</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>371</v>
+        <v>406</v>
       </c>
       <c r="P55" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U55" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V55" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>38</v>
+        <v>407</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>38</v>
+        <v>408</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>38</v>
+        <v>409</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>368</v>
+        <v>403</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP55" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>372</v>
+        <v>410</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>372</v>
+        <v>410</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>333</v>
+        <v>245</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>373</v>
+        <v>411</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>375</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>376</v>
+        <v>413</v>
       </c>
       <c r="P56" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U56" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V56" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>372</v>
+        <v>410</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP56" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>377</v>
+        <v>414</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>377</v>
+        <v>414</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>379</v>
+        <v>415</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>380</v>
+        <v>416</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>381</v>
+        <v>417</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>382</v>
+        <v>418</v>
       </c>
       <c r="P57" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q57" s="2"/>
       <c r="R57" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T57" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U57" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V57" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>377</v>
+        <v>414</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>232</v>
+        <v>80</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>165</v>
+        <v>80</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>383</v>
+        <v>80</v>
       </c>
       <c r="AP57" t="s" s="2">
-        <v>167</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="P58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q58" s="2"/>
+      <c r="R58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AO58" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AP58" t="s" s="2">
+        <v>209</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-coverage.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-coverage.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.1</t>
+    <t>1.1.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-24</t>
+    <t>2023-06-26</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1111,7 +1111,7 @@
   </si>
   <si>
     <t>Needed to identify the category associated with the amount for the patient.
-患者の金額に関連するカテゴリーを特定する必要がありました。</t>
+患者の金額に関連するカテゴリーを特定する必要があった。</t>
   </si>
   <si>
     <t>患者の自己負担が指定されているサービスの種類。 / The types of services to which patient copayments are specified.</t>
@@ -1327,7 +1327,7 @@
   </si>
   <si>
     <t>Needed to identify the amount for the patient associated with the category.
-カテゴリーに関連する患者の支払い金額を特定する必要がありました。</t>
+カテゴリーに関連する患者の支払い金額を特定する必要があった</t>
   </si>
   <si>
     <t>Coverage.costToBeneficiary.exception</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-coverage.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-coverage.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2227" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2227" uniqueCount="385">
   <si>
     <t>Property</t>
   </si>
@@ -151,6 +151,10 @@
   <si>
     <t>The Coverage resource contains the insurance card level information, which is customary to provide on claims and other communications between providers and insurers.
 Coverageには、保険証レベルの情報が含まれている。これは、保険金請求やプロバイダと保険会社間のその他の通信で提供するのが通例である。</t>
+  </si>
+  <si>
+    <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -1757,10 +1761,10 @@
         <v>38</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AL1" t="s" s="2">
         <v>31</v>
@@ -1780,10 +1784,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1794,7 +1798,7 @@
         <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>38</v>
@@ -1803,19 +1807,19 @@
         <v>38</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1865,13 +1869,13 @@
         <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>38</v>
@@ -1900,10 +1904,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1914,7 +1918,7 @@
         <v>39</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>38</v>
@@ -1923,16 +1927,16 @@
         <v>38</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1983,19 +1987,19 @@
         <v>38</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>38</v>
@@ -2018,10 +2022,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2032,28 +2036,28 @@
         <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -2103,19 +2107,19 @@
         <v>38</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>38</v>
@@ -2138,10 +2142,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2152,7 +2156,7 @@
         <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>38</v>
@@ -2164,16 +2168,16 @@
         <v>38</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2199,13 +2203,13 @@
         <v>38</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>38</v>
@@ -2223,19 +2227,19 @@
         <v>38</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>38</v>
@@ -2258,21 +2262,21 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>38</v>
@@ -2284,16 +2288,16 @@
         <v>38</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2343,25 +2347,25 @@
         <v>38</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>38</v>
@@ -2378,14 +2382,14 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2404,16 +2408,16 @@
         <v>38</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2463,7 +2467,7 @@
         <v>38</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>39</v>
@@ -2481,7 +2485,7 @@
         <v>38</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>38</v>
@@ -2498,10 +2502,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2524,13 +2528,13 @@
         <v>38</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -2569,17 +2573,17 @@
         <v>38</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AC8" s="2"/>
       <c r="AD8" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>39</v>
@@ -2591,7 +2595,7 @@
         <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>38</v>
@@ -2614,13 +2618,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D9" t="s" s="2">
         <v>38</v>
@@ -2642,16 +2646,16 @@
         <v>38</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2701,7 +2705,7 @@
         <v>38</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>39</v>
@@ -2710,10 +2714,10 @@
         <v>40</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>38</v>
@@ -2736,13 +2740,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>38</v>
@@ -2764,16 +2768,16 @@
         <v>38</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -2823,7 +2827,7 @@
         <v>38</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>39</v>
@@ -2832,10 +2836,10 @@
         <v>40</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>38</v>
@@ -2858,13 +2862,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>38</v>
@@ -2886,16 +2890,16 @@
         <v>38</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2945,7 +2949,7 @@
         <v>38</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>39</v>
@@ -2954,10 +2958,10 @@
         <v>40</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>38</v>
@@ -2980,14 +2984,14 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -3000,25 +3004,25 @@
         <v>38</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>38</v>
@@ -3067,7 +3071,7 @@
         <v>38</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>39</v>
@@ -3079,13 +3083,13 @@
         <v>38</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>38</v>
@@ -3102,10 +3106,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3125,22 +3129,22 @@
         <v>38</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>38</v>
@@ -3189,7 +3193,7 @@
         <v>38</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>39</v>
@@ -3201,33 +3205,33 @@
         <v>38</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AP13" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3235,34 +3239,34 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>38</v>
@@ -3287,13 +3291,13 @@
         <v>38</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>38</v>
@@ -3311,28 +3315,28 @@
         <v>38</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>38</v>
@@ -3346,10 +3350,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3360,7 +3364,7 @@
         <v>39</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>38</v>
@@ -3369,22 +3373,22 @@
         <v>38</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>38</v>
@@ -3409,13 +3413,13 @@
         <v>38</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>38</v>
@@ -3433,19 +3437,19 @@
         <v>38</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>38</v>
@@ -3454,13 +3458,13 @@
         <v>38</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>38</v>
@@ -3468,10 +3472,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3482,7 +3486,7 @@
         <v>39</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>38</v>
@@ -3491,22 +3495,22 @@
         <v>38</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>38</v>
@@ -3555,19 +3559,19 @@
         <v>38</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>38</v>
@@ -3576,24 +3580,24 @@
         <v>38</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AP16" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3604,7 +3608,7 @@
         <v>39</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>38</v>
@@ -3613,22 +3617,22 @@
         <v>38</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>38</v>
@@ -3677,45 +3681,45 @@
         <v>38</v>
       </c>
       <c r="AF17" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM17" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AN17" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AO17" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AP17" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="AO17" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AP17" t="s" s="2">
-        <v>167</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3726,7 +3730,7 @@
         <v>39</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>38</v>
@@ -3735,20 +3739,20 @@
         <v>38</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>38</v>
@@ -3797,19 +3801,19 @@
         <v>38</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>38</v>
@@ -3818,24 +3822,24 @@
         <v>38</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AP18" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3843,10 +3847,10 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>38</v>
@@ -3855,22 +3859,22 @@
         <v>38</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>38</v>
@@ -3919,45 +3923,45 @@
         <v>38</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AP19" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3968,7 +3972,7 @@
         <v>39</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>38</v>
@@ -3977,22 +3981,22 @@
         <v>38</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>38</v>
@@ -4041,19 +4045,19 @@
         <v>38</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>38</v>
@@ -4065,10 +4069,10 @@
         <v>38</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>38</v>
@@ -4076,10 +4080,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4090,7 +4094,7 @@
         <v>39</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>38</v>
@@ -4102,19 +4106,19 @@
         <v>38</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>38</v>
@@ -4139,13 +4143,13 @@
         <v>38</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>38</v>
@@ -4163,19 +4167,19 @@
         <v>38</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>38</v>
@@ -4187,7 +4191,7 @@
         <v>38</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>38</v>
@@ -4198,10 +4202,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4212,7 +4216,7 @@
         <v>39</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>38</v>
@@ -4221,22 +4225,22 @@
         <v>38</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>38</v>
@@ -4285,34 +4289,34 @@
         <v>38</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>38</v>
@@ -4320,10 +4324,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4331,7 +4335,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>40</v>
@@ -4343,22 +4347,22 @@
         <v>38</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>38</v>
@@ -4407,10 +4411,10 @@
         <v>38</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>40</v>
@@ -4419,7 +4423,7 @@
         <v>38</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>38</v>
@@ -4428,24 +4432,24 @@
         <v>38</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AP23" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4468,19 +4472,19 @@
         <v>38</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>38</v>
@@ -4529,7 +4533,7 @@
         <v>38</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>39</v>
@@ -4541,7 +4545,7 @@
         <v>38</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>38</v>
@@ -4564,10 +4568,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4578,7 +4582,7 @@
         <v>39</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>38</v>
@@ -4590,13 +4594,13 @@
         <v>38</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4647,13 +4651,13 @@
         <v>38</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>38</v>
@@ -4665,7 +4669,7 @@
         <v>38</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>38</v>
@@ -4682,14 +4686,14 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4708,16 +4712,16 @@
         <v>38</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4767,7 +4771,7 @@
         <v>38</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>39</v>
@@ -4779,13 +4783,13 @@
         <v>38</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>38</v>
@@ -4802,14 +4806,14 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4822,25 +4826,25 @@
         <v>38</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>38</v>
@@ -4889,7 +4893,7 @@
         <v>38</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>39</v>
@@ -4901,13 +4905,13 @@
         <v>38</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>38</v>
@@ -4924,10 +4928,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4935,10 +4939,10 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>38</v>
@@ -4947,22 +4951,22 @@
         <v>38</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>38</v>
@@ -4987,13 +4991,13 @@
         <v>38</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>38</v>
@@ -5011,19 +5015,19 @@
         <v>38</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>38</v>
@@ -5046,10 +5050,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5057,10 +5061,10 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>38</v>
@@ -5069,22 +5073,22 @@
         <v>38</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>38</v>
@@ -5133,19 +5137,19 @@
         <v>38</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>38</v>
@@ -5157,21 +5161,21 @@
         <v>38</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5182,7 +5186,7 @@
         <v>39</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>38</v>
@@ -5191,20 +5195,20 @@
         <v>38</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>38</v>
@@ -5253,45 +5257,45 @@
         <v>38</v>
       </c>
       <c r="AF30" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN30" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AO30" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AP30" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="AO30" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="AP30" t="s" s="2">
-        <v>256</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5302,7 +5306,7 @@
         <v>39</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>38</v>
@@ -5311,22 +5315,22 @@
         <v>38</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>38</v>
@@ -5375,19 +5379,19 @@
         <v>38</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>38</v>
@@ -5402,7 +5406,7 @@
         <v>38</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>38</v>
@@ -5410,10 +5414,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5424,7 +5428,7 @@
         <v>39</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>38</v>
@@ -5433,20 +5437,20 @@
         <v>38</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>38</v>
@@ -5495,19 +5499,19 @@
         <v>38</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>38</v>
@@ -5519,7 +5523,7 @@
         <v>38</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>38</v>
@@ -5530,14 +5534,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5556,19 +5560,19 @@
         <v>38</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>38</v>
@@ -5617,7 +5621,7 @@
         <v>38</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>39</v>
@@ -5629,7 +5633,7 @@
         <v>38</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>38</v>
@@ -5652,10 +5656,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5666,7 +5670,7 @@
         <v>39</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>38</v>
@@ -5678,13 +5682,13 @@
         <v>38</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5735,13 +5739,13 @@
         <v>38</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>38</v>
@@ -5753,7 +5757,7 @@
         <v>38</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>38</v>
@@ -5770,14 +5774,14 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5796,16 +5800,16 @@
         <v>38</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5855,7 +5859,7 @@
         <v>38</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>39</v>
@@ -5867,13 +5871,13 @@
         <v>38</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>38</v>
@@ -5890,14 +5894,14 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5910,25 +5914,25 @@
         <v>38</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>38</v>
@@ -5977,7 +5981,7 @@
         <v>38</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>39</v>
@@ -5989,13 +5993,13 @@
         <v>38</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>38</v>
@@ -6012,10 +6016,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6026,7 +6030,7 @@
         <v>39</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>38</v>
@@ -6035,22 +6039,22 @@
         <v>38</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>38</v>
@@ -6075,13 +6079,13 @@
         <v>38</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>38</v>
@@ -6099,19 +6103,19 @@
         <v>38</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>38</v>
@@ -6134,10 +6138,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6148,7 +6152,7 @@
         <v>39</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>38</v>
@@ -6160,13 +6164,13 @@
         <v>38</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6217,13 +6221,13 @@
         <v>38</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>38</v>
@@ -6235,7 +6239,7 @@
         <v>38</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>38</v>
@@ -6252,14 +6256,14 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6278,16 +6282,16 @@
         <v>38</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6325,19 +6329,19 @@
         <v>38</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AD39" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>39</v>
@@ -6349,13 +6353,13 @@
         <v>38</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>38</v>
@@ -6372,10 +6376,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6395,22 +6399,22 @@
         <v>38</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>38</v>
@@ -6459,7 +6463,7 @@
         <v>38</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>39</v>
@@ -6471,13 +6475,13 @@
         <v>38</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>38</v>
@@ -6486,7 +6490,7 @@
         <v>38</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>38</v>
@@ -6494,10 +6498,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6508,7 +6512,7 @@
         <v>39</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>38</v>
@@ -6520,13 +6524,13 @@
         <v>38</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6577,13 +6581,13 @@
         <v>38</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>38</v>
@@ -6595,7 +6599,7 @@
         <v>38</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>38</v>
@@ -6612,14 +6616,14 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6638,16 +6642,16 @@
         <v>38</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6685,19 +6689,19 @@
         <v>38</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>39</v>
@@ -6709,13 +6713,13 @@
         <v>38</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>38</v>
@@ -6732,10 +6736,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6746,7 +6750,7 @@
         <v>39</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>38</v>
@@ -6755,22 +6759,22 @@
         <v>38</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>38</v>
@@ -6819,25 +6823,25 @@
         <v>38</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>38</v>
@@ -6846,7 +6850,7 @@
         <v>38</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>38</v>
@@ -6854,10 +6858,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6868,7 +6872,7 @@
         <v>39</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>38</v>
@@ -6877,19 +6881,19 @@
         <v>38</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6939,25 +6943,25 @@
         <v>38</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>38</v>
@@ -6966,7 +6970,7 @@
         <v>38</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AP44" t="s" s="2">
         <v>38</v>
@@ -6974,10 +6978,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6988,7 +6992,7 @@
         <v>39</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>38</v>
@@ -6997,22 +7001,22 @@
         <v>38</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>38</v>
@@ -7061,25 +7065,25 @@
         <v>38</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>38</v>
@@ -7088,7 +7092,7 @@
         <v>38</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>38</v>
@@ -7096,10 +7100,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7110,7 +7114,7 @@
         <v>39</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>38</v>
@@ -7119,20 +7123,20 @@
         <v>38</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>38</v>
@@ -7181,25 +7185,25 @@
         <v>38</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>38</v>
@@ -7208,7 +7212,7 @@
         <v>38</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AP46" t="s" s="2">
         <v>38</v>
@@ -7216,10 +7220,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7230,7 +7234,7 @@
         <v>39</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>38</v>
@@ -7239,22 +7243,22 @@
         <v>38</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>38</v>
@@ -7303,25 +7307,25 @@
         <v>38</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>38</v>
@@ -7330,7 +7334,7 @@
         <v>38</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AP47" t="s" s="2">
         <v>38</v>
@@ -7338,10 +7342,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7352,7 +7356,7 @@
         <v>39</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>38</v>
@@ -7361,22 +7365,22 @@
         <v>38</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>38</v>
@@ -7425,25 +7429,25 @@
         <v>38</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>38</v>
@@ -7452,7 +7456,7 @@
         <v>38</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AP48" t="s" s="2">
         <v>38</v>
@@ -7460,10 +7464,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7471,10 +7475,10 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>38</v>
@@ -7483,22 +7487,22 @@
         <v>38</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>38</v>
@@ -7547,19 +7551,19 @@
         <v>38</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>38</v>
@@ -7571,21 +7575,21 @@
         <v>38</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AP49" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7608,17 +7612,17 @@
         <v>38</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>38</v>
@@ -7667,7 +7671,7 @@
         <v>38</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>39</v>
@@ -7679,7 +7683,7 @@
         <v>38</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>38</v>
@@ -7702,10 +7706,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7716,7 +7720,7 @@
         <v>39</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>38</v>
@@ -7728,13 +7732,13 @@
         <v>38</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7785,13 +7789,13 @@
         <v>38</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>38</v>
@@ -7803,7 +7807,7 @@
         <v>38</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>38</v>
@@ -7820,14 +7824,14 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7846,16 +7850,16 @@
         <v>38</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7905,7 +7909,7 @@
         <v>38</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>39</v>
@@ -7917,13 +7921,13 @@
         <v>38</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>38</v>
@@ -7940,14 +7944,14 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -7960,25 +7964,25 @@
         <v>38</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>38</v>
@@ -8027,7 +8031,7 @@
         <v>38</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>39</v>
@@ -8039,13 +8043,13 @@
         <v>38</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>38</v>
@@ -8062,10 +8066,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8073,10 +8077,10 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>38</v>
@@ -8085,20 +8089,20 @@
         <v>38</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>38</v>
@@ -8123,13 +8127,13 @@
         <v>38</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>38</v>
@@ -8147,19 +8151,19 @@
         <v>38</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>38</v>
@@ -8182,10 +8186,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8196,7 +8200,7 @@
         <v>39</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>38</v>
@@ -8205,20 +8209,20 @@
         <v>38</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>38</v>
@@ -8267,19 +8271,19 @@
         <v>38</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>38</v>
@@ -8302,10 +8306,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8316,7 +8320,7 @@
         <v>39</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>38</v>
@@ -8328,19 +8332,19 @@
         <v>38</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>38</v>
@@ -8389,19 +8393,19 @@
         <v>38</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>38</v>
@@ -8424,10 +8428,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8450,19 +8454,19 @@
         <v>38</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>38</v>
@@ -8511,7 +8515,7 @@
         <v>38</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>39</v>
@@ -8523,25 +8527,25 @@
         <v>38</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AP57" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-coverage.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-coverage.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2</t>
+    <t>1.1.2-dev</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-coverage.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-coverage.xlsx
@@ -145,11 +145,11 @@
     <t>Insurance or medical plan or a payment agreement　保険または医療費支払いプラン、または合意された支払い方法</t>
   </si>
   <si>
-    <t>Financial instrument which may be used to reimburse or pay for health care products and services. Includes both insurance and self-payment.
+    <t>Financial instrument which may be used to reimburse or pay for health care products and services. Includes both insurance and self-payment.  
 ヘルスケア製品およびサービスの償還または支払いに使用される可能性のある金融商品。 保険と自己負担の両方が含まれる。</t>
   </si>
   <si>
-    <t>The Coverage resource contains the insurance card level information, which is customary to provide on claims and other communications between providers and insurers.
+    <t>The Coverage resource contains the insurance card level information, which is customary to provide on claims and other communications between providers and insurers.  
 Coverageには、保険証レベルの情報が含まれている。これは、保険金請求やプロバイダと保険会社間のその他の通信で提供するのが通例である。</t>
   </si>
   <si>
@@ -426,18 +426,18 @@
     <t>Business Identifier for the coverage　このカバレッジに割り当てられた一意の識別子【詳細参照】</t>
   </si>
   <si>
-    <t>A unique identifier assigned to this coverage.
+    <t>A unique identifier assigned to this coverage.  
 このカバレッジに割り当てられた一意の識別子。</t>
   </si>
   <si>
-    <t>The main (and possibly only) identifier for the coverage - often referred to as a Member Id, Certificate number, Personal Health Number or Case ID. May be constructed as the concatenation of the Coverage.SubscriberID and the Coverage.dependent.
-カバレッジのメイン（および場合によっては唯一の）識別子-多くの場合、メンバID、証明書番号、個人の健康番号、またはケースIDと呼ばれる。
-【JP Core仕様】被保険者記号と番号と枝番を全角にした上でダブルコーテーションで囲い、カンマ区切りで連結する。
-ルール："{被保険者記号}","{被保険者番号}","{枝番}"
+    <t>The main (and possibly only) identifier for the coverage - often referred to as a Member Id, Certificate number, Personal Health Number or Case ID. May be constructed as the concatenation of the Coverage.SubscriberID and the Coverage.dependent.  
+カバレッジのメイン（および場合によっては唯一の）識別子-多くの場合、メンバID、証明書番号、個人の健康番号、またはケースIDと呼ばれる。  
+【JP Core仕様】被保険者記号と番号と枝番を全角にした上でダブルコーテーションで囲い、カンマ区切りで連結する。  
+ルール："{被保険者記号}","{被保険者番号}","{枝番}"  
 例："１２－３４","５６７８","００"</t>
   </si>
   <si>
-    <t>Allows coverages to be distinguished and referenced.
+    <t>Allows coverages to be distinguished and referenced.  
 カバレッジを区別して参照できるようにする。</t>
   </si>
   <si>
@@ -465,15 +465,15 @@
     <t>アクティブ|キャンセル|ドラフト|エラーに入った / active | cancelled | draft | entered-in-error</t>
   </si>
   <si>
-    <t>The status of the resource instance.
+    <t>The status of the resource instance.  
 リソースインスタンスのステータス。</t>
   </si>
   <si>
-    <t>This element is labeled as a modifier because the status contains the code entered-in-error that marks the coverage as not currently valid.
+    <t>This element is labeled as a modifier because the status contains the code entered-in-error that marks the coverage as not currently valid.  
 ステータスには、カバレッジが現在無効であることを示すエラー入力されたコードが含まれているため、この要素は修飾子としてラベル付けされる。</t>
   </si>
   <si>
-    <t>Need to track the status of the resource as 'draft' resources may undergo further edits while 'active' resources are immutable and may only have their status changed to 'cancelled'.
+    <t>Need to track the status of the resource as 'draft' resources may undergo further edits while 'active' resources are immutable and may only have their status changed to 'cancelled'.  
 「ドラフト」リソースはさらに編集される可能性があり、「アクティブ」リソースは不変であり、ステータスが「キャンセル」に変更されるだけである可能性があるため、リソースのステータスを追跡する必要がある。</t>
   </si>
   <si>
@@ -505,16 +505,16 @@
     <t>Coverage category such as medical or accident　医療保険や事故補償のような分類</t>
   </si>
   <si>
-    <t>The type of coverage: social program, medical plan, accident coverage (workers compensation, auto), group health or payment by an individual or organization.
+    <t>The type of coverage: social program, medical plan, accident coverage (workers compensation, auto), group health or payment by an individual or organization.  
 補償の種類：社会プログラム、医療計画、事故補償（労働者災害補償、自動車）、グループの健康、または個人または組織による支払い。</t>
   </si>
   <si>
-    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.
-すべてのターミノロジの使用がこの一般的なパターンに適合するわけではない。場合によっては、モデルはCodeableConceptを使用せず、コーディングを直接使用して、テキスト、コーディング、翻訳、および要素間の関係とpre-coordinationとpost-coordinationの用語関係を管理するための独自の構造を提供する必要がある。
+    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.  
+すべてのターミノロジの使用がこの一般的なパターンに適合するわけではない。場合によっては、モデルはCodeableConceptを使用せず、コーディングを直接使用して、テキスト、コーディング、翻訳、および要素間の関係とpre-coordinationとpost-coordinationの用語関係を管理するための独自の構造を提供する必要がある。  
 【JP Core仕様】「[処方情報 HL7FHIR 記述仕様](https://std.jpfhir.jp/stddoc/ePrescriptionDataFHIR_v1x.pdf)」等で使用される保険種別コード（system=”urn:oid:1.2.392.100495.20.2.61”）として、https://www.mhlw.go.jp/content/10800000/000342368.pdf　の別表１１が使用している例があげられている。JP Coreとして本項目に対する用語のバインドは現時点では定義するまでに至っていない。</t>
   </si>
   <si>
-    <t>The order of application of coverages is dependent on the types of coverage.
+    <t>The order of application of coverages is dependent on the types of coverage.  
 カバレッジの適用順序は、カバレッジのタイプによって異なる。</t>
   </si>
   <si>
@@ -540,15 +540,15 @@
     <t>Owner of the policy　ポリシの所有者</t>
   </si>
   <si>
-    <t>The party who 'owns' the insurance policy.
+    <t>The party who 'owns' the insurance policy.  
 保険証券を「所有する」当事者。</t>
   </si>
   <si>
-    <t>For example: may be an individual, corporation or the subscriber's employer.
+    <t>For example: may be an individual, corporation or the subscriber's employer.  
 例：個人、企業、または加入者の雇用主である可能性がある。</t>
   </si>
   <si>
-    <t>This provides employer information in the case of Worker's Compensation and other policies.
+    <t>This provides employer information in the case of Worker's Compensation and other policies.  
 これは、労働者災害補償およびその他のポリシの場合に雇用者情報を提供する。</t>
   </si>
   <si>
@@ -574,15 +574,15 @@
     <t>Subscriber to the policy　被保険者</t>
   </si>
   <si>
-    <t>The party who has signed-up for or 'owns' the contractual relationship to the policy or to whom the benefit of the policy for services rendered to them or their family is due.
+    <t>The party who has signed-up for or 'owns' the contractual relationship to the policy or to whom the benefit of the policy for services rendered to them or their family is due.  
 ポリシにサインアップした、またはポリシとの契約関係を「所有」している当事者、またはポリシの利益が彼らまたはその家族に提供されることになっている当事者。</t>
   </si>
   <si>
-    <t>May be self or a parent in the case of dependents.
+    <t>May be self or a parent in the case of dependents.  
 扶養家族の場合、自己または親である可能性がある。</t>
   </si>
   <si>
-    <t>This is the party who is entitled to the benefits under the policy.
+    <t>This is the party who is entitled to the benefits under the policy.  
 これは、ポリシに基づいて給付を受ける権利を有する当事者である。</t>
   </si>
   <si>
@@ -596,15 +596,15 @@
     <t>ID assigned to the subscriber　被保険者に割り当てられたID</t>
   </si>
   <si>
-    <t>The insurer assigned ID for the Subscriber.
+    <t>The insurer assigned ID for the Subscriber.  
 被保険者に保険者が割り当てたID</t>
   </si>
   <si>
-    <t>The insurer requires this identifier on correspondence and claims (digital and otherwise).
-保険者は、連絡や請求（デジタルおよびその他）でこの識別子を要求する。
-保険会社は、通信および請求（デジタルおよびその他）でこの識別子を要求する。
-【JP Core仕様】被保険者記号と番号を全角にした上でダブルコーテーションで囲い、カンマ区切りで連結する。
-ルール："{被保険者記号}","{被保険者番号}"
+    <t>The insurer requires this identifier on correspondence and claims (digital and otherwise).  
+保険者は、連絡や請求（デジタルおよびその他）でこの識別子を要求する。  
+保険会社は、通信および請求（デジタルおよびその他）でこの識別子を要求する。  
+【JP Core仕様】被保険者記号と番号を全角にした上でダブルコーテーションで囲い、カンマ区切りで連結する。  
+ルール："{被保険者記号}","{被保険者番号}"  
 例："１２－３４","５６７８"</t>
   </si>
   <si>
@@ -618,16 +618,16 @@
     <t>受益者を計画します / Plan beneficiary</t>
   </si>
   <si>
-    <t>The party who benefits from the insurance coverage; the patient when products and/or services are provided.
+    <t>The party who benefits from the insurance coverage; the patient when products and/or services are provided.  
 保険適用から利益を得る当事者、製品および／またはサービスが提供される際の患者。</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
-参照は、実際のFHIRリソースへの参照である必要があり、解決可能（内容に到達可能）である必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.  
+参照は、実際のFHIRリソースへの参照である必要があり、解決可能（内容に到達可能）である必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。  
 【JP Core仕様】患者Patientリソースへの参照。</t>
   </si>
   <si>
-    <t>This is the party who receives treatment for which the costs are reimbursed under the coverage.
+    <t>This is the party who receives treatment for which the costs are reimbursed under the coverage.  
 これは、補償の下で費用が償還される治療を受ける側のことである。</t>
   </si>
   <si>
@@ -640,18 +640,18 @@
     <t>被保険者証 枝番</t>
   </si>
   <si>
-    <t>A unique identifier for a dependent under the coverage.
+    <t>A unique identifier for a dependent under the coverage.  
 被保険者証の枝番。</t>
   </si>
   <si>
-    <t>Periodically the member number is constructed from the subscriberId and the dependent number.
+    <t>Periodically the member number is constructed from the subscriberId and the dependent number.  
 被保険者証の枝番を全角で格納する。</t>
   </si>
   <si>
-    <t>For some coverages a single identifier is issued to the Subscriber and then a unique dependent number is issued to each beneficiary.
-一部の補償では、単一の識別子が加入者に発行され、次に一意の従属番号が各受益者に発行される。
-一部の保険では、単一の識別子が加入者に発行され、その後、各受益者に固有の扶養番号が発行される。
-【JP Core仕様】医療保険で本リソースを使用する場合には、この要素に拡張 InsuredPersonSubNumberに設定した値と同じ、被保険者番号の枝番号全角2桁を設定する。
+    <t>For some coverages a single identifier is issued to the Subscriber and then a unique dependent number is issued to each beneficiary.  
+一部の補償では、単一の識別子が加入者に発行され、次に一意の従属番号が各受益者に発行される。  
+一部の保険では、単一の識別子が加入者に発行され、その後、各受益者に固有の扶養番号が発行される。  
+【JP Core仕様】医療保険で本リソースを使用する場合には、この要素に拡張 InsuredPersonSubNumberに設定した値と同じ、被保険者番号の枝番号全角2桁を設定する。  
 例："００"</t>
   </si>
   <si>
@@ -667,19 +667,19 @@
     <t>Beneficiary relationship to the subscriber　加入者との受益者関係</t>
   </si>
   <si>
-    <t>The relationship of beneficiary (patient) to the subscriber.
+    <t>The relationship of beneficiary (patient) to the subscriber.  
 受益者（患者）と加入者の関係。</t>
   </si>
   <si>
-    <t>Typically, an individual uses policies which are theirs (relationship='self') before policies owned by others.
+    <t>Typically, an individual uses policies which are theirs (relationship='self') before policies owned by others.  
 一般的に、個人は、他人が所有するポリシよりも、自分のポリシ（relationship='self'）を使用する。</t>
   </si>
   <si>
-    <t>To determine relationship between the patient and the subscriber to determine coordination of benefits.
-患者と加入者の関係を決定し、給付の調整を決定する。
-【JP Core仕様】「[処方情報 HL7FHIR 記述仕様](https://std.jpfhir.jp/stddoc/ePrescriptionDataFHIR_v1x.pdf)」等で使用される被保険者区分コード（system=”urn:oid:1.2.392.100495.20.2.62”）として、https://www.mhlw.go.jp/content/10800000/000342368.pdf　の別表１２が使用できる。
-1　被保険者
-2　被扶養者</t>
+    <t>To determine relationship between the patient and the subscriber to determine coordination of benefits.  
+患者と加入者の関係を決定し、給付の調整を決定する。  
+【JP Core仕様】「[処方情報 HL7FHIR 記述仕様](https://std.jpfhir.jp/stddoc/ePrescriptionDataFHIR_v1x.pdf)」等で使用される被保険者区分コード（system=”urn:oid:1.2.392.100495.20.2.62”）として、https://www.mhlw.go.jp/content/10800000/000342368.pdf　の別表１２が使用できる。  
+　1 被保険者  
+　2 被扶養者</t>
   </si>
   <si>
     <t>extensible</t>
@@ -704,21 +704,21 @@
     <t>カバレッジの開始日と終了日 / Coverage start and end dates</t>
   </si>
   <si>
-    <t>Time period during which the coverage is in force. A missing start date indicates the start date isn't known, a missing end date means the coverage is continuing to be in force.
+    <t>Time period during which the coverage is in force. A missing start date indicates the start date isn't known, a missing end date means the coverage is continuing to be in force.  
 補償範囲が有効である期間。開始日が欠落している場合は、開始日が不明であることを示す。終了日が欠落している場合は、補償範囲が引き続き有効であることを意味する。</t>
   </si>
   <si>
     <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
-Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).
-Period（期間）は時間の範囲を指定する。使用状況は、範囲全体が適用されるか（たとえば、「患者はこの時間範囲で入院していた」）、範囲から1つの値が適用されるか（たとえば、「この2回の間に患者に投与する」）を指定する。
-Period（期間）は、Duration（時間区間＝経過時間の測定値）には使用されない。 [Duration]（datatypes.html＃Duration）を参照のこと。
-This is not a duration - that's a measure of time (a separate type), but a duration that occurs at a fixed value of time. A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times"). If duration is required, specify the type as Interval|Duration.
-これはDuration（時間区間）ではない-　Durationは時間の尺度（別のタイプ）だが、時間の固定値で発生する時間区間である。Period（期間）は時間の範囲を指定する。使用状況は、範囲全体が適用されるか（たとえば、「患者はこの時間範囲で入院していた」）、範囲から1つの値が適用されるか（たとえば、「この2回の間に患者に投与する」）を指定する。もし、Duration（時間区間）が必要な場合は、タイプをInterval | Durationとして指定する。
-これは期間ではなく-これは時間の尺度（別のタイプ）あるが、時間の固定値で発生する期間である。期間は時間の範囲を指定する。使用状況は、範囲全体が適用されるか（たとえば、「患者はこの時間範囲で入院していた」）、または範囲から1つの値が適用されるか（たとえば、「これら2回の間に患者に与える」）を指定する。期間が必要な場合は、タイプをInterval | Durationとして指定する。
+Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).  
+Period（期間）は時間の範囲を指定する。使用状況は、範囲全体が適用されるか（たとえば、「患者はこの時間範囲で入院していた」）、範囲から1つの値が適用されるか（たとえば、「この2回の間に患者に投与する」）を指定する。  
+Period（期間）は、Duration（時間区間＝経過時間の測定値）には使用されない。 [Duration]（datatypes.html＃Duration）を参照のこと。  
+This is not a duration - that's a measure of time (a separate type), but a duration that occurs at a fixed value of time. A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times"). If duration is required, specify the type as Interval|Duration.  
+これはDuration（時間区間）ではない-　Durationは時間の尺度（別のタイプ）だが、時間の固定値で発生する時間区間である。Period（期間）は時間の範囲を指定する。使用状況は、範囲全体が適用されるか（たとえば、「患者はこの時間範囲で入院していた」）、範囲から1つの値が適用されるか（たとえば、「この2回の間に患者に投与する」）を指定する。もし、Duration（時間区間）が必要な場合は、タイプをInterval | Durationとして指定する。  
+これは期間ではなく-これは時間の尺度（別のタイプ）あるが、時間の固定値で発生する期間である。期間は時間の範囲を指定する。使用状況は、範囲全体が適用されるか（たとえば、「患者はこの時間範囲で入院していた」）、または範囲から1つの値が適用されるか（たとえば、「これら2回の間に患者に与える」）を指定する。期間が必要な場合は、タイプをInterval | Durationとして指定する。  
 【JP Core仕様】医療保険、公費で本リソースを使用する場合には、保険証または公費の有効期間の開始日、終了日をstart とendに yyyy-mm-dd形式で設定する。</t>
   </si>
   <si>
-    <t>Some insurers require the submission of the coverage term.
+    <t>Some insurers require the submission of the coverage term.  
 保険会社によっては、補償期間の提出を義務付けているところもある。</t>
   </si>
   <si>
@@ -744,17 +744,17 @@
     <t>ポリシーの発行者 / Issuer of the policy</t>
   </si>
   <si>
-    <t>The program or plan underwriter or payor including both insurance and non-insurance agreements, such as patient-pay agreements.
+    <t>The program or plan underwriter or payor including both insurance and non-insurance agreements, such as patient-pay agreements.  
 患者負担契約などの保険契約と保険外契約の両方を含むプログラムまたはプランの引受人または支払人。</t>
   </si>
   <si>
     <t>May provide multiple identifiers such as insurance company identifier or business identifier (BIN number).
-For selfpay it may provide multiple paying persons and/or organizations.
+For selfpay it may provide multiple paying persons and/or organizations.  
 保険会社の識別子や事業者の識別子（BIN番号）など、複数の識別子を提供してもよい。自己負担の場合は、複数の支払者および/または組織を提供してもよい。</t>
   </si>
   <si>
-    <t>Need to identify the issuer to target for claim processing and for coordination of benefit processing.
-請求処理および給付処理の調整の対象となる発行者を特定する必要がある。
+    <t>Need to identify the issuer to target for claim processing and for coordination of benefit processing.  
+請求処理および給付処理の調整の対象となる発行者を特定する必要がある。  
 【JP Core仕様】医療保険で本リソースを使用する場合には、保険者組織Organizationリソースへの参照。自費の場合には、患者Patientリソースへの参照。公費の場合には、公費負担者組織Organizationリソースへの参照。</t>
   </si>
   <si>
@@ -780,15 +780,15 @@
     <t>追加のカバレッジ分類 / Additional coverage classifications</t>
   </si>
   <si>
-    <t>A suite of underwriter specific classifiers.
+    <t>A suite of underwriter specific classifiers.  
 保険事業者の分類子</t>
   </si>
   <si>
-    <t>For example may be used to identify a class of coverage or employer group, Policy, Plan.
+    <t>For example may be used to identify a class of coverage or employer group, Policy, Plan.  
 例えば、保険の種類または雇用者グループ、保険契約、Planを識別するために使用することができる。</t>
   </si>
   <si>
-    <t>The codes provided on the health card which identify or confirm the specific policy for the insurer.
+    <t>The codes provided on the health card which identify or confirm the specific policy for the insurer.  
 健康カードに記載されているコードで、保険者の特定の保険契約を識別または確認するもの。</t>
   </si>
   <si>
@@ -843,15 +843,15 @@
     <t>「グループ」や「計画」などのクラスのタイプ / Type of class such as 'group' or 'plan'</t>
   </si>
   <si>
-    <t>The type of classification for which an insurer-specific class label or number and optional name is provided, for example may be used to identify a class of coverage or employer group, Policy, Plan.
+    <t>The type of classification for which an insurer-specific class label or number and optional name is provided, for example may be used to identify a class of coverage or employer group, Policy, Plan.  
 保険者固有のクラスラベルまたは番号、任意の名前が提供されている分類のタイプを表す。例えば、保険のクラスまたは雇用者グループ、保険契約、Planを識別するために使用することができる。</t>
   </si>
   <si>
-    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.
+    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.  
 すべての用語の使用がこの一般的なパターンに適合するわけではない。いくつかのケースでは、モデルはCodeableConceptを使用せず、Codingを直接使用し、テキスト、コーディング、翻訳、要素間の関係、および前後の調整を管理するための独自の構造を提供することが望ましい。</t>
   </si>
   <si>
-    <t>The insurer issued label for a specific health card value.
+    <t>The insurer issued label for a specific health card value.  
 保険者が発行した特定の健康カード番号のラベル。</t>
   </si>
   <si>
@@ -867,15 +867,15 @@
     <t>タイプに関連付けられた値 / Value associated with the type</t>
   </si>
   <si>
-    <t>The alphanumeric string value associated with the insurer issued label.
+    <t>The alphanumeric string value associated with the insurer issued label.  
 保険者が発行したラベルに関連付けられた英数字の文字列値。</t>
   </si>
   <si>
-    <t>For example, the Group or Plan number.
+    <t>For example, the Group or Plan number.  
 例えば、グループ番号やプラン番号など。</t>
   </si>
   <si>
-    <t>The insurer issued label and value are necessary to identify the specific policy.
+    <t>The insurer issued label and value are necessary to identify the specific policy.  
 保険者が発行したラベルと値は、特定の保険契約を識別するために必要なものである。</t>
   </si>
   <si>
@@ -894,11 +894,11 @@
     <t>タイプと価値の人間の読み取り可能な説明 / Human readable description of the type and value</t>
   </si>
   <si>
-    <t>A short description for the class.
+    <t>A short description for the class.  
 保険種類の簡単な説明。</t>
   </si>
   <si>
-    <t>Used to provide a meaningful description in correspondence to the patient.
+    <t>Used to provide a meaningful description in correspondence to the patient.  
 患者に対応するのに意味のある説明をするために使用する。</t>
   </si>
   <si>
@@ -912,16 +912,16 @@
     <t>カバレッジの相対順序 / Relative order of the coverage</t>
   </si>
   <si>
-    <t>The order of applicability of this coverage relative to other coverages which are currently in force. Note, there may be gaps in the numbering and this does not imply primary, secondary etc. as the specific positioning of coverages depends upon the episode of care.
+    <t>The order of applicability of this coverage relative to other coverages which are currently in force. Note, there may be gaps in the numbering and this does not imply primary, secondary etc. as the specific positioning of coverages depends upon the episode of care.  
 現在適用されている他の保障と比較して、この保障の適用可能性が高い順に記載されている。なお、ナンバリングにギャップがある場合があり、カバーの具体的な位置づけはケアのエピソードに依存するため、一次、二次などを意味するものではない。</t>
   </si>
   <si>
-    <t>32 bit number; for values larger than this, use decimal
+    <t>32 bit number; for values larger than this, use decimal  
 32 ビットの数値、これより大きい値の場合は 10 進数を使用する。</t>
   </si>
   <si>
-    <t>Used in managing the coordination of benefits.
-保険給付の調整管理に使用する。
+    <t>Used in managing the coordination of benefits.  
+保険給付の調整管理に使用する。  
 【JP Core仕様】公費情報で本リソースを使用する場合で、複数の公費負担情報がある場合に、その適用順序番号を示す１，２，３．．．を設定する。</t>
   </si>
   <si>
@@ -931,11 +931,11 @@
     <t>保険会社ネットワーク / Insurer network</t>
   </si>
   <si>
-    <t>The insurer-specific identifier for the insurer-defined network of providers to which the beneficiary may seek treatment which will be covered at the 'in-network' rate, otherwise 'out of network' terms and conditions apply.
+    <t>The insurer-specific identifier for the insurer-defined network of providers to which the beneficiary may seek treatment which will be covered at the 'in-network' rate, otherwise 'out of network' terms and conditions apply.  
 保険者が定義したプロバイダの保険者定義ネットワークの保険者固有の識別子で、被保険者が「ネットワーク内」の料金でカバーされる治療を受けることができるが、そうでなければ「ネットワーク外」の条件が適用される。</t>
   </si>
   <si>
-    <t>Used in referral for treatment and in claims processing.
+    <t>Used in referral for treatment and in claims processing.  
 治療のための紹介や請求処理の際に使用する。</t>
   </si>
   <si>
@@ -952,16 +952,16 @@
     <t>Patient payments for services/products　サービスやプロダクトに対する患者支払い</t>
   </si>
   <si>
-    <t>A suite of codes indicating the cost category and associated amount which have been detailed in the policy and may have been  included on the health card.
+    <t>A suite of codes indicating the cost category and associated amount which have been detailed in the policy and may have been  included on the health card.  
 ポリシに詳細が記載されており、ヘルスカードに含まれている可能性のあるコストカテゴリと関連する金額を示す一連のコード。</t>
   </si>
   <si>
-    <t>For example by knowing the patient visit co-pay, the provider can collect the amount prior to undertaking treatment.
-例えば、患者の訪問時の自己負担額を知ることで、医療提供者は治療を行う前にその金額を回収することができる。
+    <t>For example by knowing the patient visit co-pay, the provider can collect the amount prior to undertaking treatment.  
+例えば、患者の訪問時の自己負担額を知ることで、医療提供者は治療を行う前にその金額を回収することができる。  
 【JP Core仕様】公費の場合には自己負担率。判明している場合のみ設定する。</t>
   </si>
   <si>
-    <t>Required by providers to manage financial transaction with the patient.
+    <t>Required by providers to manage financial transaction with the patient.  
 事業者が患者との金銭的な取引を管理するために必要となる。</t>
   </si>
   <si>
@@ -980,15 +980,15 @@
     <t>コストカテゴリ / Cost category</t>
   </si>
   <si>
-    <t>The category of patient centric costs associated with treatment.
+    <t>The category of patient centric costs associated with treatment.  
 治療に伴う患者中心の費用のカテゴリー。</t>
   </si>
   <si>
-    <t>For example visit, specialist visits, emergency, inpatient care, etc.
+    <t>For example visit, specialist visits, emergency, inpatient care, etc.  
 例えば、訪問診療、専門医の訪問診療、救急診療、入院診療など。</t>
   </si>
   <si>
-    <t>Needed to identify the category associated with the amount for the patient.
+    <t>Needed to identify the category associated with the amount for the patient.  
 患者の金額に関連するカテゴリーを特定する必要があった。</t>
   </si>
   <si>
@@ -1050,8 +1050,8 @@
     <t>コード内のシンボルの意味を定義するコードシステムの識別。 / The identification of the code system that defines the meaning of the symbol in the code.</t>
   </si>
   <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.
-保険や公費における自己負担率の種別を識別するコード体系のコード。
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.  
+保険や公費における自己負担率の種別を識別するコード体系のコード。  
 "http://terminology.hl7.org/CodeSystem/coverage-copay-type"</t>
   </si>
   <si>
@@ -1097,7 +1097,7 @@
     <t>システムによって定義された構文のシンボル。シンボルは、定義されたコードまたはコーディングシステムによって定義された構文の式（例：調整後）である場合があります。 / A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
   </si>
   <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size
+    <t>Note that FHIR strings SHALL NOT exceed 1MB in size  
 自己負担率を表すコード　"copaypct"</t>
   </si>
   <si>
@@ -1196,15 +1196,15 @@
     <t>受益者からの金額または割合 / The amount or percentage due from the beneficiary</t>
   </si>
   <si>
-    <t>The amount due from the patient for the cost category.
+    <t>The amount due from the patient for the cost category.  
 費用区分の患者からの支払額。</t>
   </si>
   <si>
-    <t>Amount may be expressed as a percentage of the service/product cost or a fixed amount of currency.
+    <t>Amount may be expressed as a percentage of the service/product cost or a fixed amount of currency.  
 金額は、サービス/製品のコストに対する割合で表現される場合と、通貨の固定額で表現される場合がある。</t>
   </si>
   <si>
-    <t>Needed to identify the amount for the patient associated with the category.
+    <t>Needed to identify the amount for the patient associated with the category.  
 カテゴリーに関連する患者の支払い金額を特定する必要があった</t>
   </si>
   <si>
@@ -1214,7 +1214,7 @@
     <t>患者の支払いの例外 / Exceptions for patient payments</t>
   </si>
   <si>
-    <t>A suite of codes indicating exceptions or reductions to patient costs and their effective periods.
+    <t>A suite of codes indicating exceptions or reductions to patient costs and their effective periods.  
 患者費用の例外または削減を示すコードとその有効期間を示すコード群。</t>
   </si>
   <si>
@@ -1233,11 +1233,11 @@
     <t>例外カテゴリ / Exception category</t>
   </si>
   <si>
-    <t>The code for the specific exception.
+    <t>The code for the specific exception.  
 特定の例外のコード。</t>
   </si>
   <si>
-    <t>Needed to identify the exception associated with the amount for the patient.
+    <t>Needed to identify the exception associated with the amount for the patient.  
 患者の金額に関連する例外を特定する必要があった。</t>
   </si>
   <si>
@@ -1256,11 +1256,11 @@
     <t>例外の有効期間 / The effective period of the exception</t>
   </si>
   <si>
-    <t>The timeframe during when the exception is in force.
+    <t>The timeframe during when the exception is in force.  
 例外が発生している間の時間枠。</t>
   </si>
   <si>
-    <t>Needed to identify the applicable timeframe for the exception for the correct calculation of patient costs.
+    <t>Needed to identify the applicable timeframe for the exception for the correct calculation of patient costs.  
 患者の費用を正しく計算するための例外の適用時期を特定する必要があった。</t>
   </si>
   <si>
@@ -1270,15 +1270,15 @@
     <t>Reimbursement to insurer　保険者への償還</t>
   </si>
   <si>
-    <t>When 'subrogation=true' this insurance instance has been included not for adjudication but to provide insurers with the details to recover costs.
+    <t>When 'subrogation=true' this insurance instance has been included not for adjudication but to provide insurers with the details to recover costs.  
 subrogation=trueの場合、この保険インスタンスは裁定のためではなく、保険者に費用回収のための詳細を提供するために含まれている。 (subrogation=代位、subrogation payment=代位納付)</t>
   </si>
   <si>
-    <t>Typically, automotive and worker's compensation policies would be flagged with 'subrogation=true' to enable healthcare payors to collect against accident claims.
+    <t>Typically, automotive and worker's compensation policies would be flagged with 'subrogation=true' to enable healthcare payors to collect against accident claims.  
 一般的に、自動車保険や労災保険では、医療費支払い者が事故請求に対して回収できるように、subrogation＝true というフラグが立てられている。</t>
   </si>
   <si>
-    <t>See definition for when to be used.
+    <t>See definition for when to be used.  
 使用時期については定義を参照すること。</t>
   </si>
   <si>
@@ -1292,15 +1292,15 @@
     <t>Contract details　契約の詳細</t>
   </si>
   <si>
-    <t>The policy(s) which constitute this insurance coverage.
+    <t>The policy(s) which constitute this insurance coverage.  
 この保険の適用範囲を構成するポリシ。</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.  
 参照は、実際のFHIRリソースへの参照である必要があり、解決可能（内容に到達可能）である必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。</t>
   </si>
   <si>
-    <t>To reference the legally binding contract between the policy holder and the insurer.
+    <t>To reference the legally binding contract between the policy holder and the insurer.  
 契約者と保険者との間の法的拘束力のある契約を参照するため。</t>
   </si>
   <si>

--- a/jpcore-r4/develop/StructureDefinition-jp-coverage.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-coverage.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2-dev</t>
+    <t>1.1.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-coverage.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-coverage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26</t>
+    <t>2023-10-31</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-coverage.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-coverage.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2227" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2269" uniqueCount="427">
   <si>
     <t>Property</t>
   </si>
@@ -127,6 +127,132 @@
   </si>
   <si>
     <t>constraint</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Slice Name</t>
+  </si>
+  <si>
+    <t>Alias(s)</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Must Support?</t>
+  </si>
+  <si>
+    <t>Is Modifier?</t>
+  </si>
+  <si>
+    <t>Is Summary?</t>
+  </si>
+  <si>
+    <t>Type(s)</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>Meaning When Missing</t>
+  </si>
+  <si>
+    <t>Fixed Value</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Minimum Value</t>
+  </si>
+  <si>
+    <t>Maximum Value</t>
+  </si>
+  <si>
+    <t>Maximum Length</t>
+  </si>
+  <si>
+    <t>Binding Strength</t>
+  </si>
+  <si>
+    <t>Binding Description</t>
+  </si>
+  <si>
+    <t>Binding Value Set</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Slicing Discriminator</t>
+  </si>
+  <si>
+    <t>Slicing Description</t>
+  </si>
+  <si>
+    <t>Slicing Ordered</t>
+  </si>
+  <si>
+    <t>Slicing Rules</t>
+  </si>
+  <si>
+    <t>Base Path</t>
+  </si>
+  <si>
+    <t>Base Min</t>
+  </si>
+  <si>
+    <t>Base Max</t>
+  </si>
+  <si>
+    <t>Condition(s)</t>
+  </si>
+  <si>
+    <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: Workflow Pattern</t>
+  </si>
+  <si>
+    <t>Mapping: RIM Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: FiveWs Pattern Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: Canadian Dental Association eclaims standard</t>
+  </si>
+  <si>
+    <t>Mapping: HL7 v2 Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: Canadian Pharmacy Associaiton eclaims standard</t>
   </si>
   <si>
     <t/>
@@ -1611,7 +1737,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP57"/>
+  <dimension ref="A1:AP58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1624,10 +1750,11 @@
     <col min="2" max="2" width="53.57421875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="24.95703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="128.91015625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1635,6917 +1762,7045 @@
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="10.53125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="207.19140625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="52.84375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="10.26171875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="42.796875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="20.703125" customWidth="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="19.62890625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="46.53125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="16.3984375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="21.328125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="59.44921875" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="51.2734375" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="15.9609375" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="62.85546875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" t="s" s="2">
+      <c r="A1" t="s" s="1">
         <v>38</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" t="s" s="2">
+      <c r="B1" t="s" s="1">
         <v>39</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="C1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="H1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K1" t="s" s="2">
+      <c r="D1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="E1" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="M1" t="s" s="2">
+      <c r="F1" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="N1" t="s" s="2">
+      <c r="G1" t="s" s="1">
         <v>44</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ1" t="s" s="2">
+      <c r="H1" t="s" s="1">
         <v>45</v>
       </c>
-      <c r="AK1" t="s" s="2">
+      <c r="I1" t="s" s="1">
         <v>46</v>
       </c>
-      <c r="AL1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="AM1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AO1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AP1" t="s" s="2">
-        <v>38</v>
+      <c r="J1" t="s" s="1">
+        <v>47</v>
+      </c>
+      <c r="K1" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="L1" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="M1" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="N1" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="O1" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="P1" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="Q1" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="R1" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="S1" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="T1" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="U1" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="V1" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="W1" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="X1" t="s" s="1">
+        <v>61</v>
+      </c>
+      <c r="Y1" t="s" s="1">
+        <v>62</v>
+      </c>
+      <c r="Z1" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="AA1" t="s" s="1">
+        <v>64</v>
+      </c>
+      <c r="AB1" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="AC1" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="AD1" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="AE1" t="s" s="1">
+        <v>68</v>
+      </c>
+      <c r="AF1" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="AG1" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="AH1" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="AI1" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="AJ1" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="AK1" t="s" s="1">
+        <v>74</v>
+      </c>
+      <c r="AL1" t="s" s="1">
+        <v>75</v>
+      </c>
+      <c r="AM1" t="s" s="1">
+        <v>76</v>
+      </c>
+      <c r="AN1" t="s" s="1">
+        <v>77</v>
+      </c>
+      <c r="AO1" t="s" s="1">
+        <v>78</v>
+      </c>
+      <c r="AP1" t="s" s="1">
+        <v>79</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="N3" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="N3" t="s" s="2">
+        <v>95</v>
+      </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AO3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>65</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AO4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AO5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>38</v>
+        <v>115</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AO6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF7" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH7" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="AG7" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="AI7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AO7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>38</v>
+        <v>127</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="N8" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="N8" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AC8" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AO8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="C9" t="s" s="2">
-        <v>101</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>38</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>38</v>
+        <v>139</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>99</v>
+        <v>141</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AO9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>112</v>
+        <v>147</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>106</v>
+        <v>148</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>99</v>
+        <v>141</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>113</v>
+        <v>149</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>114</v>
+        <v>150</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>106</v>
+        <v>148</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>99</v>
+        <v>141</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>119</v>
+        <v>155</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="D12" t="s" s="2">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>121</v>
+        <v>158</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>122</v>
+        <v>159</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>124</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>38</v>
+        <v>148</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>99</v>
+        <v>141</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>126</v>
+        <v>161</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>126</v>
+        <v>161</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>38</v>
+        <v>162</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>128</v>
+        <v>163</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>129</v>
+        <v>164</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>131</v>
+        <v>166</v>
       </c>
       <c r="P13" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>126</v>
+        <v>167</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>60</v>
+        <v>141</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>133</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="AP13" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>68</v>
+        <v>169</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>139</v>
+        <v>170</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>140</v>
+        <v>171</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>141</v>
+        <v>172</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>142</v>
+        <v>173</v>
       </c>
       <c r="P14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>145</v>
+        <v>80</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>146</v>
+        <v>174</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>147</v>
+        <v>175</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>148</v>
+        <v>176</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>38</v>
+        <v>177</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>38</v>
+        <v>178</v>
       </c>
       <c r="AP14" t="s" s="2">
-        <v>38</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>149</v>
+        <v>180</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>149</v>
+        <v>180</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>151</v>
+        <v>181</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>152</v>
+        <v>182</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>153</v>
+        <v>183</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>154</v>
+        <v>184</v>
       </c>
       <c r="P15" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>72</v>
+        <v>185</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>155</v>
+        <v>186</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>156</v>
+        <v>187</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>149</v>
+        <v>180</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>38</v>
+        <v>188</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>38</v>
+        <v>189</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>158</v>
+        <v>80</v>
       </c>
       <c r="AP15" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>159</v>
+        <v>191</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>159</v>
+        <v>191</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>161</v>
+        <v>193</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>163</v>
+        <v>195</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>164</v>
+        <v>196</v>
       </c>
       <c r="P16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>38</v>
+        <v>197</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>38</v>
+        <v>198</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>159</v>
+        <v>191</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>165</v>
+        <v>199</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>166</v>
+        <v>80</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>167</v>
+        <v>200</v>
       </c>
       <c r="AP16" t="s" s="2">
-        <v>168</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>170</v>
+        <v>202</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>171</v>
+        <v>203</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>172</v>
+        <v>204</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>173</v>
+        <v>205</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>174</v>
+        <v>206</v>
       </c>
       <c r="P17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>165</v>
+        <v>207</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>166</v>
+        <v>208</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>167</v>
+        <v>209</v>
       </c>
       <c r="AP17" t="s" s="2">
-        <v>168</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>175</v>
+        <v>211</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>175</v>
+        <v>211</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>176</v>
+        <v>212</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>177</v>
+        <v>213</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="O18" t="s" s="2">
-        <v>179</v>
+        <v>216</v>
       </c>
       <c r="P18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>175</v>
+        <v>211</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>165</v>
+        <v>207</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>166</v>
+        <v>208</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>167</v>
+        <v>209</v>
       </c>
       <c r="AP18" t="s" s="2">
-        <v>168</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>180</v>
+        <v>217</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>180</v>
+        <v>217</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>181</v>
+        <v>218</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>182</v>
+        <v>219</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="P19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>180</v>
+        <v>217</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>186</v>
+        <v>80</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>165</v>
+        <v>207</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>166</v>
+        <v>208</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>167</v>
+        <v>209</v>
       </c>
       <c r="AP19" t="s" s="2">
-        <v>168</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>187</v>
+        <v>222</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>187</v>
+        <v>222</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>176</v>
+        <v>223</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>189</v>
+        <v>225</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>190</v>
+        <v>226</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>191</v>
+        <v>227</v>
       </c>
       <c r="P20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>187</v>
+        <v>222</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>38</v>
+        <v>228</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>38</v>
+        <v>207</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="AP20" t="s" s="2">
-        <v>38</v>
+        <v>210</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>150</v>
+        <v>218</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>195</v>
+        <v>230</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>196</v>
+        <v>231</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>197</v>
+        <v>232</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>198</v>
+        <v>233</v>
       </c>
       <c r="P21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>199</v>
+        <v>80</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>201</v>
+        <v>80</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>202</v>
+        <v>234</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>38</v>
+        <v>235</v>
       </c>
       <c r="AP21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>203</v>
+        <v>236</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>203</v>
+        <v>236</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>206</v>
+        <v>238</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>207</v>
+        <v>239</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>208</v>
+        <v>240</v>
       </c>
       <c r="P22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>38</v>
+        <v>241</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>38</v>
+        <v>242</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>38</v>
+        <v>243</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>203</v>
+        <v>236</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>209</v>
+        <v>80</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>210</v>
+        <v>80</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>211</v>
+        <v>80</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>38</v>
+        <v>244</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>212</v>
+        <v>80</v>
       </c>
       <c r="AP22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>213</v>
+        <v>245</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>213</v>
+        <v>245</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>214</v>
+        <v>246</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>215</v>
+        <v>247</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>216</v>
+        <v>248</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>217</v>
+        <v>249</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>218</v>
+        <v>250</v>
       </c>
       <c r="P23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>213</v>
+        <v>245</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>38</v>
+        <v>251</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>38</v>
+        <v>252</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>219</v>
+        <v>253</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>220</v>
+        <v>80</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AP23" t="s" s="2">
-        <v>222</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>223</v>
+        <v>255</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>223</v>
+        <v>255</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>224</v>
+        <v>256</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>226</v>
+        <v>258</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="P24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>223</v>
+        <v>255</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>38</v>
+        <v>261</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>38</v>
+        <v>262</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>38</v>
+        <v>263</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>38</v>
+        <v>264</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>229</v>
+        <v>265</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>229</v>
+        <v>265</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>176</v>
+        <v>266</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>230</v>
+        <v>267</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>270</v>
+      </c>
       <c r="P25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>232</v>
+        <v>265</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>233</v>
+        <v>80</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>234</v>
+        <v>271</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>234</v>
+        <v>271</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>93</v>
+        <v>218</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>235</v>
+        <v>272</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>123</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>237</v>
+        <v>274</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>233</v>
+        <v>275</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>238</v>
+        <v>276</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>238</v>
+        <v>276</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>239</v>
+        <v>162</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>240</v>
+        <v>277</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>241</v>
+        <v>278</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>124</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>242</v>
+        <v>279</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>99</v>
+        <v>141</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>91</v>
+        <v>275</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>243</v>
+        <v>280</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>243</v>
+        <v>280</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>38</v>
+        <v>281</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>244</v>
+        <v>282</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>245</v>
+        <v>283</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>246</v>
+        <v>165</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>247</v>
+        <v>166</v>
       </c>
       <c r="P28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>199</v>
+        <v>80</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>248</v>
+        <v>80</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>249</v>
+        <v>80</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>243</v>
+        <v>284</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>60</v>
+        <v>141</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>250</v>
+        <v>285</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>250</v>
+        <v>285</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>251</v>
+        <v>286</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>252</v>
+        <v>287</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>253</v>
+        <v>288</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>254</v>
+        <v>289</v>
       </c>
       <c r="P29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>38</v>
+        <v>241</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>38</v>
+        <v>290</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>38</v>
+        <v>291</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>250</v>
+        <v>285</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>255</v>
+        <v>80</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>256</v>
+        <v>80</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>257</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>258</v>
+        <v>292</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>258</v>
+        <v>292</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>259</v>
+        <v>293</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>294</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="O30" t="s" s="2">
-        <v>261</v>
+        <v>296</v>
       </c>
       <c r="P30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>258</v>
+        <v>292</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>255</v>
+        <v>297</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>256</v>
+        <v>298</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>257</v>
+        <v>299</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>262</v>
+        <v>300</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>262</v>
+        <v>300</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>263</v>
+        <v>218</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>264</v>
+        <v>301</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>266</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>267</v>
+        <v>303</v>
       </c>
       <c r="P31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>262</v>
+        <v>300</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>38</v>
+        <v>297</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>193</v>
+        <v>298</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>38</v>
+        <v>299</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>268</v>
+        <v>304</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>268</v>
+        <v>304</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>176</v>
+        <v>305</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>269</v>
+        <v>306</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>307</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>308</v>
+      </c>
       <c r="O32" t="s" s="2">
-        <v>271</v>
+        <v>309</v>
       </c>
       <c r="P32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>268</v>
+        <v>304</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>272</v>
+        <v>80</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>38</v>
+        <v>235</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>273</v>
+        <v>310</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>273</v>
+        <v>310</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>274</v>
+        <v>80</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>275</v>
+        <v>311</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>277</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>278</v>
+        <v>313</v>
       </c>
       <c r="P33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>273</v>
+        <v>310</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>38</v>
+        <v>314</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>279</v>
+        <v>315</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>279</v>
+        <v>315</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>38</v>
+        <v>316</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>176</v>
+        <v>266</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>230</v>
+        <v>317</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="P34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>232</v>
+        <v>315</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>233</v>
+        <v>80</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>280</v>
+        <v>321</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>280</v>
+        <v>321</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>93</v>
+        <v>218</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>235</v>
+        <v>272</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>123</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>237</v>
+        <v>274</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>233</v>
+        <v>275</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>281</v>
+        <v>322</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>281</v>
+        <v>322</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>239</v>
+        <v>162</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>240</v>
+        <v>277</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>241</v>
+        <v>278</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>124</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>242</v>
+        <v>279</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>99</v>
+        <v>141</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>91</v>
+        <v>275</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>282</v>
+        <v>323</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>282</v>
+        <v>323</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>38</v>
+        <v>281</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="M37" t="s" s="2">
-        <v>284</v>
-      </c>
       <c r="N37" t="s" s="2">
-        <v>285</v>
+        <v>165</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>286</v>
+        <v>166</v>
       </c>
       <c r="P37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>199</v>
+        <v>80</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>287</v>
+        <v>80</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>288</v>
+        <v>80</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>60</v>
+        <v>141</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>289</v>
+        <v>324</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>289</v>
+        <v>324</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>230</v>
+        <v>325</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
+        <v>326</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>328</v>
+      </c>
       <c r="P38" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>38</v>
+        <v>241</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>38</v>
+        <v>329</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>38</v>
+        <v>330</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>232</v>
+        <v>324</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>233</v>
+        <v>80</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>290</v>
+        <v>331</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>290</v>
+        <v>331</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>93</v>
+        <v>218</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>235</v>
+        <v>272</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>123</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>291</v>
+        <v>80</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>237</v>
+        <v>274</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>233</v>
+        <v>275</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>292</v>
+        <v>332</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>292</v>
+        <v>332</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>38</v>
+        <v>162</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>293</v>
+        <v>135</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>297</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>38</v>
+        <v>333</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>38</v>
+        <v>139</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>60</v>
+        <v>141</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>301</v>
+        <v>334</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>301</v>
+        <v>334</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>176</v>
+        <v>335</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>230</v>
+        <v>336</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
+        <v>337</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>339</v>
+      </c>
       <c r="P41" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>232</v>
+        <v>340</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>233</v>
+        <v>341</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>38</v>
+        <v>342</v>
       </c>
       <c r="AP41" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>302</v>
+        <v>343</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>302</v>
+        <v>343</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>93</v>
+        <v>218</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>235</v>
+        <v>272</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>123</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>291</v>
+        <v>80</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>237</v>
+        <v>274</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>233</v>
+        <v>275</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>303</v>
+        <v>344</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>303</v>
+        <v>344</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>38</v>
+        <v>162</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>62</v>
+        <v>135</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>304</v>
+        <v>277</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>305</v>
+        <v>278</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>307</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>38</v>
+        <v>333</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>38</v>
+        <v>139</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>308</v>
+        <v>279</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>60</v>
+        <v>141</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>309</v>
+        <v>275</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>310</v>
+        <v>80</v>
       </c>
       <c r="AP43" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>311</v>
+        <v>345</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>311</v>
+        <v>345</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>176</v>
+        <v>104</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>312</v>
+        <v>346</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>313</v>
+        <v>347</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="O44" s="2"/>
+        <v>348</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>349</v>
+      </c>
       <c r="P44" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>315</v>
+        <v>350</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>316</v>
+        <v>351</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>317</v>
+        <v>352</v>
       </c>
       <c r="AP44" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>318</v>
+        <v>353</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>318</v>
+        <v>353</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>68</v>
+        <v>218</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>319</v>
+        <v>354</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>320</v>
+        <v>355</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>322</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>323</v>
+        <v>357</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>324</v>
+        <v>358</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>325</v>
+        <v>359</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>326</v>
+        <v>360</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>326</v>
+        <v>360</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>176</v>
+        <v>110</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>327</v>
+        <v>361</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>362</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>363</v>
+      </c>
       <c r="O46" t="s" s="2">
-        <v>329</v>
+        <v>364</v>
       </c>
       <c r="P46" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>330</v>
+        <v>365</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>332</v>
+        <v>367</v>
       </c>
       <c r="AP46" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>333</v>
+        <v>368</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>333</v>
+        <v>368</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>334</v>
+        <v>218</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>335</v>
+        <v>369</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>337</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>338</v>
+        <v>371</v>
       </c>
       <c r="P47" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>339</v>
+        <v>372</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>340</v>
+        <v>373</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>341</v>
+        <v>374</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>342</v>
+        <v>375</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>342</v>
+        <v>375</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>176</v>
+        <v>376</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>343</v>
+        <v>377</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>344</v>
+        <v>378</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>345</v>
+        <v>379</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>346</v>
+        <v>380</v>
       </c>
       <c r="P48" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>347</v>
+        <v>381</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>348</v>
+        <v>382</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>349</v>
+        <v>383</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>350</v>
+        <v>384</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>350</v>
+        <v>384</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>351</v>
+        <v>218</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>352</v>
+        <v>385</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>353</v>
+        <v>386</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>355</v>
+        <v>388</v>
       </c>
       <c r="P49" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>350</v>
+        <v>389</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>38</v>
+        <v>390</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>255</v>
+        <v>80</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>256</v>
+        <v>391</v>
       </c>
       <c r="AP49" t="s" s="2">
-        <v>257</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>356</v>
+        <v>392</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>356</v>
+        <v>392</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>224</v>
+        <v>393</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>357</v>
+        <v>394</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>395</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>396</v>
+      </c>
       <c r="O50" t="s" s="2">
-        <v>278</v>
+        <v>397</v>
       </c>
       <c r="P50" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>356</v>
+        <v>392</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>38</v>
+        <v>297</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>38</v>
+        <v>298</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>38</v>
+        <v>299</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>359</v>
+        <v>398</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>359</v>
+        <v>398</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>176</v>
+        <v>266</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>230</v>
+        <v>399</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>231</v>
+        <v>400</v>
       </c>
       <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="P51" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>232</v>
+        <v>398</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>233</v>
+        <v>80</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>360</v>
+        <v>401</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>360</v>
+        <v>401</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>93</v>
+        <v>218</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>235</v>
+        <v>272</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>123</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>237</v>
+        <v>274</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>233</v>
+        <v>275</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP52" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>361</v>
+        <v>402</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>361</v>
+        <v>402</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>239</v>
+        <v>162</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>240</v>
+        <v>277</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>241</v>
+        <v>278</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>124</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>242</v>
+        <v>279</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>99</v>
+        <v>141</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>91</v>
+        <v>275</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP53" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>362</v>
+        <v>403</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>362</v>
+        <v>403</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>38</v>
+        <v>281</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>363</v>
+        <v>282</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>283</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="O54" t="s" s="2">
-        <v>365</v>
+        <v>166</v>
       </c>
       <c r="P54" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U54" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V54" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>366</v>
+        <v>80</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>367</v>
+        <v>80</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>368</v>
+        <v>80</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>362</v>
+        <v>284</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>60</v>
+        <v>141</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP54" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>369</v>
+        <v>404</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>369</v>
+        <v>404</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>370</v>
+        <v>405</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>371</v>
+        <v>406</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>372</v>
+        <v>407</v>
       </c>
       <c r="P55" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U55" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V55" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>38</v>
+        <v>408</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>38</v>
+        <v>409</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>38</v>
+        <v>410</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>369</v>
+        <v>404</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP55" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>373</v>
+        <v>411</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>373</v>
+        <v>411</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>334</v>
+        <v>246</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>374</v>
+        <v>412</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>376</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>377</v>
+        <v>414</v>
       </c>
       <c r="P56" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U56" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V56" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>373</v>
+        <v>411</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP56" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>378</v>
+        <v>415</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>378</v>
+        <v>415</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>380</v>
+        <v>416</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>381</v>
+        <v>417</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>382</v>
+        <v>418</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>383</v>
+        <v>419</v>
       </c>
       <c r="P57" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q57" s="2"/>
       <c r="R57" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T57" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U57" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V57" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>378</v>
+        <v>415</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>233</v>
+        <v>80</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>166</v>
+        <v>80</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>384</v>
+        <v>80</v>
       </c>
       <c r="AP57" t="s" s="2">
-        <v>168</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="P58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q58" s="2"/>
+      <c r="R58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AO58" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AP58" t="s" s="2">
+        <v>210</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-coverage.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-coverage.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2269" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2227" uniqueCount="385">
   <si>
     <t>Property</t>
   </si>
@@ -127,132 +127,6 @@
   </si>
   <si>
     <t>constraint</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>Slice Name</t>
-  </si>
-  <si>
-    <t>Alias(s)</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Must Support?</t>
-  </si>
-  <si>
-    <t>Is Modifier?</t>
-  </si>
-  <si>
-    <t>Is Summary?</t>
-  </si>
-  <si>
-    <t>Type(s)</t>
-  </si>
-  <si>
-    <t>Short</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Requirements</t>
-  </si>
-  <si>
-    <t>Default Value</t>
-  </si>
-  <si>
-    <t>Meaning When Missing</t>
-  </si>
-  <si>
-    <t>Fixed Value</t>
-  </si>
-  <si>
-    <t>Pattern</t>
-  </si>
-  <si>
-    <t>Example</t>
-  </si>
-  <si>
-    <t>Minimum Value</t>
-  </si>
-  <si>
-    <t>Maximum Value</t>
-  </si>
-  <si>
-    <t>Maximum Length</t>
-  </si>
-  <si>
-    <t>Binding Strength</t>
-  </si>
-  <si>
-    <t>Binding Description</t>
-  </si>
-  <si>
-    <t>Binding Value Set</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Slicing Discriminator</t>
-  </si>
-  <si>
-    <t>Slicing Description</t>
-  </si>
-  <si>
-    <t>Slicing Ordered</t>
-  </si>
-  <si>
-    <t>Slicing Rules</t>
-  </si>
-  <si>
-    <t>Base Path</t>
-  </si>
-  <si>
-    <t>Base Min</t>
-  </si>
-  <si>
-    <t>Base Max</t>
-  </si>
-  <si>
-    <t>Condition(s)</t>
-  </si>
-  <si>
-    <t>Constraint(s)</t>
-  </si>
-  <si>
-    <t>Mapping: Workflow Pattern</t>
-  </si>
-  <si>
-    <t>Mapping: RIM Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: FiveWs Pattern Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: Canadian Dental Association eclaims standard</t>
-  </si>
-  <si>
-    <t>Mapping: HL7 v2 Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: Canadian Pharmacy Associaiton eclaims standard</t>
   </si>
   <si>
     <t/>
@@ -1737,7 +1611,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP58"/>
+  <dimension ref="A1:AP57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1750,11 +1624,10 @@
     <col min="2" max="2" width="53.57421875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="24.95703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="128.91015625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1762,7045 +1635,6917 @@
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="10.53125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="207.19140625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="52.84375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="10.26171875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="42.796875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="20.703125" customWidth="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="19.62890625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="46.53125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="59.44921875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="16.3984375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="21.328125" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="51.2734375" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="62.85546875" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="15.9609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>38</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>39</v>
-      </c>
-      <c r="C1" t="s" s="1">
+      <c r="A1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="H1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K1" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="L1" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="M1" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="N1" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="O1" s="2"/>
+      <c r="P1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ1" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="I1" t="s" s="1">
+      <c r="AK1" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="J1" t="s" s="1">
-        <v>47</v>
-      </c>
-      <c r="K1" t="s" s="1">
-        <v>48</v>
-      </c>
-      <c r="L1" t="s" s="1">
-        <v>49</v>
-      </c>
-      <c r="M1" t="s" s="1">
-        <v>50</v>
-      </c>
-      <c r="N1" t="s" s="1">
-        <v>51</v>
-      </c>
-      <c r="O1" t="s" s="1">
-        <v>52</v>
-      </c>
-      <c r="P1" t="s" s="1">
-        <v>53</v>
-      </c>
-      <c r="Q1" t="s" s="1">
-        <v>54</v>
-      </c>
-      <c r="R1" t="s" s="1">
-        <v>55</v>
-      </c>
-      <c r="S1" t="s" s="1">
-        <v>56</v>
-      </c>
-      <c r="T1" t="s" s="1">
-        <v>57</v>
-      </c>
-      <c r="U1" t="s" s="1">
-        <v>58</v>
-      </c>
-      <c r="V1" t="s" s="1">
-        <v>59</v>
-      </c>
-      <c r="W1" t="s" s="1">
-        <v>60</v>
-      </c>
-      <c r="X1" t="s" s="1">
-        <v>61</v>
-      </c>
-      <c r="Y1" t="s" s="1">
-        <v>62</v>
-      </c>
-      <c r="Z1" t="s" s="1">
-        <v>63</v>
-      </c>
-      <c r="AA1" t="s" s="1">
-        <v>64</v>
-      </c>
-      <c r="AB1" t="s" s="1">
-        <v>65</v>
-      </c>
-      <c r="AC1" t="s" s="1">
-        <v>66</v>
-      </c>
-      <c r="AD1" t="s" s="1">
-        <v>67</v>
-      </c>
-      <c r="AE1" t="s" s="1">
-        <v>68</v>
-      </c>
-      <c r="AF1" t="s" s="1">
-        <v>69</v>
-      </c>
-      <c r="AG1" t="s" s="1">
-        <v>70</v>
-      </c>
-      <c r="AH1" t="s" s="1">
-        <v>71</v>
-      </c>
-      <c r="AI1" t="s" s="1">
-        <v>72</v>
-      </c>
-      <c r="AJ1" t="s" s="1">
-        <v>73</v>
-      </c>
-      <c r="AK1" t="s" s="1">
-        <v>74</v>
-      </c>
-      <c r="AL1" t="s" s="1">
-        <v>75</v>
-      </c>
-      <c r="AM1" t="s" s="1">
-        <v>76</v>
-      </c>
-      <c r="AN1" t="s" s="1">
-        <v>77</v>
-      </c>
-      <c r="AO1" t="s" s="1">
-        <v>78</v>
-      </c>
-      <c r="AP1" t="s" s="1">
-        <v>79</v>
+      <c r="AL1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="AM1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AO1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AP1" t="s" s="2">
+        <v>38</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>95</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AO3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N4" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="N4" t="s" s="2">
+        <v>65</v>
+      </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AO4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AO5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="M6" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="N6" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="G6" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K6" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>114</v>
+        <v>38</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>115</v>
+        <v>38</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>116</v>
+        <v>38</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AO6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>124</v>
+        <v>90</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AO7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>127</v>
+        <v>38</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="AC8" s="2"/>
       <c r="AD8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AO8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="C9" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="D9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N9" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="N9" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AC9" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>38</v>
+      </c>
       <c r="AD9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>139</v>
+        <v>38</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>141</v>
+        <v>99</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AO9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>148</v>
+        <v>106</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>141</v>
+        <v>99</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>149</v>
+        <v>113</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>150</v>
+        <v>114</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>152</v>
+        <v>116</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>153</v>
+        <v>117</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>154</v>
+        <v>118</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>148</v>
+        <v>106</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>141</v>
+        <v>99</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>155</v>
+        <v>119</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="C12" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>157</v>
+        <v>93</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>158</v>
+        <v>121</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="O12" s="2"/>
+        <v>123</v>
+      </c>
+      <c r="O12" t="s" s="2">
+        <v>124</v>
+      </c>
       <c r="P12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>148</v>
+        <v>38</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>141</v>
+        <v>99</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>161</v>
+        <v>126</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>161</v>
+        <v>126</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>162</v>
+        <v>38</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>164</v>
+        <v>129</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>166</v>
+        <v>131</v>
       </c>
       <c r="P13" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>141</v>
+        <v>60</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>133</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AP13" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>169</v>
+        <v>68</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>170</v>
+        <v>139</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>171</v>
+        <v>140</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>172</v>
+        <v>141</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>173</v>
+        <v>142</v>
       </c>
       <c r="P14" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>174</v>
+        <v>146</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>177</v>
+        <v>38</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>178</v>
+        <v>38</v>
       </c>
       <c r="AP14" t="s" s="2">
-        <v>179</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>180</v>
+        <v>149</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>180</v>
+        <v>149</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>184</v>
+        <v>154</v>
       </c>
       <c r="P15" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>185</v>
+        <v>72</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>186</v>
+        <v>155</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>187</v>
+        <v>156</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>180</v>
+        <v>149</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>188</v>
+        <v>38</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>189</v>
+        <v>38</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>190</v>
+        <v>157</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>80</v>
+        <v>158</v>
       </c>
       <c r="AP15" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>191</v>
+        <v>159</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>191</v>
+        <v>159</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>192</v>
+        <v>160</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>193</v>
+        <v>161</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>194</v>
+        <v>162</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>195</v>
+        <v>163</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>196</v>
+        <v>164</v>
       </c>
       <c r="P16" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>114</v>
+        <v>38</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>197</v>
+        <v>38</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>191</v>
+        <v>159</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>199</v>
+        <v>165</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>80</v>
+        <v>166</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>200</v>
+        <v>167</v>
       </c>
       <c r="AP16" t="s" s="2">
-        <v>80</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>201</v>
+        <v>169</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>201</v>
+        <v>169</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>202</v>
+        <v>170</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>204</v>
+        <v>172</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>205</v>
+        <v>173</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>206</v>
+        <v>174</v>
       </c>
       <c r="P17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>201</v>
+        <v>169</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>207</v>
+        <v>165</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>208</v>
+        <v>166</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>209</v>
+        <v>167</v>
       </c>
       <c r="AP17" t="s" s="2">
-        <v>210</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>211</v>
+        <v>175</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>211</v>
+        <v>175</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>212</v>
+        <v>176</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>213</v>
+        <v>177</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>215</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>216</v>
+        <v>179</v>
       </c>
       <c r="P18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>211</v>
+        <v>175</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>207</v>
+        <v>165</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>208</v>
+        <v>166</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>209</v>
+        <v>167</v>
       </c>
       <c r="AP18" t="s" s="2">
-        <v>210</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>217</v>
+        <v>180</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>217</v>
+        <v>180</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>218</v>
+        <v>181</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>219</v>
+        <v>182</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="O19" t="s" s="2">
-        <v>221</v>
+        <v>185</v>
       </c>
       <c r="P19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>217</v>
+        <v>180</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>80</v>
+        <v>186</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>207</v>
+        <v>165</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>208</v>
+        <v>166</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>209</v>
+        <v>167</v>
       </c>
       <c r="AP19" t="s" s="2">
-        <v>210</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>222</v>
+        <v>187</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>222</v>
+        <v>187</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>223</v>
+        <v>176</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>224</v>
+        <v>188</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>225</v>
+        <v>189</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>227</v>
+        <v>191</v>
       </c>
       <c r="P20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>222</v>
+        <v>187</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>228</v>
+        <v>38</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>207</v>
+        <v>38</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="AP20" t="s" s="2">
-        <v>210</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>229</v>
+        <v>194</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>229</v>
+        <v>194</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>218</v>
+        <v>150</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>231</v>
+        <v>196</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>232</v>
+        <v>197</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="P21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>80</v>
+        <v>199</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>80</v>
+        <v>201</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>229</v>
+        <v>194</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>234</v>
+        <v>202</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>235</v>
+        <v>38</v>
       </c>
       <c r="AP21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>236</v>
+        <v>203</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>236</v>
+        <v>203</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>237</v>
+        <v>205</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>239</v>
+        <v>207</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="P22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>241</v>
+        <v>38</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>242</v>
+        <v>38</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>243</v>
+        <v>38</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>236</v>
+        <v>203</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>80</v>
+        <v>209</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>80</v>
+        <v>210</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>80</v>
+        <v>211</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>244</v>
+        <v>38</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>80</v>
+        <v>212</v>
       </c>
       <c r="AP22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>245</v>
+        <v>213</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>245</v>
+        <v>213</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>246</v>
+        <v>214</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>247</v>
+        <v>215</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>248</v>
+        <v>216</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>249</v>
+        <v>217</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>250</v>
+        <v>218</v>
       </c>
       <c r="P23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>245</v>
+        <v>213</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>251</v>
+        <v>38</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>252</v>
+        <v>38</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>253</v>
+        <v>219</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>80</v>
+        <v>220</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>254</v>
+        <v>221</v>
       </c>
       <c r="AP23" t="s" s="2">
-        <v>80</v>
+        <v>222</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>255</v>
+        <v>223</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>255</v>
+        <v>223</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>257</v>
+        <v>225</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>260</v>
+        <v>228</v>
       </c>
       <c r="P24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>255</v>
+        <v>223</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>261</v>
+        <v>38</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>262</v>
+        <v>38</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>263</v>
+        <v>38</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>264</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>265</v>
+        <v>229</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>265</v>
+        <v>229</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>266</v>
+        <v>176</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>267</v>
+        <v>230</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>270</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>265</v>
+        <v>232</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>80</v>
+        <v>233</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>271</v>
+        <v>234</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>271</v>
+        <v>234</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>218</v>
+        <v>93</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>272</v>
+        <v>235</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>123</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>274</v>
+        <v>237</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>275</v>
+        <v>233</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>162</v>
+        <v>239</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>277</v>
+        <v>240</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>278</v>
+        <v>241</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="O27" s="2"/>
+        <v>123</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>124</v>
+      </c>
       <c r="P27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>279</v>
+        <v>242</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>141</v>
+        <v>99</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>275</v>
+        <v>91</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>280</v>
+        <v>243</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>280</v>
+        <v>243</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>281</v>
+        <v>38</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>282</v>
+        <v>244</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>283</v>
+        <v>245</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>165</v>
+        <v>246</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>166</v>
+        <v>247</v>
       </c>
       <c r="P28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>80</v>
+        <v>199</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>80</v>
+        <v>248</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>80</v>
+        <v>249</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>284</v>
+        <v>243</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>141</v>
+        <v>60</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>285</v>
+        <v>250</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>285</v>
+        <v>250</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>286</v>
+        <v>251</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>287</v>
+        <v>252</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>288</v>
+        <v>253</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>289</v>
+        <v>254</v>
       </c>
       <c r="P29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>241</v>
+        <v>38</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>290</v>
+        <v>38</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>291</v>
+        <v>38</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>285</v>
+        <v>250</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>80</v>
+        <v>255</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>80</v>
+        <v>256</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>80</v>
+        <v>257</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>292</v>
+        <v>258</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>292</v>
+        <v>258</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>218</v>
+        <v>176</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>293</v>
+        <v>259</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>295</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>296</v>
+        <v>261</v>
       </c>
       <c r="P30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>292</v>
+        <v>258</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>297</v>
+        <v>255</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>298</v>
+        <v>256</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>299</v>
+        <v>257</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>300</v>
+        <v>262</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>300</v>
+        <v>262</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>218</v>
+        <v>263</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>301</v>
+        <v>264</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>265</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="O31" t="s" s="2">
-        <v>303</v>
+        <v>267</v>
       </c>
       <c r="P31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>300</v>
+        <v>262</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>297</v>
+        <v>38</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>298</v>
+        <v>193</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>299</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>304</v>
+        <v>268</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>304</v>
+        <v>268</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>305</v>
+        <v>176</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>306</v>
+        <v>269</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>308</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>309</v>
+        <v>271</v>
       </c>
       <c r="P32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>304</v>
+        <v>268</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>80</v>
+        <v>272</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>235</v>
+        <v>38</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>310</v>
+        <v>273</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>310</v>
+        <v>273</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>80</v>
+        <v>274</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>311</v>
+        <v>275</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>276</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>277</v>
+      </c>
       <c r="O33" t="s" s="2">
-        <v>313</v>
+        <v>278</v>
       </c>
       <c r="P33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>310</v>
+        <v>273</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>314</v>
+        <v>38</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>315</v>
+        <v>279</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>315</v>
+        <v>279</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>316</v>
+        <v>38</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>266</v>
+        <v>176</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>317</v>
+        <v>230</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>320</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>315</v>
+        <v>232</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>80</v>
+        <v>233</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>321</v>
+        <v>280</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>321</v>
+        <v>280</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>218</v>
+        <v>93</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>272</v>
+        <v>235</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>123</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>274</v>
+        <v>237</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>275</v>
+        <v>233</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>322</v>
+        <v>281</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>322</v>
+        <v>281</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>162</v>
+        <v>239</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>277</v>
+        <v>240</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>278</v>
+        <v>241</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="O36" s="2"/>
+        <v>123</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>124</v>
+      </c>
       <c r="P36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>279</v>
+        <v>242</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>141</v>
+        <v>99</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>275</v>
+        <v>91</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>323</v>
+        <v>282</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>323</v>
+        <v>282</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>281</v>
+        <v>38</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>165</v>
+        <v>285</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>166</v>
+        <v>286</v>
       </c>
       <c r="P37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>80</v>
+        <v>199</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>80</v>
+        <v>287</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>80</v>
+        <v>288</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>141</v>
+        <v>60</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>325</v>
+        <v>230</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>328</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>241</v>
+        <v>38</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>329</v>
+        <v>38</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>330</v>
+        <v>38</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>324</v>
+        <v>232</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>80</v>
+        <v>233</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>331</v>
+        <v>290</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>331</v>
+        <v>290</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>218</v>
+        <v>93</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>272</v>
+        <v>235</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>123</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>80</v>
+        <v>291</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>274</v>
+        <v>237</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>275</v>
+        <v>233</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>332</v>
+        <v>292</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>332</v>
+        <v>292</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>162</v>
+        <v>38</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>135</v>
+        <v>293</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="O40" s="2"/>
+        <v>296</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>297</v>
+      </c>
       <c r="P40" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>138</v>
+        <v>38</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>333</v>
+        <v>38</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>139</v>
+        <v>38</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>141</v>
+        <v>60</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>275</v>
+        <v>299</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>334</v>
+        <v>301</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>334</v>
+        <v>301</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>335</v>
+        <v>176</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>336</v>
+        <v>230</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>339</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>340</v>
+        <v>232</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>341</v>
+        <v>233</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>342</v>
+        <v>38</v>
       </c>
       <c r="AP41" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>343</v>
+        <v>302</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>343</v>
+        <v>302</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>218</v>
+        <v>93</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>272</v>
+        <v>235</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>123</v>
+      </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>80</v>
+        <v>291</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>274</v>
+        <v>237</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>275</v>
+        <v>233</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>344</v>
+        <v>303</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>344</v>
+        <v>303</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>162</v>
+        <v>38</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>135</v>
+        <v>62</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>277</v>
+        <v>304</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>278</v>
+        <v>305</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="O43" s="2"/>
+        <v>306</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>307</v>
+      </c>
       <c r="P43" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>138</v>
+        <v>38</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>333</v>
+        <v>38</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>139</v>
+        <v>38</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>141</v>
+        <v>60</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>275</v>
+        <v>309</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>80</v>
+        <v>310</v>
       </c>
       <c r="AP43" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>345</v>
+        <v>311</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>345</v>
+        <v>311</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>104</v>
+        <v>176</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>346</v>
+        <v>312</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>347</v>
+        <v>313</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>349</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>350</v>
+        <v>315</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>351</v>
+        <v>316</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>352</v>
+        <v>317</v>
       </c>
       <c r="AP44" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>353</v>
+        <v>318</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>353</v>
+        <v>318</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>218</v>
+        <v>68</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>354</v>
+        <v>319</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>355</v>
+        <v>320</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="O45" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="P45" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>357</v>
+        <v>323</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>358</v>
+        <v>324</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>359</v>
+        <v>325</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>360</v>
+        <v>326</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>360</v>
+        <v>326</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>110</v>
+        <v>176</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>361</v>
+        <v>327</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>363</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>364</v>
+        <v>329</v>
       </c>
       <c r="P46" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>365</v>
+        <v>330</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>366</v>
+        <v>331</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>367</v>
+        <v>332</v>
       </c>
       <c r="AP46" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>368</v>
+        <v>333</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>368</v>
+        <v>333</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>369</v>
+        <v>335</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>337</v>
+      </c>
       <c r="O47" t="s" s="2">
-        <v>371</v>
+        <v>338</v>
       </c>
       <c r="P47" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>372</v>
+        <v>339</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>373</v>
+        <v>340</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>374</v>
+        <v>341</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>375</v>
+        <v>342</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>375</v>
+        <v>342</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>376</v>
+        <v>176</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>377</v>
+        <v>343</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>378</v>
+        <v>344</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>379</v>
+        <v>345</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>380</v>
+        <v>346</v>
       </c>
       <c r="P48" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>381</v>
+        <v>347</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>382</v>
+        <v>348</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>383</v>
+        <v>349</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>384</v>
+        <v>350</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>384</v>
+        <v>350</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>218</v>
+        <v>351</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>385</v>
+        <v>352</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>386</v>
+        <v>353</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>388</v>
+        <v>355</v>
       </c>
       <c r="P49" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>389</v>
+        <v>350</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>390</v>
+        <v>38</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>80</v>
+        <v>255</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>391</v>
+        <v>256</v>
       </c>
       <c r="AP49" t="s" s="2">
-        <v>80</v>
+        <v>257</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>392</v>
+        <v>356</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>392</v>
+        <v>356</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>393</v>
+        <v>224</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>394</v>
+        <v>357</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>396</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>397</v>
+        <v>278</v>
       </c>
       <c r="P50" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>392</v>
+        <v>356</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>297</v>
+        <v>38</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>298</v>
+        <v>38</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>299</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>398</v>
+        <v>359</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>398</v>
+        <v>359</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>266</v>
+        <v>176</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>399</v>
+        <v>230</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>400</v>
+        <v>231</v>
       </c>
       <c r="N51" s="2"/>
-      <c r="O51" t="s" s="2">
-        <v>320</v>
-      </c>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>398</v>
+        <v>232</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>80</v>
+        <v>233</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>401</v>
+        <v>360</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>401</v>
+        <v>360</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>218</v>
+        <v>93</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>272</v>
+        <v>235</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>123</v>
+      </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>274</v>
+        <v>237</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>275</v>
+        <v>233</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP52" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>402</v>
+        <v>361</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>402</v>
+        <v>361</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>162</v>
+        <v>239</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>277</v>
+        <v>240</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>278</v>
+        <v>241</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="O53" s="2"/>
+        <v>123</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>124</v>
+      </c>
       <c r="P53" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>279</v>
+        <v>242</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>141</v>
+        <v>99</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>275</v>
+        <v>91</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP53" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>403</v>
+        <v>362</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>403</v>
+        <v>362</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>281</v>
+        <v>38</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>282</v>
+        <v>363</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>165</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>166</v>
+        <v>365</v>
       </c>
       <c r="P54" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U54" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V54" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>80</v>
+        <v>366</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>80</v>
+        <v>367</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>80</v>
+        <v>368</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>284</v>
+        <v>362</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>141</v>
+        <v>60</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP54" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>404</v>
+        <v>369</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>404</v>
+        <v>369</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>405</v>
+        <v>370</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>406</v>
+        <v>371</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>407</v>
+        <v>372</v>
       </c>
       <c r="P55" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U55" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V55" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>408</v>
+        <v>38</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>409</v>
+        <v>38</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>410</v>
+        <v>38</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>404</v>
+        <v>369</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP55" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>411</v>
+        <v>373</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>411</v>
+        <v>373</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>246</v>
+        <v>334</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>412</v>
+        <v>374</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>375</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>376</v>
+      </c>
       <c r="O56" t="s" s="2">
-        <v>414</v>
+        <v>377</v>
       </c>
       <c r="P56" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U56" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V56" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>411</v>
+        <v>373</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP56" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>415</v>
+        <v>378</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>415</v>
+        <v>378</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>416</v>
+        <v>380</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>417</v>
+        <v>381</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>418</v>
+        <v>382</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>419</v>
+        <v>383</v>
       </c>
       <c r="P57" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q57" s="2"/>
       <c r="R57" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T57" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U57" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V57" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>415</v>
+        <v>378</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>80</v>
+        <v>233</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>80</v>
+        <v>166</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>80</v>
+        <v>384</v>
       </c>
       <c r="AP57" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="C58" s="2"/>
-      <c r="D58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E58" s="2"/>
-      <c r="F58" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K58" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="P58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q58" s="2"/>
-      <c r="R58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AO58" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="AP58" t="s" s="2">
-        <v>210</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-coverage.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-coverage.xlsx
@@ -280,7 +280,7 @@
   </si>
   <si>
     <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
+dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidもmeta.lastupdatedも持ってはならない。 / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-coverage.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-coverage.xlsx
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) (http://jpfhir.jp, office@hlfhir.jp)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-coverage.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-coverage.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2-dev</t>
+    <t>1.2.0-dev</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-coverage.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-coverage.xlsx
@@ -280,7 +280,7 @@
   </si>
   <si>
     <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidもmeta.lastupdatedも持ってはならない。 / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
+dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
